--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/HevORT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{936B6A19-16A7-4B07-9418-F1BA42109BF8}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB115F9D-8659-4996-893B-B28C64477BD1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
   <si>
     <t>Desired Print Area</t>
   </si>
@@ -515,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -716,8 +716,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
       </left>
       <right style="medium">
         <color theme="1" tint="0.34998626667073579"/>
@@ -730,11 +775,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,9 +846,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -783,7 +855,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,6 +862,30 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -802,342 +897,35 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -1301,6 +1089,214 @@
       <alignment horizontal="general"/>
     </dxf>
     <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
@@ -1461,6 +1457,584 @@
     </dxf>
     <dxf>
       <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1491,9 +2065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>451908</xdr:colOff>
+      <xdr:colOff>448733</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1541,9 +2115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>3464</xdr:colOff>
+      <xdr:colOff>6639</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>130371</xdr:rowOff>
+      <xdr:rowOff>6546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1597,44 +2171,35 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="43975.067770601854" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="42" xr:uid="{BD1EECC7-D673-48EC-A35A-CAB2DC31BF45}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="43976.678899768522" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="41" xr:uid="{49F4F72D-E82D-4FD8-90BA-0190EA8B06F8}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C7:H63" sheet="FRAMECALCULATOR" r:id="rId2"/>
+    <worksheetSource ref="C7:H48" sheet="FRAMECALCULATOR"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Structure Section" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
-        <s v="Frame"/>
-        <s v="Xtension_ElectronicBay"/>
-        <s v="ZR_Support"/>
-        <s v="BedFrame"/>
-        <s v="BedPlate"/>
-        <s v="XYRails"/>
-        <s v="ZR_Motion"/>
-        <m/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="CAD_Part" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Part Type" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems count="6">
         <s v="3030 Extrusion"/>
         <s v="2020 Extrusion"/>
         <s v="MIC6 Alu 6mm"/>
         <s v="MGN12C Rail"/>
         <s v="MGN12H Rail"/>
         <s v="SFU1204 Screw"/>
-        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="110" maxValue="958.82500000000005" count="35">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="140" maxValue="770" count="13">
         <n v="420"/>
         <n v="410"/>
+        <n v="770"/>
         <n v="758.82500000000005"/>
         <n v="140"/>
         <n v="498.6"/>
@@ -1645,37 +2210,10 @@
         <n v="385"/>
         <n v="450"/>
         <n v="150"/>
-        <m/>
-        <n v="440" u="1"/>
-        <n v="485" u="1"/>
-        <n v="858.82500000000005" u="1"/>
-        <n v="598.6" u="1"/>
-        <n v="510" u="1"/>
-        <n v="650" u="1"/>
-        <n v="500" u="1"/>
-        <n v="345" u="1"/>
-        <n v="520" u="1"/>
-        <n v="610" u="1"/>
-        <n v="110" u="1"/>
-        <n v="425" u="1"/>
-        <n v="958.82500000000005" u="1"/>
-        <n v="470" u="1"/>
-        <n v="698.6" u="1"/>
-        <n v="360" u="1"/>
-        <n v="550" u="1"/>
-        <n v="405" u="1"/>
-        <n v="505" u="1"/>
-        <n v="918.82500000000005" u="1"/>
-        <n v="658.6" u="1"/>
-        <n v="495" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
-        <n v="1"/>
-        <n v="3"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1687,362 +2225,353 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="41">
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HHB"/>
     <s v="Horizontal_High_Back"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HHF"/>
     <s v="Horizontal_High_Front"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HHL"/>
     <s v="Horizontal_High_Left"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HHR"/>
     <s v="Horizontal_High_Right"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HLB"/>
     <s v="Horizontal_Low_Back"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HLF"/>
     <s v="Horizontal_Low_Front"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HLL"/>
     <s v="Horizontal_Low_Left"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HLR"/>
     <s v="Horizontal_Low_Right"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HMB"/>
     <s v="Horizontal_Mid_Back"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HML"/>
     <s v="Horizontal_Mid_Left"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="HMR"/>
     <s v="Horizontal_Mid_Right"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="VBL"/>
     <s v="Vertical_Back_Left"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="VBR"/>
     <s v="Vertical_Back_Right"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="VFL"/>
     <s v="Vertical_Front_Left"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Frame"/>
     <s v="VFR"/>
     <s v="Vertical_Front_Right"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="Xtension_ElectronicBay"/>
     <s v="XHH"/>
     <s v="Xtension_Horizontal_High_Right"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="Xtension_ElectronicBay"/>
     <s v="XHHB"/>
     <s v="Xtension_Horizontal_High_Back"/>
     <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="Xtension_ElectronicBay"/>
     <s v="XHHF"/>
     <s v="Xtension_Horizontal_High_Front"/>
     <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="Xtension_ElectronicBay"/>
     <s v="XHLB"/>
     <s v="Xtension_Horizontal_Low_Back"/>
     <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="Xtension_ElectronicBay"/>
     <s v="XHLF"/>
     <s v="Xtension_Horizontal_Low_Front"/>
     <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="Xtension_ElectronicBay"/>
     <s v="XHLR"/>
     <s v="Xtension_Horizontal_Low_Right"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="Xtension_ElectronicBay"/>
     <s v="XVBR"/>
     <s v="Xtension_Vertical_Back_Right"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="Xtension_ElectronicBay"/>
     <s v="XVF"/>
     <s v="Xtension_Vertical_Front"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="2"/>
+    <s v="ZR_Support"/>
     <s v="VFL_ZR"/>
     <s v="ZR Doubler Vertical_Front_Left"/>
     <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
+    <x v="5"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="2"/>
+    <s v="ZR_Support"/>
     <s v="VFR_ZR"/>
     <s v="ZR Doubler Vertical_Front_Right"/>
     <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
+    <x v="5"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="2"/>
+    <s v="ZR_Support"/>
     <s v="VRR_ZR"/>
     <s v="ZR Doubler Vertical_Rear"/>
     <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
+    <x v="5"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
+    <s v="BedFrame"/>
     <s v="BedFR"/>
     <s v="BedFrame Front"/>
     <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
+    <x v="6"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
+    <s v="BedFrame"/>
     <s v="BedRR"/>
     <s v="BedFrame Rear"/>
     <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
+    <x v="6"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
+    <s v="BedFrame"/>
     <s v="BedLH"/>
     <s v="BedFrame Left"/>
     <x v="1"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="7"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
+    <s v="BedFrame"/>
     <s v="BedRH"/>
     <s v="BedFrame Right"/>
     <x v="1"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="7"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="4"/>
+    <s v="BedPlate"/>
     <s v="BedPlate"/>
     <s v="Bed Plate (Square)"/>
     <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
+    <x v="8"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="5"/>
+    <s v="XYRails"/>
     <s v="Y_MGN12C_Left"/>
     <s v="MGN12 Rail with MGNC (Compact Bloc)"/>
     <x v="3"/>
-    <x v="8"/>
-    <x v="0"/>
+    <x v="9"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="5"/>
+    <s v="XYRails"/>
     <s v="Y_MGN12C_Right"/>
     <s v="MGN12 Rail with MGNC (Compact Bloc)"/>
     <x v="3"/>
-    <x v="8"/>
-    <x v="0"/>
+    <x v="9"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="5"/>
+    <s v="XYRails"/>
     <s v="X_MGN12H"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
     <x v="4"/>
-    <x v="9"/>
-    <x v="0"/>
+    <x v="10"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="ZR_Motion"/>
     <s v="ZR_MGN12H_FL"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
     <x v="4"/>
-    <x v="10"/>
-    <x v="0"/>
+    <x v="11"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="ZR_Motion"/>
     <s v="ZR_MGN12H_FL"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
     <x v="4"/>
-    <x v="10"/>
-    <x v="0"/>
+    <x v="11"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="ZR_Motion"/>
     <s v="ZR_MGN12H_FL"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
     <x v="4"/>
-    <x v="10"/>
-    <x v="0"/>
+    <x v="11"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="ZR_Motion"/>
     <s v="ZR_MGN12H_BED"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
     <x v="4"/>
-    <x v="11"/>
-    <x v="1"/>
+    <x v="12"/>
+    <n v="3"/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="ZR_Motion"/>
     <s v="ZR_SFU1204_FL"/>
     <s v="Ball Screw SFU1204 Front Left"/>
     <x v="5"/>
-    <x v="10"/>
-    <x v="0"/>
+    <x v="11"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="ZR_Motion"/>
     <s v="ZR_SFU1204_FR"/>
     <s v="Ball Screw SFU1204 Front Right"/>
     <x v="5"/>
-    <x v="10"/>
-    <x v="0"/>
+    <x v="11"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="ZR_Motion"/>
     <s v="ZR_SFU1204_RR"/>
     <s v="Ball Screw SFU1204 Front Rear"/>
     <x v="5"/>
-    <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="12"/>
-    <x v="2"/>
+    <x v="11"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE838722-FC97-445B-A4B7-84DD0AD11F3B}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="O7:Q27" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B04B37E-25BB-4FF7-8D43-B70C86EDBC88}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="O7:Q28" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" insertBlankRow="1" defaultSubtotal="0">
-      <items count="7">
+      <items count="6">
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
         <item x="4"/>
         <item x="2"/>
         <item x="5"/>
-        <item h="1" x="6"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -2051,42 +2580,20 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="36">
-        <item m="1" x="23"/>
+      <items count="14">
+        <item x="12"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="0"/>
         <item x="11"/>
         <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="10"/>
+        <item x="3"/>
         <item x="4"/>
         <item x="2"/>
-        <item x="12"/>
-        <item m="1" x="31"/>
-        <item m="1" x="34"/>
-        <item m="1" x="32"/>
-        <item m="1" x="33"/>
-        <item m="1" x="20"/>
-        <item m="1" x="30"/>
-        <item m="1" x="24"/>
-        <item m="1" x="14"/>
-        <item m="1" x="26"/>
-        <item m="1" x="22"/>
-        <item m="1" x="21"/>
-        <item m="1" x="17"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="28"/>
-        <item m="1" x="13"/>
-        <item m="1" x="19"/>
-        <item m="1" x="29"/>
-        <item x="3"/>
-        <item m="1" x="25"/>
-        <item m="1" x="27"/>
-        <item m="1" x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2096,23 +2603,26 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="20">
     <i>
       <x/>
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="2"/>
     </i>
     <i t="blank">
       <x/>
     </i>
     <i>
       <x v="1"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
       <x v="7"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="9"/>
     </i>
     <i r="1">
       <x v="10"/>
@@ -2121,41 +2631,41 @@
       <x v="11"/>
     </i>
     <i r="1">
-      <x v="31"/>
+      <x v="12"/>
     </i>
     <i t="blank">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-      <x v="6"/>
+      <x v="5"/>
     </i>
     <i t="blank">
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
-      <x v="1"/>
+      <x/>
     </i>
     <i r="1">
-      <x v="5"/>
+      <x v="4"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i t="blank">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="4"/>
+      <x v="3"/>
     </i>
     <i t="blank">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i t="blank">
       <x v="5"/>
@@ -2168,159 +2678,159 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="45">
+    <format dxfId="89">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="88">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="87">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="86">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="85">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="84">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="82">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="81">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="80">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="79">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="78">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="77">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="76">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="75">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="74">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="73">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="72">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="70">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="69">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="68">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="4" count="2">
+            <x v="1"/>
             <x v="2"/>
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="4" count="5">
+            <x v="6"/>
             <x v="7"/>
-            <x v="8"/>
+            <x v="9"/>
             <x v="10"/>
             <x v="11"/>
-            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
             <x v="2"/>
           </reference>
           <reference field="4" count="1">
-            <x v="6"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
             <x v="3"/>
           </reference>
           <reference field="4" count="3">
-            <x v="1"/>
-            <x v="5"/>
-            <x v="9"/>
+            <x v="0"/>
+            <x v="4"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
             <x v="4"/>
           </reference>
           <reference field="4" count="1">
-            <x v="4"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
             <x v="5"/>
           </reference>
           <reference field="4" count="1">
-            <x v="9"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="60">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2639,7 +3149,7 @@
   <dimension ref="B1:U48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -2659,8 +3169,8 @@
     <col min="13" max="13" width="11.90625" customWidth="1"/>
     <col min="14" max="14" width="1.26953125" customWidth="1"/>
     <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.1796875" customWidth="1"/>
     <col min="19" max="19" width="12.26953125" customWidth="1"/>
   </cols>
@@ -2682,7 +3192,7 @@
       <c r="F2" s="5">
         <v>315</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2707,12 +3217,12 @@
       <c r="F4" s="5">
         <v>340</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="3:21" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="U5" s="30" t="s">
+      <c r="U5" s="23" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2720,13 +3230,13 @@
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34"/>
     </row>
-    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2754,31 +3264,31 @@
       <c r="K7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="36" t="s">
+      <c r="N7" s="24"/>
+      <c r="O7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="37"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="49"/>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C8" s="14" t="s">
+    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" ref="G8:G48" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
         <v>420</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2790,35 +3300,35 @@
       <c r="K8" s="1">
         <v>105</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="38" t="s">
+      <c r="N8" s="25"/>
+      <c r="O8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="39" t="s">
+      <c r="Q8" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2830,35 +3340,35 @@
       <c r="K9" s="1">
         <v>105</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="40" t="s">
+      <c r="N9" s="25"/>
+      <c r="O9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="45">
         <v>260</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C10" s="14" t="s">
+    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2870,35 +3380,35 @@
       <c r="K10" s="1">
         <v>95</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="40" t="s">
+      <c r="N10" s="25"/>
+      <c r="O10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="46">
         <v>320</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2910,29 +3420,29 @@
       <c r="K11" s="1">
         <v>95</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="41"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="39"/>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2944,35 +3454,35 @@
       <c r="K12" s="1">
         <v>105</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="40" t="s">
+      <c r="N12" s="25"/>
+      <c r="O12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="45">
         <v>410</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="39">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -2984,35 +3494,35 @@
       <c r="K13" s="1">
         <v>105</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="40" t="s">
+      <c r="N13" s="25"/>
+      <c r="O13" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="47">
         <v>420</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="39">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -3024,35 +3534,35 @@
       <c r="K14" s="1">
         <v>95</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="40" t="s">
+      <c r="N14" s="25"/>
+      <c r="O14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="47">
         <v>498.6</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -3064,35 +3574,35 @@
       <c r="K15" s="1">
         <v>95</v>
       </c>
-      <c r="N15" s="32"/>
-      <c r="O15" s="40" t="s">
+      <c r="N15" s="25"/>
+      <c r="O15" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="47">
         <v>758.82500000000005</v>
       </c>
-      <c r="Q15" s="41">
-        <v>6</v>
+      <c r="Q15" s="39">
+        <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C16" s="14" t="s">
+    <row r="16" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -3104,35 +3614,35 @@
       <c r="K16" s="1">
         <v>105</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="40" t="s">
+      <c r="N16" s="25"/>
+      <c r="O16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="46">
         <v>140</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="39">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C17" s="14" t="s">
+    <row r="17" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -3144,29 +3654,35 @@
       <c r="K17" s="1">
         <v>95</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="41"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="15">
+        <v>770</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C18" s="14" t="s">
+    <row r="18" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -3178,35 +3694,29 @@
       <c r="K18" s="1">
         <v>95</v>
       </c>
-      <c r="N18" s="32"/>
-      <c r="O18" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="16">
-        <v>400</v>
-      </c>
-      <c r="Q18" s="41">
-        <v>2</v>
-      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="39"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C19" s="14" t="s">
+    <row r="19" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>770</v>
-      </c>
-      <c r="H19" s="15">
+        <v>758.82500000000005</v>
+      </c>
+      <c r="H19" s="14">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -3216,31 +3726,37 @@
         <v>340</v>
       </c>
       <c r="K19" s="1">
-        <v>430</v>
-      </c>
-      <c r="N19" s="32"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="41"/>
+        <v>418.82500000000005</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="48">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C20" s="14" t="s">
+    <row r="20" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
         <v>758.82500000000005</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -3252,35 +3768,29 @@
       <c r="K20" s="1">
         <v>418.82500000000005</v>
       </c>
-      <c r="N20" s="32"/>
-      <c r="O20" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" s="16">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="41">
-        <v>3</v>
-      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <f t="shared" si="0"/>
         <v>758.82500000000005</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3292,35 +3802,35 @@
       <c r="K21" s="1">
         <v>418.82500000000005</v>
       </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="40" t="s">
+      <c r="N21" s="25"/>
+      <c r="O21" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="16">
-        <v>385</v>
-      </c>
-      <c r="Q21" s="41">
-        <v>1</v>
+      <c r="P21" s="45">
+        <v>150</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <f t="shared" si="0"/>
         <v>758.82500000000005</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -3332,35 +3842,35 @@
       <c r="K22" s="1">
         <v>418.82500000000005</v>
       </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="40" t="s">
+      <c r="N22" s="25"/>
+      <c r="O22" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="16">
-        <v>450</v>
-      </c>
-      <c r="Q22" s="41">
-        <v>3</v>
+      <c r="P22" s="47">
+        <v>385</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C23" s="14" t="s">
+    <row r="23" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -3372,29 +3882,35 @@
       <c r="K23" s="1">
         <v>95</v>
       </c>
-      <c r="N23" s="32"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="41"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="46">
+        <v>450</v>
+      </c>
+      <c r="Q23" s="39">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C24" s="14" t="s">
+    <row r="24" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -3406,35 +3922,29 @@
       <c r="K24" s="1">
         <v>140</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="P24" s="16">
-        <v>340</v>
-      </c>
-      <c r="Q24" s="41">
-        <v>1</v>
-      </c>
+      <c r="N24" s="25"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="39"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C25" s="14" t="s">
+    <row r="25" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -3446,29 +3956,35 @@
       <c r="K25" s="1">
         <v>140</v>
       </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="41"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="48">
+        <v>340</v>
+      </c>
+      <c r="Q25" s="39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C26" s="14" t="s">
+    <row r="26" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -3480,35 +3996,29 @@
       <c r="K26" s="1">
         <v>140</v>
       </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="P26" s="16">
-        <v>450</v>
-      </c>
-      <c r="Q26" s="41">
-        <v>3</v>
-      </c>
+      <c r="N26" s="25"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="39"/>
     </row>
     <row r="27" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -3520,29 +4030,35 @@
       <c r="K27" s="1">
         <v>140</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="44"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="48">
+        <v>450</v>
+      </c>
+      <c r="Q27" s="39">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C28" s="14" t="s">
+    <row r="28" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -3554,28 +4070,28 @@
       <c r="K28" s="1">
         <v>95</v>
       </c>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <f t="shared" si="0"/>
         <v>758.82500000000005</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -3593,23 +4109,23 @@
       <c r="Q29"/>
     </row>
     <row r="30" spans="3:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <f t="shared" si="0"/>
         <v>758.82500000000005</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -3621,7 +4137,7 @@
       <c r="K30" s="1">
         <v>418.82500000000005</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="19" t="s">
         <v>112</v>
       </c>
       <c r="O30"/>
@@ -3629,23 +4145,23 @@
       <c r="Q30"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <f t="shared" si="0"/>
         <v>498.6</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -3662,23 +4178,23 @@
       <c r="Q31"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <f t="shared" si="0"/>
         <v>498.6</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -3695,23 +4211,23 @@
       <c r="Q32"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <f t="shared" si="0"/>
         <v>498.6</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -3728,23 +4244,23 @@
       <c r="Q33"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -3761,23 +4277,23 @@
       <c r="Q34"/>
     </row>
     <row r="35" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -3789,35 +4305,35 @@
       <c r="K35" s="1">
         <v>-55</v>
       </c>
-      <c r="M35" s="23" t="s">
+      <c r="M35" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -3829,35 +4345,35 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-      <c r="M36" s="25" t="s">
+      <c r="M36" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="14">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="14">
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -3869,33 +4385,33 @@
       <c r="K37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="14">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="14">
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -3907,33 +4423,33 @@
       <c r="K38" s="1">
         <v>25</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="M38" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="N38" s="27"/>
-      <c r="O38" s="22" t="s">
+      <c r="N38" s="37"/>
+      <c r="O38" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B39" s="18"/>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="14">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="14">
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -3945,33 +4461,33 @@
       <c r="K39" s="1">
         <v>85</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="30">
         <v>315</v>
       </c>
-      <c r="N39" s="29"/>
-      <c r="O39" s="17">
+      <c r="N39" s="31"/>
+      <c r="O39" s="16">
         <v>340</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B40" s="18"/>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="14">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="14">
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -3983,35 +4499,35 @@
       <c r="K40" s="1">
         <v>85</v>
       </c>
-      <c r="M40" s="28">
+      <c r="M40" s="30">
         <f>M39+50</f>
         <v>365</v>
       </c>
-      <c r="N40" s="29"/>
-      <c r="O40" s="17">
+      <c r="N40" s="31"/>
+      <c r="O40" s="16">
         <f>O39+50</f>
         <v>390</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B41" s="18"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="17"/>
+      <c r="C41" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <f t="shared" si="0"/>
         <v>385</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="14">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -4023,35 +4539,35 @@
       <c r="K41" s="1">
         <v>70</v>
       </c>
-      <c r="M41" s="28">
+      <c r="M41" s="30">
         <f t="shared" ref="M41:M46" si="1">M40+50</f>
         <v>415</v>
       </c>
-      <c r="N41" s="29"/>
-      <c r="O41" s="17">
+      <c r="N41" s="31"/>
+      <c r="O41" s="16">
         <f t="shared" ref="O41:O46" si="2">O40+50</f>
         <v>440</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B42" s="18"/>
-      <c r="C42" s="14" t="s">
+      <c r="B42" s="17"/>
+      <c r="C42" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="14">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -4063,35 +4579,35 @@
       <c r="K42" s="1">
         <v>110</v>
       </c>
-      <c r="M42" s="28">
+      <c r="M42" s="30">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="N42" s="29"/>
-      <c r="O42" s="17">
+      <c r="N42" s="31"/>
+      <c r="O42" s="16">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B43" s="18"/>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="14">
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -4103,35 +4619,35 @@
       <c r="K43" s="1">
         <v>110</v>
       </c>
-      <c r="M43" s="28">
+      <c r="M43" s="30">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
-      <c r="N43" s="29"/>
-      <c r="O43" s="17">
+      <c r="N43" s="31"/>
+      <c r="O43" s="16">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B44" s="18"/>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="14">
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -4143,35 +4659,35 @@
       <c r="K44" s="1">
         <v>110</v>
       </c>
-      <c r="M44" s="28">
+      <c r="M44" s="30">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="N44" s="29"/>
-      <c r="O44" s="17">
+      <c r="N44" s="31"/>
+      <c r="O44" s="16">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B45" s="18"/>
-      <c r="C45" s="14" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="14">
         <v>3</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -4183,35 +4699,35 @@
       <c r="K45" s="1">
         <v>150</v>
       </c>
-      <c r="M45" s="28">
+      <c r="M45" s="30">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="N45" s="29"/>
-      <c r="O45" s="17">
+      <c r="N45" s="31"/>
+      <c r="O45" s="16">
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B46" s="18"/>
-      <c r="C46" s="14" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="14">
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -4223,35 +4739,35 @@
       <c r="K46" s="1">
         <v>110</v>
       </c>
-      <c r="M46" s="28">
+      <c r="M46" s="30">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="N46" s="29"/>
-      <c r="O46" s="17">
+      <c r="N46" s="31"/>
+      <c r="O46" s="16">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B47" s="18"/>
-      <c r="C47" s="14" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="14">
         <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -4265,24 +4781,24 @@
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B48" s="18"/>
-      <c r="C48" s="14" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -4298,17 +4814,17 @@
   </sheetData>
   <autoFilter ref="C7:H7" xr:uid="{72B80A8E-78B2-4BED-A6C7-375BF253D9C2}"/>
   <mergeCells count="11">
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="M36:T37"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB115F9D-8659-4996-893B-B28C64477BD1}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BD59958D-A6F9-4186-997E-B6962B62952B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId2"/>
+    <pivotCache cacheId="4" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="116">
   <si>
     <t>Desired Print Area</t>
   </si>
@@ -378,6 +378,15 @@
   </si>
   <si>
     <t>3. Right-Click in the table above and do "Refresh"</t>
+  </si>
+  <si>
+    <t>X Axis Support</t>
+  </si>
+  <si>
+    <t>Track_X_2020Profile</t>
+  </si>
+  <si>
+    <t>X axis support aluminum profile 2020</t>
   </si>
 </sst>
 </file>
@@ -498,12 +507,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF79D9FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD1F810"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -511,6 +514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7FED6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,18 +855,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,29 +881,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,396 +893,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -2116,8 +1759,8 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>6639</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>6546</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171646</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2171,9 +1814,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="43976.678899768522" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="41" xr:uid="{49F4F72D-E82D-4FD8-90BA-0190EA8B06F8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="43980.42588703704" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="42" xr:uid="{49F4F72D-E82D-4FD8-90BA-0190EA8B06F8}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C7:H48" sheet="FRAMECALCULATOR"/>
+    <worksheetSource ref="C7:H49" sheet="FRAMECALCULATOR"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Structure Section" numFmtId="0">
@@ -2196,20 +1839,21 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="140" maxValue="770" count="13">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="140" maxValue="770" count="14">
         <n v="420"/>
         <n v="410"/>
-        <n v="770"/>
         <n v="758.82500000000005"/>
         <n v="140"/>
         <n v="498.6"/>
         <n v="260"/>
         <n v="320"/>
+        <n v="431"/>
         <n v="340"/>
         <n v="400"/>
         <n v="385"/>
         <n v="450"/>
         <n v="150"/>
+        <n v="770" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -2225,7 +1869,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="41">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
   <r>
     <s v="Frame"/>
     <s v="HHB"/>
@@ -2327,7 +1971,7 @@
     <s v="VBR"/>
     <s v="Vertical_Back_Right"/>
     <x v="0"/>
-    <x v="3"/>
+    <x v="2"/>
     <n v="1"/>
   </r>
   <r>
@@ -2335,7 +1979,7 @@
     <s v="VFL"/>
     <s v="Vertical_Front_Left"/>
     <x v="0"/>
-    <x v="3"/>
+    <x v="2"/>
     <n v="1"/>
   </r>
   <r>
@@ -2343,7 +1987,7 @@
     <s v="VFR"/>
     <s v="Vertical_Front_Right"/>
     <x v="0"/>
-    <x v="3"/>
+    <x v="2"/>
     <n v="1"/>
   </r>
   <r>
@@ -2359,7 +2003,7 @@
     <s v="XHHB"/>
     <s v="Xtension_Horizontal_High_Back"/>
     <x v="0"/>
-    <x v="4"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
@@ -2367,7 +2011,7 @@
     <s v="XHHF"/>
     <s v="Xtension_Horizontal_High_Front"/>
     <x v="0"/>
-    <x v="4"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
@@ -2375,7 +2019,7 @@
     <s v="XHLB"/>
     <s v="Xtension_Horizontal_Low_Back"/>
     <x v="0"/>
-    <x v="4"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
@@ -2383,7 +2027,7 @@
     <s v="XHLF"/>
     <s v="Xtension_Horizontal_Low_Front"/>
     <x v="0"/>
-    <x v="4"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
@@ -2399,7 +2043,7 @@
     <s v="XVBR"/>
     <s v="Xtension_Vertical_Back_Right"/>
     <x v="0"/>
-    <x v="3"/>
+    <x v="2"/>
     <n v="1"/>
   </r>
   <r>
@@ -2407,7 +2051,7 @@
     <s v="XVF"/>
     <s v="Xtension_Vertical_Front"/>
     <x v="0"/>
-    <x v="3"/>
+    <x v="2"/>
     <n v="1"/>
   </r>
   <r>
@@ -2415,7 +2059,7 @@
     <s v="VFL_ZR"/>
     <s v="ZR Doubler Vertical_Front_Left"/>
     <x v="0"/>
-    <x v="5"/>
+    <x v="4"/>
     <n v="1"/>
   </r>
   <r>
@@ -2423,7 +2067,7 @@
     <s v="VFR_ZR"/>
     <s v="ZR Doubler Vertical_Front_Right"/>
     <x v="0"/>
-    <x v="5"/>
+    <x v="4"/>
     <n v="1"/>
   </r>
   <r>
@@ -2431,7 +2075,7 @@
     <s v="VRR_ZR"/>
     <s v="ZR Doubler Vertical_Rear"/>
     <x v="0"/>
-    <x v="5"/>
+    <x v="4"/>
     <n v="1"/>
   </r>
   <r>
@@ -2439,7 +2083,7 @@
     <s v="BedFR"/>
     <s v="BedFrame Front"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <n v="1"/>
   </r>
   <r>
@@ -2447,7 +2091,7 @@
     <s v="BedRR"/>
     <s v="BedFrame Rear"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <n v="1"/>
   </r>
   <r>
@@ -2455,13 +2099,21 @@
     <s v="BedLH"/>
     <s v="BedFrame Left"/>
     <x v="1"/>
-    <x v="7"/>
+    <x v="6"/>
     <n v="1"/>
   </r>
   <r>
     <s v="BedFrame"/>
     <s v="BedRH"/>
     <s v="BedFrame Right"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="X Axis Support"/>
+    <s v="Track_X_2020Profile"/>
+    <s v="X axis support aluminum profile 2020"/>
     <x v="1"/>
     <x v="7"/>
     <n v="1"/>
@@ -2558,7 +2210,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B04B37E-25BB-4FF7-8D43-B70C86EDBC88}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B04B37E-25BB-4FF7-8D43-B70C86EDBC88}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q28" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2580,20 +2232,21 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="14">
+      <items count="15">
         <item x="12"/>
+        <item x="5"/>
         <item x="6"/>
-        <item x="7"/>
         <item x="8"/>
         <item x="10"/>
         <item x="9"/>
         <item x="1"/>
         <item x="0"/>
         <item x="11"/>
-        <item x="5"/>
-        <item x="3"/>
         <item x="4"/>
         <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="13"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2610,6 +2263,9 @@
     </i>
     <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
     </i>
     <i t="blank">
       <x/>
@@ -2629,9 +2285,6 @@
     </i>
     <i r="1">
       <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
     </i>
     <i t="blank">
       <x v="1"/>
@@ -2678,80 +2331,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="89">
+    <format dxfId="59">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="58">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="57">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="56">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="55">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="54">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="53">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="52">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="50">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="49">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="48">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="47">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="46">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="45">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="44">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="43">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="42">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="40">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="39">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="38">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2764,7 +2417,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2780,7 +2433,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2792,7 +2445,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2806,7 +2459,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2818,7 +2471,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2830,7 +2483,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="30">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3146,10 +2799,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:U48"/>
+  <dimension ref="B1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L6:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -3157,7 +2810,7 @@
     <col min="1" max="1" width="3.453125" customWidth="1"/>
     <col min="2" max="2" width="1.26953125" customWidth="1"/>
     <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
@@ -3192,7 +2845,7 @@
       <c r="F2" s="5">
         <v>315</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3217,12 +2870,12 @@
       <c r="F4" s="5">
         <v>340</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="3:21" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="U5" s="23" t="s">
+      <c r="U5" s="22" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3230,11 +2883,11 @@
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="8" t="s">
@@ -3264,12 +2917,12 @@
       <c r="K7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="41" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="49"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="13" t="s">
@@ -3285,7 +2938,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="14">
-        <f t="shared" ref="G8:G48" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
+        <f t="shared" ref="G8:G49" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
         <v>420</v>
       </c>
       <c r="H8" s="14">
@@ -3300,14 +2953,14 @@
       <c r="K8" s="1">
         <v>105</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="43" t="s">
+      <c r="N8" s="24"/>
+      <c r="O8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="25" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3340,14 +2993,14 @@
       <c r="K9" s="1">
         <v>105</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="45" t="s">
+      <c r="N9" s="24"/>
+      <c r="O9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="37">
         <v>260</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="30">
         <v>2</v>
       </c>
     </row>
@@ -3380,14 +3033,14 @@
       <c r="K10" s="1">
         <v>95</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="46" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="38">
         <v>320</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="31">
         <v>2</v>
       </c>
     </row>
@@ -3420,12 +3073,18 @@
       <c r="K11" s="1">
         <v>95</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="39"/>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="N11" s="51"/>
+      <c r="O11" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="15">
+        <v>431</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
@@ -3454,16 +3113,10 @@
       <c r="K12" s="1">
         <v>105</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="45">
-        <v>410</v>
-      </c>
-      <c r="Q12" s="39">
-        <v>8</v>
-      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C13" s="13" t="s">
@@ -3494,15 +3147,15 @@
       <c r="K13" s="1">
         <v>105</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="47" t="s">
+      <c r="N13" s="24"/>
+      <c r="O13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="47">
-        <v>420</v>
-      </c>
-      <c r="Q13" s="39">
-        <v>5</v>
+      <c r="P13" s="37">
+        <v>410</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.35">
@@ -3534,15 +3187,15 @@
       <c r="K14" s="1">
         <v>95</v>
       </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="47" t="s">
+      <c r="N14" s="24"/>
+      <c r="O14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="47">
-        <v>498.6</v>
-      </c>
-      <c r="Q14" s="39">
-        <v>3</v>
+      <c r="P14" s="39">
+        <v>420</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.35">
@@ -3574,18 +3227,18 @@
       <c r="K15" s="1">
         <v>95</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="47" t="s">
+      <c r="N15" s="24"/>
+      <c r="O15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="47">
-        <v>758.82500000000005</v>
-      </c>
-      <c r="Q15" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P15" s="39">
+        <v>498.6</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
@@ -3614,15 +3267,15 @@
       <c r="K16" s="1">
         <v>105</v>
       </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="47" t="s">
+      <c r="N16" s="24"/>
+      <c r="O16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="46">
-        <v>140</v>
-      </c>
-      <c r="Q16" s="39">
-        <v>4</v>
+      <c r="P16" s="39">
+        <v>758.82500000000005</v>
+      </c>
+      <c r="Q16" s="31">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3654,15 +3307,15 @@
       <c r="K17" s="1">
         <v>95</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="46" t="s">
+      <c r="N17" s="24"/>
+      <c r="O17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="15">
-        <v>770</v>
-      </c>
-      <c r="Q17" s="39">
-        <v>1</v>
+      <c r="P17" s="38">
+        <v>140</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3694,10 +3347,10 @@
       <c r="K18" s="1">
         <v>95</v>
       </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="26"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="39"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="13" t="s">
@@ -3728,14 +3381,14 @@
       <c r="K19" s="1">
         <v>418.82500000000005</v>
       </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="48" t="s">
+      <c r="N19" s="24"/>
+      <c r="O19" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="P19" s="48">
+      <c r="P19" s="40">
         <v>400</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="31">
         <v>2</v>
       </c>
     </row>
@@ -3768,10 +3421,10 @@
       <c r="K20" s="1">
         <v>418.82500000000005</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="27"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="26"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="39"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C21" s="13" t="s">
@@ -3802,14 +3455,14 @@
       <c r="K21" s="1">
         <v>418.82500000000005</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="45" t="s">
+      <c r="N21" s="24"/>
+      <c r="O21" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="37">
         <v>150</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q21" s="31">
         <v>3</v>
       </c>
     </row>
@@ -3842,14 +3495,14 @@
       <c r="K22" s="1">
         <v>418.82500000000005</v>
       </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="47" t="s">
+      <c r="N22" s="24"/>
+      <c r="O22" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="39">
         <v>385</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="31">
         <v>1</v>
       </c>
     </row>
@@ -3882,14 +3535,14 @@
       <c r="K23" s="1">
         <v>95</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="46" t="s">
+      <c r="N23" s="24"/>
+      <c r="O23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="46">
+      <c r="P23" s="38">
         <v>450</v>
       </c>
-      <c r="Q23" s="39">
+      <c r="Q23" s="31">
         <v>3</v>
       </c>
     </row>
@@ -3922,10 +3575,10 @@
       <c r="K24" s="1">
         <v>140</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="27"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="26"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="39"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="13" t="s">
@@ -3956,14 +3609,14 @@
       <c r="K25" s="1">
         <v>140</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="48" t="s">
+      <c r="N25" s="24"/>
+      <c r="O25" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="P25" s="48">
+      <c r="P25" s="40">
         <v>340</v>
       </c>
-      <c r="Q25" s="39">
+      <c r="Q25" s="31">
         <v>1</v>
       </c>
     </row>
@@ -3996,10 +3649,10 @@
       <c r="K26" s="1">
         <v>140</v>
       </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="27"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="26"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="39"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="13" t="s">
@@ -4030,14 +3683,14 @@
       <c r="K27" s="1">
         <v>140</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="48" t="s">
+      <c r="N27" s="24"/>
+      <c r="O27" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="48">
+      <c r="P27" s="40">
         <v>450</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="Q27" s="31">
         <v>3</v>
       </c>
     </row>
@@ -4070,9 +3723,9 @@
       <c r="K28" s="1">
         <v>95</v>
       </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="40"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="32"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C29" s="13" t="s">
@@ -4137,7 +3790,7 @@
       <c r="K30" s="1">
         <v>418.82500000000005</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="18" t="s">
         <v>112</v>
       </c>
       <c r="O30"/>
@@ -4305,16 +3958,16 @@
       <c r="K35" s="1">
         <v>-55</v>
       </c>
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C36" s="13" t="s">
@@ -4345,16 +3998,16 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-      <c r="M36" s="35" t="s">
+      <c r="M36" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C37" s="13" t="s">
@@ -4385,31 +4038,32 @@
       <c r="K37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+    </row>
+    <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="51"/>
       <c r="C38" s="13" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>431</v>
       </c>
       <c r="H38" s="14">
         <v>1</v>
@@ -4421,61 +4075,61 @@
         <v>315</v>
       </c>
       <c r="K38" s="1">
-        <v>25</v>
-      </c>
-      <c r="M38" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="N38" s="37"/>
-      <c r="O38" s="20" t="s">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
       <c r="C39" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="H39" s="14">
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1">
         <v>315</v>
       </c>
       <c r="K39" s="1">
-        <v>85</v>
-      </c>
-      <c r="M39" s="30">
-        <v>315</v>
-      </c>
-      <c r="N39" s="31"/>
-      <c r="O39" s="16">
-        <v>340</v>
+        <v>25</v>
+      </c>
+      <c r="M39" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="N39" s="49"/>
+      <c r="O39" s="19" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B40" s="17"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>93</v>
@@ -4499,63 +4153,61 @@
       <c r="K40" s="1">
         <v>85</v>
       </c>
-      <c r="M40" s="30">
-        <f>M39+50</f>
-        <v>365</v>
-      </c>
-      <c r="N40" s="31"/>
+      <c r="M40" s="42">
+        <v>315</v>
+      </c>
+      <c r="N40" s="43"/>
       <c r="O40" s="16">
-        <f>O39+50</f>
-        <v>390</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B41" s="17"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="H41" s="14">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" s="1">
         <v>315</v>
       </c>
       <c r="K41" s="1">
-        <v>70</v>
-      </c>
-      <c r="M41" s="30">
-        <f t="shared" ref="M41:M46" si="1">M40+50</f>
-        <v>415</v>
-      </c>
-      <c r="N41" s="31"/>
+        <v>85</v>
+      </c>
+      <c r="M41" s="42">
+        <f>M40+50</f>
+        <v>365</v>
+      </c>
+      <c r="N41" s="43"/>
       <c r="O41" s="16">
-        <f t="shared" ref="O41:O46" si="2">O40+50</f>
-        <v>440</v>
+        <f>O40+50</f>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B42" s="17"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>96</v>
@@ -4565,32 +4217,32 @@
       </c>
       <c r="G42" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="H42" s="14">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="K42" s="1">
-        <v>110</v>
-      </c>
-      <c r="M42" s="30">
-        <f t="shared" si="1"/>
-        <v>465</v>
-      </c>
-      <c r="N42" s="31"/>
+        <v>70</v>
+      </c>
+      <c r="M42" s="42">
+        <f t="shared" ref="M42:M47" si="1">M41+50</f>
+        <v>415</v>
+      </c>
+      <c r="N42" s="43"/>
       <c r="O42" s="16">
-        <f t="shared" si="2"/>
-        <v>490</v>
+        <f t="shared" ref="O42:O47" si="2">O41+50</f>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B43" s="17"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="13" t="s">
         <v>97</v>
       </c>
@@ -4619,18 +4271,18 @@
       <c r="K43" s="1">
         <v>110</v>
       </c>
-      <c r="M43" s="30">
+      <c r="M43" s="42">
         <f t="shared" si="1"/>
-        <v>515</v>
-      </c>
-      <c r="N43" s="31"/>
+        <v>465</v>
+      </c>
+      <c r="N43" s="43"/>
       <c r="O43" s="16">
         <f t="shared" si="2"/>
-        <v>540</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B44" s="17"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="13" t="s">
         <v>97</v>
       </c>
@@ -4659,106 +4311,106 @@
       <c r="K44" s="1">
         <v>110</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M44" s="42">
+        <f t="shared" si="1"/>
+        <v>515</v>
+      </c>
+      <c r="N44" s="43"/>
+      <c r="O44" s="16">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B45" s="50"/>
+      <c r="C45" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="H45" s="14">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="1">
+        <v>340</v>
+      </c>
+      <c r="K45" s="1">
+        <v>110</v>
+      </c>
+      <c r="M45" s="42">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="N44" s="31"/>
-      <c r="O44" s="16">
+      <c r="N45" s="43"/>
+      <c r="O45" s="16">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B45" s="17"/>
-      <c r="C45" s="13" t="s">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B46" s="50"/>
+      <c r="C46" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F46" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="14">
         <v>3</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J46" s="1">
         <v>150</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K46" s="1">
         <v>150</v>
       </c>
-      <c r="M45" s="30">
+      <c r="M46" s="42">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="N45" s="31"/>
-      <c r="O45" s="16">
+      <c r="N46" s="43"/>
+      <c r="O46" s="16">
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
-      <c r="C46" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="14">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="H46" s="14">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="1">
-        <v>340</v>
-      </c>
-      <c r="K46" s="1">
-        <v>110</v>
-      </c>
-      <c r="M46" s="30">
-        <f t="shared" si="1"/>
-        <v>665</v>
-      </c>
-      <c r="N46" s="31"/>
-      <c r="O46" s="16">
-        <f t="shared" si="2"/>
-        <v>690</v>
-      </c>
-    </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>64</v>
@@ -4779,17 +4431,26 @@
       <c r="K47" s="1">
         <v>110</v>
       </c>
+      <c r="M47" s="42">
+        <f t="shared" si="1"/>
+        <v>665</v>
+      </c>
+      <c r="N47" s="43"/>
+      <c r="O47" s="16">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B48" s="17"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>64</v>
@@ -4811,13 +4472,43 @@
         <v>110</v>
       </c>
     </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="50"/>
+      <c r="C49" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="H49" s="14">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="1">
+        <v>340</v>
+      </c>
+      <c r="K49" s="1">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C7:H7" xr:uid="{72B80A8E-78B2-4BED-A6C7-375BF253D9C2}"/>
   <mergeCells count="11">
-    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="M36:T37"/>
-    <mergeCell ref="M38:N38"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="M41:N41"/>
@@ -4825,6 +4516,7 @@
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\HevORT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BD59958D-A6F9-4186-997E-B6962B62952B}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBAA89FB-B476-4042-B094-127BFEF8717C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
@@ -908,6 +908,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,8 +934,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1758,7 +1758,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>6639</xdr:colOff>
+      <xdr:colOff>6640</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>171646</xdr:rowOff>
     </xdr:to>
@@ -1814,7 +1814,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="43980.42588703704" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="42" xr:uid="{49F4F72D-E82D-4FD8-90BA-0190EA8B06F8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="43994.50999189815" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="42" xr:uid="{49F4F72D-E82D-4FD8-90BA-0190EA8B06F8}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C7:H49" sheet="FRAMECALCULATOR"/>
   </cacheSource>
@@ -2801,34 +2801,34 @@
   </sheetPr>
   <dimension ref="B1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L6:L7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="1.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="1.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="4" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="7.81640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="8.7265625" collapsed="1"/>
-    <col min="13" max="13" width="11.90625" customWidth="1"/>
-    <col min="14" max="14" width="1.26953125" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="8.7109375" collapsed="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D2" s="1"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -2849,7 +2849,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -2862,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -2874,22 +2874,22 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U5" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="46"/>
-    </row>
-    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
+    </row>
+    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="K11" s="1">
         <v>95</v>
       </c>
-      <c r="N11" s="51"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="38" t="s">
         <v>24</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>17</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
         <v>17</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="31"/>
     </row>
-    <row r="19" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="13" t="s">
         <v>17</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
         <v>17</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
         <v>17</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="13" t="s">
         <v>53</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="13" t="s">
         <v>53</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="13" t="s">
         <v>53</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="13" t="s">
         <v>53</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="13" t="s">
         <v>53</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="13" t="s">
         <v>53</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="P28" s="28"/>
       <c r="Q28" s="32"/>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" s="13" t="s">
         <v>53</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="3:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="30" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C30" s="13" t="s">
         <v>53</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C31" s="13" t="s">
         <v>73</v>
       </c>
@@ -3830,7 +3830,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C32" s="13" t="s">
         <v>73</v>
       </c>
@@ -3863,7 +3863,7 @@
       <c r="P32" s="1"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C33" s="13" t="s">
         <v>73</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="P33" s="1"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C34" s="13" t="s">
         <v>80</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="P34" s="1"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
         <v>80</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C36" s="13" t="s">
         <v>80</v>
       </c>
@@ -3998,18 +3998,18 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-      <c r="M36" s="47" t="s">
+      <c r="M36" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C37" s="13" t="s">
         <v>80</v>
       </c>
@@ -4038,17 +4038,17 @@
       <c r="K37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-    </row>
-    <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="51"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+    </row>
+    <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="43"/>
       <c r="C38" s="13" t="s">
         <v>113</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C39" s="13" t="s">
         <v>89</v>
       </c>
@@ -4115,16 +4115,16 @@
       <c r="K39" s="1">
         <v>25</v>
       </c>
-      <c r="M39" s="48" t="s">
+      <c r="M39" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="N39" s="49"/>
+      <c r="N39" s="51"/>
       <c r="O39" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B40" s="50"/>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="42"/>
       <c r="C40" s="13" t="s">
         <v>91</v>
       </c>
@@ -4153,16 +4153,16 @@
       <c r="K40" s="1">
         <v>85</v>
       </c>
-      <c r="M40" s="42">
+      <c r="M40" s="44">
         <v>315</v>
       </c>
-      <c r="N40" s="43"/>
+      <c r="N40" s="45"/>
       <c r="O40" s="16">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B41" s="50"/>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="42"/>
       <c r="C41" s="13" t="s">
         <v>91</v>
       </c>
@@ -4191,18 +4191,18 @@
       <c r="K41" s="1">
         <v>85</v>
       </c>
-      <c r="M41" s="42">
+      <c r="M41" s="44">
         <f>M40+50</f>
         <v>365</v>
       </c>
-      <c r="N41" s="43"/>
+      <c r="N41" s="45"/>
       <c r="O41" s="16">
         <f>O40+50</f>
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B42" s="50"/>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="42"/>
       <c r="C42" s="13" t="s">
         <v>91</v>
       </c>
@@ -4231,18 +4231,18 @@
       <c r="K42" s="1">
         <v>70</v>
       </c>
-      <c r="M42" s="42">
+      <c r="M42" s="44">
         <f t="shared" ref="M42:M47" si="1">M41+50</f>
         <v>415</v>
       </c>
-      <c r="N42" s="43"/>
+      <c r="N42" s="45"/>
       <c r="O42" s="16">
         <f t="shared" ref="O42:O47" si="2">O41+50</f>
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B43" s="50"/>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
         <v>97</v>
       </c>
@@ -4271,18 +4271,18 @@
       <c r="K43" s="1">
         <v>110</v>
       </c>
-      <c r="M43" s="42">
+      <c r="M43" s="44">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="N43" s="43"/>
+      <c r="N43" s="45"/>
       <c r="O43" s="16">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B44" s="50"/>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="42"/>
       <c r="C44" s="13" t="s">
         <v>97</v>
       </c>
@@ -4311,18 +4311,18 @@
       <c r="K44" s="1">
         <v>110</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M44" s="44">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
-      <c r="N44" s="43"/>
+      <c r="N44" s="45"/>
       <c r="O44" s="16">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B45" s="50"/>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="42"/>
       <c r="C45" s="13" t="s">
         <v>97</v>
       </c>
@@ -4351,18 +4351,18 @@
       <c r="K45" s="1">
         <v>110</v>
       </c>
-      <c r="M45" s="42">
+      <c r="M45" s="44">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="N45" s="43"/>
+      <c r="N45" s="45"/>
       <c r="O45" s="16">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B46" s="50"/>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
         <v>97</v>
       </c>
@@ -4391,18 +4391,18 @@
       <c r="K46" s="1">
         <v>150</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46" s="44">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="N46" s="43"/>
+      <c r="N46" s="45"/>
       <c r="O46" s="16">
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B47" s="50"/>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="42"/>
       <c r="C47" s="13" t="s">
         <v>97</v>
       </c>
@@ -4431,18 +4431,18 @@
       <c r="K47" s="1">
         <v>110</v>
       </c>
-      <c r="M47" s="42">
+      <c r="M47" s="44">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="N47" s="43"/>
+      <c r="N47" s="45"/>
       <c r="O47" s="16">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B48" s="50"/>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="42"/>
       <c r="C48" s="13" t="s">
         <v>97</v>
       </c>
@@ -4472,8 +4472,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="50"/>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="42"/>
       <c r="C49" s="13" t="s">
         <v>97</v>
       </c>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBAA89FB-B476-4042-B094-127BFEF8717C}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2A52CEF-2973-446A-9E32-645F537A487C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="24" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -938,7 +938,1857 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="210">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -1760,7 +3610,7 @@
       <xdr:col>33</xdr:col>
       <xdr:colOff>6640</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>171646</xdr:rowOff>
+      <xdr:rowOff>166761</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1814,7 +3664,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="43994.50999189815" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="42" xr:uid="{49F4F72D-E82D-4FD8-90BA-0190EA8B06F8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="43999.574915393518" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="42" xr:uid="{49F4F72D-E82D-4FD8-90BA-0190EA8B06F8}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C7:H49" sheet="FRAMECALCULATOR"/>
   </cacheSource>
@@ -1839,12 +3689,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="140" maxValue="770" count="14">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="140" maxValue="980" count="28">
         <n v="420"/>
         <n v="410"/>
-        <n v="758.82500000000005"/>
+        <n v="880"/>
         <n v="140"/>
-        <n v="498.6"/>
+        <n v="510"/>
         <n v="260"/>
         <n v="320"/>
         <n v="431"/>
@@ -1853,7 +3703,21 @@
         <n v="385"/>
         <n v="450"/>
         <n v="150"/>
+        <n v="285" u="1"/>
+        <n v="456" u="1"/>
+        <n v="980" u="1"/>
+        <n v="365" u="1"/>
+        <n v="940" u="1"/>
+        <n v="345" u="1"/>
+        <n v="445" u="1"/>
+        <n v="610" u="1"/>
+        <n v="435" u="1"/>
+        <n v="425" u="1"/>
+        <n v="758.82500000000005" u="1"/>
+        <n v="570" u="1"/>
         <n v="770" u="1"/>
+        <n v="550" u="1"/>
+        <n v="498.6" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -2210,7 +4074,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B04B37E-25BB-4FF7-8D43-B70C86EDBC88}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B04B37E-25BB-4FF7-8D43-B70C86EDBC88}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q28" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2232,7 +4096,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="15">
+      <items count="29">
         <item x="12"/>
         <item x="5"/>
         <item x="6"/>
@@ -2242,11 +4106,25 @@
         <item x="1"/>
         <item x="0"/>
         <item x="11"/>
+        <item m="1" x="27"/>
+        <item m="1" x="23"/>
+        <item x="3"/>
+        <item m="1" x="25"/>
+        <item x="7"/>
+        <item x="2"/>
         <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item m="1" x="19"/>
+        <item m="1" x="21"/>
         <item m="1" x="13"/>
-        <item x="7"/>
+        <item m="1" x="18"/>
+        <item m="1" x="14"/>
+        <item m="1" x="16"/>
+        <item m="1" x="22"/>
+        <item m="1" x="17"/>
+        <item m="1" x="24"/>
+        <item m="1" x="15"/>
+        <item m="1" x="20"/>
+        <item m="1" x="26"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2278,13 +4156,13 @@
       <x v="7"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="11"/>
     </i>
     <i r="1">
-      <x v="10"/>
+      <x v="14"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="15"/>
     </i>
     <i t="blank">
       <x v="1"/>
@@ -2331,80 +4209,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="59">
+    <format dxfId="209">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="208">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="207">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="206">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="205">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="204">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="203">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="202">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="201">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="200">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="199">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="198">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="197">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="196">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="195">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="194">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="193">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="192">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="191">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="190">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="189">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="188">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="187">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2417,7 +4295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="185">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2433,7 +4311,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="184">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2445,7 +4323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2459,7 +4337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="182">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2471,7 +4349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="181">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2483,7 +4361,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="180">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2801,34 +4679,33 @@
   </sheetPr>
   <dimension ref="B1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="1.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="1.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="4" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="8.7109375" collapsed="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="1.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="4" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.08984375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="1.26953125" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1796875" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -2837,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="1"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -2849,7 +4726,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -2862,7 +4739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -2874,12 +4751,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:21" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="U5" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
@@ -2889,7 +4766,7 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="48"/>
     </row>
-    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +4801,7 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
@@ -2964,7 +4841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
@@ -3004,7 +4881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
@@ -3073,7 +4950,7 @@
       <c r="K11" s="1">
         <v>95</v>
       </c>
-      <c r="N11" s="43"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="38" t="s">
         <v>24</v>
       </c>
@@ -3084,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
@@ -3118,7 +4995,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C13" s="13" t="s">
         <v>17</v>
       </c>
@@ -3158,7 +5035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
@@ -3198,7 +5075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="13" t="s">
         <v>17</v>
       </c>
@@ -3231,14 +5108,14 @@
       <c r="O15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="39">
-        <v>498.6</v>
+      <c r="P15" s="38">
+        <v>140</v>
       </c>
       <c r="Q15" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
@@ -3267,18 +5144,18 @@
       <c r="K16" s="1">
         <v>105</v>
       </c>
-      <c r="N16" s="24"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="39">
-        <v>758.82500000000005</v>
+      <c r="P16" s="15">
+        <v>880</v>
       </c>
       <c r="Q16" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
@@ -3307,18 +5184,18 @@
       <c r="K17" s="1">
         <v>95</v>
       </c>
-      <c r="N17" s="24"/>
+      <c r="N17" s="43"/>
       <c r="O17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="38">
-        <v>140</v>
+      <c r="P17" s="15">
+        <v>510</v>
       </c>
       <c r="Q17" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
@@ -3352,7 +5229,8 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="31"/>
     </row>
-    <row r="19" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="43"/>
       <c r="C19" s="13" t="s">
         <v>17</v>
       </c>
@@ -3367,7 +5245,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>758.82500000000005</v>
+        <v>880</v>
       </c>
       <c r="H19" s="14">
         <v>1</v>
@@ -3379,7 +5257,7 @@
         <v>340</v>
       </c>
       <c r="K19" s="1">
-        <v>418.82500000000005</v>
+        <v>540</v>
       </c>
       <c r="N19" s="24"/>
       <c r="O19" s="40" t="s">
@@ -3392,7 +5270,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="43"/>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
@@ -3407,7 +5286,7 @@
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>758.82500000000005</v>
+        <v>880</v>
       </c>
       <c r="H20" s="14">
         <v>1</v>
@@ -3419,14 +5298,15 @@
         <v>340</v>
       </c>
       <c r="K20" s="1">
-        <v>418.82500000000005</v>
+        <v>540</v>
       </c>
       <c r="N20" s="24"/>
       <c r="O20" s="26"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B21" s="43"/>
       <c r="C21" s="13" t="s">
         <v>17</v>
       </c>
@@ -3441,7 +5321,7 @@
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>758.82500000000005</v>
+        <v>880</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
@@ -3453,7 +5333,7 @@
         <v>340</v>
       </c>
       <c r="K21" s="1">
-        <v>418.82500000000005</v>
+        <v>540</v>
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="37" t="s">
@@ -3466,7 +5346,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B22" s="43"/>
       <c r="C22" s="13" t="s">
         <v>17</v>
       </c>
@@ -3481,7 +5362,7 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>758.82500000000005</v>
+        <v>880</v>
       </c>
       <c r="H22" s="14">
         <v>1</v>
@@ -3493,7 +5374,7 @@
         <v>340</v>
       </c>
       <c r="K22" s="1">
-        <v>418.82500000000005</v>
+        <v>540</v>
       </c>
       <c r="N22" s="24"/>
       <c r="O22" s="39" t="s">
@@ -3506,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C23" s="13" t="s">
         <v>53</v>
       </c>
@@ -3546,7 +5427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="13" t="s">
         <v>53</v>
       </c>
@@ -3580,7 +5461,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="13" t="s">
         <v>53</v>
       </c>
@@ -3620,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="13" t="s">
         <v>53</v>
       </c>
@@ -3654,7 +5535,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="13" t="s">
         <v>53</v>
       </c>
@@ -3694,7 +5575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="13" t="s">
         <v>53</v>
       </c>
@@ -3727,7 +5608,8 @@
       <c r="P28" s="28"/>
       <c r="Q28" s="32"/>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B29" s="43"/>
       <c r="C29" s="13" t="s">
         <v>53</v>
       </c>
@@ -3742,7 +5624,7 @@
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
-        <v>758.82500000000005</v>
+        <v>880</v>
       </c>
       <c r="H29" s="14">
         <v>1</v>
@@ -3754,14 +5636,15 @@
         <v>340</v>
       </c>
       <c r="K29" s="1">
-        <v>418.82500000000005</v>
+        <v>540</v>
       </c>
       <c r="L29" s="1"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="B30" s="43"/>
       <c r="C30" s="13" t="s">
         <v>53</v>
       </c>
@@ -3776,7 +5659,7 @@
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>758.82500000000005</v>
+        <v>880</v>
       </c>
       <c r="H30" s="14">
         <v>1</v>
@@ -3788,7 +5671,7 @@
         <v>340</v>
       </c>
       <c r="K30" s="1">
-        <v>418.82500000000005</v>
+        <v>540</v>
       </c>
       <c r="N30" s="18" t="s">
         <v>112</v>
@@ -3797,7 +5680,8 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B31" s="43"/>
       <c r="C31" s="13" t="s">
         <v>73</v>
       </c>
@@ -3812,7 +5696,7 @@
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>498.6</v>
+        <v>510</v>
       </c>
       <c r="H31" s="14">
         <v>1</v>
@@ -3824,13 +5708,14 @@
         <v>340</v>
       </c>
       <c r="K31" s="1">
-        <v>158.60000000000002</v>
+        <v>170</v>
       </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B32" s="43"/>
       <c r="C32" s="13" t="s">
         <v>73</v>
       </c>
@@ -3845,7 +5730,7 @@
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>498.6</v>
+        <v>510</v>
       </c>
       <c r="H32" s="14">
         <v>1</v>
@@ -3857,13 +5742,14 @@
         <v>340</v>
       </c>
       <c r="K32" s="1">
-        <v>158.60000000000002</v>
+        <v>170</v>
       </c>
       <c r="O32"/>
       <c r="P32" s="1"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B33" s="43"/>
       <c r="C33" s="13" t="s">
         <v>73</v>
       </c>
@@ -3878,7 +5764,7 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>498.6</v>
+        <v>510</v>
       </c>
       <c r="H33" s="14">
         <v>1</v>
@@ -3890,13 +5776,13 @@
         <v>340</v>
       </c>
       <c r="K33" s="1">
-        <v>158.60000000000002</v>
+        <v>170</v>
       </c>
       <c r="O33"/>
       <c r="P33" s="1"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C34" s="13" t="s">
         <v>80</v>
       </c>
@@ -3929,7 +5815,7 @@
       <c r="P34" s="1"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C35" s="13" t="s">
         <v>80</v>
       </c>
@@ -3969,7 +5855,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C36" s="13" t="s">
         <v>80</v>
       </c>
@@ -4009,7 +5895,7 @@
       <c r="S36" s="49"/>
       <c r="T36" s="49"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C37" s="13" t="s">
         <v>80</v>
       </c>
@@ -4047,8 +5933,8 @@
       <c r="S37" s="49"/>
       <c r="T37" s="49"/>
     </row>
-    <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="43"/>
+    <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
         <v>113</v>
       </c>
@@ -4086,7 +5972,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C39" s="13" t="s">
         <v>89</v>
       </c>
@@ -4123,7 +6009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="42"/>
       <c r="C40" s="13" t="s">
         <v>91</v>
@@ -4161,7 +6047,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="42"/>
       <c r="C41" s="13" t="s">
         <v>91</v>
@@ -4201,7 +6087,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="42"/>
       <c r="C42" s="13" t="s">
         <v>91</v>
@@ -4241,7 +6127,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
         <v>97</v>
@@ -4281,7 +6167,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B44" s="42"/>
       <c r="C44" s="13" t="s">
         <v>97</v>
@@ -4321,7 +6207,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B45" s="42"/>
       <c r="C45" s="13" t="s">
         <v>97</v>
@@ -4361,7 +6247,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
         <v>97</v>
@@ -4400,8 +6286,12 @@
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
+      <c r="Q46" s="1">
+        <f>30+41.4+50</f>
+        <v>121.4</v>
+      </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B47" s="42"/>
       <c r="C47" s="13" t="s">
         <v>97</v>
@@ -4441,7 +6331,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B48" s="42"/>
       <c r="C48" s="13" t="s">
         <v>97</v>
@@ -4472,7 +6362,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="42"/>
       <c r="C49" s="13" t="s">
         <v>97</v>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2A52CEF-2973-446A-9E32-645F537A487C}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A10D7B66-9B37-4297-8D15-8FB242E43272}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21760" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId2"/>
+    <pivotCache cacheId="33" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3160,215 +3160,135 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <fill>
@@ -3399,135 +3319,215 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3558,9 +3558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>448733</xdr:colOff>
+      <xdr:colOff>445558</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3608,9 +3608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>6640</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>166761</xdr:rowOff>
+      <xdr:colOff>9815</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>82716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3664,7 +3664,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="43999.574915393518" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="42" xr:uid="{49F4F72D-E82D-4FD8-90BA-0190EA8B06F8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44004.546448032408" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="42" xr:uid="{49F4F72D-E82D-4FD8-90BA-0190EA8B06F8}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C7:H49" sheet="FRAMECALCULATOR"/>
   </cacheSource>
@@ -3689,7 +3689,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="140" maxValue="980" count="28">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="140" maxValue="980" count="34">
         <n v="420"/>
         <n v="410"/>
         <n v="880"/>
@@ -3707,15 +3707,21 @@
         <n v="456" u="1"/>
         <n v="980" u="1"/>
         <n v="365" u="1"/>
+        <n v="310" u="1"/>
+        <n v="481" u="1"/>
         <n v="940" u="1"/>
         <n v="345" u="1"/>
         <n v="445" u="1"/>
+        <n v="390" u="1"/>
         <n v="610" u="1"/>
         <n v="435" u="1"/>
         <n v="425" u="1"/>
         <n v="758.82500000000005" u="1"/>
+        <n v="370" u="1"/>
+        <n v="470" u="1"/>
         <n v="570" u="1"/>
         <n v="770" u="1"/>
+        <n v="460" u="1"/>
         <n v="550" u="1"/>
         <n v="498.6" u="1"/>
       </sharedItems>
@@ -4074,7 +4080,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B04B37E-25BB-4FF7-8D43-B70C86EDBC88}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B04B37E-25BB-4FF7-8D43-B70C86EDBC88}" name="PivotTable2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q28" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4096,7 +4102,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="29">
+      <items count="35">
         <item x="12"/>
         <item x="5"/>
         <item x="6"/>
@@ -4106,25 +4112,31 @@
         <item x="1"/>
         <item x="0"/>
         <item x="11"/>
-        <item m="1" x="27"/>
-        <item m="1" x="23"/>
+        <item m="1" x="33"/>
+        <item m="1" x="26"/>
         <item x="3"/>
-        <item m="1" x="25"/>
+        <item m="1" x="30"/>
         <item x="7"/>
         <item x="2"/>
         <item x="4"/>
-        <item m="1" x="19"/>
         <item m="1" x="21"/>
+        <item m="1" x="24"/>
         <item m="1" x="13"/>
-        <item m="1" x="18"/>
+        <item m="1" x="20"/>
         <item m="1" x="14"/>
         <item m="1" x="16"/>
+        <item m="1" x="25"/>
+        <item m="1" x="19"/>
+        <item m="1" x="29"/>
+        <item m="1" x="15"/>
+        <item m="1" x="23"/>
+        <item m="1" x="32"/>
+        <item m="1" x="28"/>
+        <item m="1" x="31"/>
+        <item m="1" x="17"/>
+        <item m="1" x="27"/>
+        <item m="1" x="18"/>
         <item m="1" x="22"/>
-        <item m="1" x="17"/>
-        <item m="1" x="24"/>
-        <item m="1" x="15"/>
-        <item m="1" x="20"/>
-        <item m="1" x="26"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4209,80 +4221,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="209">
+    <format dxfId="180">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="208">
+    <format dxfId="181">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="207">
+    <format dxfId="182">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="206">
+    <format dxfId="183">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="184">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="204">
+    <format dxfId="185">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="203">
+    <format dxfId="186">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="187">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="188">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="189">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="190">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="191">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="192">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="193">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="194">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="195">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="196">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="197">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="198">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="199">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    <format dxfId="200">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="196">
+    <format dxfId="201">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="195">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="194">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="193">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="192">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="191">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="190">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="189">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="188">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="187">
+    <format dxfId="202">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="186">
+    <format dxfId="203">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4295,7 +4307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="185">
+    <format dxfId="204">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4311,7 +4323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="184">
+    <format dxfId="205">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4323,7 +4335,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="183">
+    <format dxfId="206">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4337,7 +4349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="207">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4349,7 +4361,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="181">
+    <format dxfId="208">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4361,7 +4373,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="180">
+    <format dxfId="209">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4679,8 +4691,8 @@
   </sheetPr>
   <dimension ref="B1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -4699,8 +4711,8 @@
     <col min="13" max="13" width="11.81640625" customWidth="1"/>
     <col min="14" max="14" width="1.26953125" customWidth="1"/>
     <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.1796875" customWidth="1"/>
     <col min="19" max="19" width="12.26953125" customWidth="1"/>
   </cols>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{753D7964-115D-46D8-B2E5-0B4AADBA47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A10D7B66-9B37-4297-8D15-8FB242E43272}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A29C35C-4A5F-4397-A8A4-094E9459FD97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21760" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId2"/>
+    <pivotCache cacheId="38" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="120">
   <si>
     <t>Desired Print Area</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Z</t>
   </si>
   <si>
-    <t>Frame Calculator</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -387,6 +384,21 @@
   </si>
   <si>
     <t>X axis support aluminum profile 2020</t>
+  </si>
+  <si>
+    <t>Frame &amp; Friends Calculator</t>
+  </si>
+  <si>
+    <t>XY_Belts</t>
+  </si>
+  <si>
+    <t>Upper and Lower Belts</t>
+  </si>
+  <si>
+    <t>Gates GT2 PowerGrip Belt</t>
+  </si>
+  <si>
+    <t>GT2 Belt</t>
   </si>
 </sst>
 </file>
@@ -938,7 +950,747 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="210">
+  <dxfs count="270">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -3558,9 +4310,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>445558</xdr:colOff>
+      <xdr:colOff>455083</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3608,9 +4360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>9815</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>82716</xdr:rowOff>
+      <xdr:colOff>16165</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>73565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3664,9 +4416,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44004.546448032408" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="42" xr:uid="{49F4F72D-E82D-4FD8-90BA-0190EA8B06F8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44017.03537395833" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{EE21856B-4584-42FE-9CE7-DE41726CCFEE}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C7:H49" sheet="FRAMECALCULATOR"/>
+    <worksheetSource ref="C7:H50" sheet="FRAMECALCULATOR"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Structure Section" numFmtId="0">
@@ -3679,17 +4431,18 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Part Type" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems count="7">
         <s v="3030 Extrusion"/>
         <s v="2020 Extrusion"/>
         <s v="MIC6 Alu 6mm"/>
         <s v="MGN12C Rail"/>
         <s v="MGN12H Rail"/>
         <s v="SFU1204 Screw"/>
+        <s v="GT2 Belt"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="140" maxValue="980" count="34">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="5600" count="29">
         <n v="420"/>
         <n v="410"/>
         <n v="880"/>
@@ -3703,27 +4456,22 @@
         <n v="385"/>
         <n v="450"/>
         <n v="150"/>
-        <n v="285" u="1"/>
-        <n v="456" u="1"/>
-        <n v="980" u="1"/>
-        <n v="365" u="1"/>
-        <n v="310" u="1"/>
-        <n v="481" u="1"/>
-        <n v="940" u="1"/>
-        <n v="345" u="1"/>
-        <n v="445" u="1"/>
-        <n v="390" u="1"/>
+        <n v="4000"/>
+        <n v="710" u="1"/>
+        <n v="1080" u="1"/>
+        <n v="600" u="1"/>
+        <n v="1130" u="1"/>
+        <n v="631" u="1"/>
+        <n v="760" u="1"/>
+        <n v="650" u="1"/>
+        <n v="540" u="1"/>
+        <n v="585" u="1"/>
+        <n v="520" u="1"/>
         <n v="610" u="1"/>
-        <n v="435" u="1"/>
-        <n v="425" u="1"/>
-        <n v="758.82500000000005" u="1"/>
-        <n v="370" u="1"/>
-        <n v="470" u="1"/>
-        <n v="570" u="1"/>
-        <n v="770" u="1"/>
+        <n v="700" u="1"/>
+        <n v="5600" u="1"/>
         <n v="460" u="1"/>
-        <n v="550" u="1"/>
-        <n v="498.6" u="1"/>
+        <n v="620" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -3739,7 +4487,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="43">
   <r>
     <s v="Frame"/>
     <s v="HHB"/>
@@ -4076,24 +4824,33 @@
     <x v="11"/>
     <n v="1"/>
   </r>
+  <r>
+    <s v="XY_Belts"/>
+    <s v="Upper and Lower Belts"/>
+    <s v="Gates GT2 PowerGrip Belt"/>
+    <x v="6"/>
+    <x v="13"/>
+    <n v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B04B37E-25BB-4FF7-8D43-B70C86EDBC88}" name="PivotTable2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="O7:Q28" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="O7:Q30" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" insertBlankRow="1" defaultSubtotal="0">
-      <items count="6">
+      <items count="7">
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
         <item x="4"/>
         <item x="2"/>
         <item x="5"/>
+        <item x="6"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -4102,7 +4859,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="35">
+      <items count="30">
         <item x="12"/>
         <item x="5"/>
         <item x="6"/>
@@ -4112,31 +4869,26 @@
         <item x="1"/>
         <item x="0"/>
         <item x="11"/>
-        <item m="1" x="33"/>
-        <item m="1" x="26"/>
         <item x="3"/>
-        <item m="1" x="30"/>
         <item x="7"/>
         <item x="2"/>
         <item x="4"/>
+        <item x="13"/>
+        <item m="1" x="28"/>
+        <item m="1" x="24"/>
+        <item m="1" x="27"/>
+        <item m="1" x="23"/>
+        <item m="1" x="18"/>
         <item m="1" x="21"/>
-        <item m="1" x="24"/>
-        <item m="1" x="13"/>
+        <item m="1" x="16"/>
+        <item m="1" x="22"/>
+        <item m="1" x="26"/>
+        <item m="1" x="15"/>
+        <item m="1" x="14"/>
         <item m="1" x="20"/>
-        <item m="1" x="14"/>
-        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="19"/>
         <item m="1" x="25"/>
-        <item m="1" x="19"/>
-        <item m="1" x="29"/>
-        <item m="1" x="15"/>
-        <item m="1" x="23"/>
-        <item m="1" x="32"/>
-        <item m="1" x="28"/>
-        <item m="1" x="31"/>
-        <item m="1" x="17"/>
-        <item m="1" x="27"/>
-        <item m="1" x="18"/>
-        <item m="1" x="22"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4146,7 +4898,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="22">
     <i>
       <x/>
       <x v="1"/>
@@ -4155,7 +4907,7 @@
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="13"/>
+      <x v="10"/>
     </i>
     <i t="blank">
       <x/>
@@ -4168,13 +4920,13 @@
       <x v="7"/>
     </i>
     <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
       <x v="11"/>
     </i>
     <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
+      <x v="12"/>
     </i>
     <i t="blank">
       <x v="1"/>
@@ -4213,6 +4965,13 @@
     <i t="blank">
       <x v="5"/>
     </i>
+    <i>
+      <x v="6"/>
+      <x v="13"/>
+    </i>
+    <i t="blank">
+      <x v="6"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -4221,80 +4980,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="180">
+    <format dxfId="210">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="211">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="212">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="213">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="214">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="215">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="216">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="217">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="218">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="219">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="190">
+    <format dxfId="220">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="191">
+    <format dxfId="221">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="222">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="223">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="194">
+    <format dxfId="224">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="195">
+    <format dxfId="225">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="226">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="227">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="228">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="229">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="230">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="231">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="232">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="203">
+    <format dxfId="233">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4307,23 +5066,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="204">
+    <format dxfId="234">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="4" count="5">
+          <reference field="4" count="3">
             <x v="6"/>
             <x v="7"/>
             <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="205">
+    <format dxfId="235">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4335,7 +5092,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="206">
+    <format dxfId="236">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4349,7 +5106,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="207">
+    <format dxfId="237">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4361,7 +5118,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="238">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4373,7 +5130,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="239">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4689,35 +5446,36 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:U49"/>
+  <dimension ref="B1:U50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="1.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="1.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="4" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.08984375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="1.26953125" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.140625" collapsed="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -4726,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D2" s="1"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -4735,10 +5493,10 @@
         <v>315</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="3" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -4751,7 +5509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -4760,74 +5518,74 @@
         <v>340</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U5" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="U5" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="46" t="s">
         <v>6</v>
-      </c>
-      <c r="O6" s="46" t="s">
-        <v>7</v>
       </c>
       <c r="P6" s="47"/>
       <c r="Q6" s="48"/>
     </row>
-    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7" s="34"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="14">
-        <f t="shared" ref="G8:G49" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
+        <f t="shared" ref="G8:G50" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
         <v>420</v>
       </c>
       <c r="H8" s="14">
@@ -4844,27 +5602,27 @@
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="36" t="s">
-        <v>12</v>
-      </c>
       <c r="Q8" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
@@ -4884,7 +5642,7 @@
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P9" s="37">
         <v>260</v>
@@ -4893,18 +5651,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
@@ -4924,7 +5682,7 @@
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" s="38">
         <v>320</v>
@@ -4933,18 +5691,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="F11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
@@ -4964,7 +5722,7 @@
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="15">
         <v>431</v>
@@ -4973,18 +5731,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="F12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
@@ -5007,18 +5765,18 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="F13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
@@ -5038,7 +5796,7 @@
       </c>
       <c r="N13" s="24"/>
       <c r="O13" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P13" s="37">
         <v>410</v>
@@ -5047,18 +5805,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="F14" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
@@ -5078,7 +5836,7 @@
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P14" s="39">
         <v>420</v>
@@ -5087,18 +5845,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="F15" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
@@ -5118,7 +5876,7 @@
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="38">
         <v>140</v>
@@ -5127,18 +5885,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="F16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
@@ -5156,9 +5914,9 @@
       <c r="K16" s="1">
         <v>105</v>
       </c>
-      <c r="N16" s="43"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P16" s="15">
         <v>880</v>
@@ -5167,18 +5925,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="F17" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
@@ -5196,9 +5954,9 @@
       <c r="K17" s="1">
         <v>95</v>
       </c>
-      <c r="N17" s="43"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17" s="15">
         <v>510</v>
@@ -5207,18 +5965,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="F18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
@@ -5241,19 +5999,19 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="31"/>
     </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="43"/>
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24"/>
       <c r="C19" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="F19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
@@ -5273,7 +6031,7 @@
       </c>
       <c r="N19" s="24"/>
       <c r="O19" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" s="40">
         <v>400</v>
@@ -5282,19 +6040,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="43"/>
+    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="F20" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
@@ -5317,19 +6075,19 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="43"/>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="F21" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
@@ -5349,7 +6107,7 @@
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P21" s="37">
         <v>150</v>
@@ -5358,19 +6116,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="43"/>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
       <c r="C22" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="F22" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
@@ -5390,7 +6148,7 @@
       </c>
       <c r="N22" s="24"/>
       <c r="O22" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P22" s="39">
         <v>385</v>
@@ -5399,18 +6157,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="24"/>
       <c r="C23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="F23" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
@@ -5430,7 +6189,7 @@
       </c>
       <c r="N23" s="24"/>
       <c r="O23" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" s="38">
         <v>450</v>
@@ -5439,18 +6198,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="24"/>
       <c r="C24" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="F24" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="14">
         <f t="shared" si="0"/>
@@ -5460,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J24" s="1">
         <v>140</v>
@@ -5473,18 +6233,19 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24"/>
       <c r="C25" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="F25" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="14">
         <f t="shared" si="0"/>
@@ -5494,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1">
         <v>140</v>
@@ -5504,7 +6265,7 @@
       </c>
       <c r="N25" s="24"/>
       <c r="O25" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P25" s="40">
         <v>340</v>
@@ -5513,18 +6274,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="24"/>
       <c r="C26" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="F26" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="0"/>
@@ -5534,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1">
         <v>140</v>
@@ -5547,18 +6309,19 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="24"/>
       <c r="C27" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="F27" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="0"/>
@@ -5568,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J27" s="1">
         <v>140</v>
@@ -5578,7 +6341,7 @@
       </c>
       <c r="N27" s="24"/>
       <c r="O27" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P27" s="40">
         <v>450</v>
@@ -5587,18 +6350,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="24"/>
       <c r="C28" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="F28" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
@@ -5616,23 +6380,23 @@
       <c r="K28" s="1">
         <v>95</v>
       </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="32"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="31"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B29" s="43"/>
+    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="24"/>
       <c r="C29" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="F29" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
@@ -5651,23 +6415,30 @@
         <v>540</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="15">
+        <v>4000</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="2:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="B30" s="43"/>
+    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="24"/>
       <c r="C30" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="F30" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
@@ -5685,26 +6456,23 @@
       <c r="K30" s="1">
         <v>540</v>
       </c>
-      <c r="N30" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="32"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B31" s="43"/>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
       <c r="C31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="F31" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
@@ -5722,23 +6490,22 @@
       <c r="K31" s="1">
         <v>170</v>
       </c>
-      <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B32" s="43"/>
+    <row r="32" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B32" s="24"/>
       <c r="C32" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="F32" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
@@ -5756,23 +6523,25 @@
       <c r="K32" s="1">
         <v>170</v>
       </c>
-      <c r="O32"/>
+      <c r="N32" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="P32" s="1"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B33" s="43"/>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="F33" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
@@ -5790,22 +6559,21 @@
       <c r="K33" s="1">
         <v>170</v>
       </c>
-      <c r="O33"/>
       <c r="P33" s="1"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C34" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="F34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
@@ -5827,18 +6595,18 @@
       <c r="P34" s="1"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="F35" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
@@ -5857,7 +6625,7 @@
         <v>-55</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
@@ -5867,18 +6635,18 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C36" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="F36" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" s="14">
         <f t="shared" si="0"/>
@@ -5897,7 +6665,7 @@
         <v>5</v>
       </c>
       <c r="M36" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N36" s="49"/>
       <c r="O36" s="49"/>
@@ -5907,18 +6675,18 @@
       <c r="S36" s="49"/>
       <c r="T36" s="49"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C37" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="F37" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
@@ -5945,19 +6713,19 @@
       <c r="S37" s="49"/>
       <c r="T37" s="49"/>
     </row>
-    <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="F38" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
@@ -5984,18 +6752,18 @@
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C39" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="F39" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
@@ -6014,26 +6782,26 @@
         <v>25</v>
       </c>
       <c r="M39" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N39" s="51"/>
       <c r="O39" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="42"/>
       <c r="C40" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>93</v>
-      </c>
       <c r="F40" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" s="14">
         <f t="shared" si="0"/>
@@ -6059,19 +6827,19 @@
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="42"/>
       <c r="C41" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="0"/>
@@ -6099,19 +6867,19 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="42"/>
       <c r="C42" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="F42" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42" s="14">
         <f t="shared" si="0"/>
@@ -6139,19 +6907,19 @@
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="E43" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43" s="14">
         <f t="shared" si="0"/>
@@ -6179,19 +6947,19 @@
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="42"/>
       <c r="C44" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G44" s="14">
         <f t="shared" si="0"/>
@@ -6219,19 +6987,19 @@
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="42"/>
       <c r="C45" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="0"/>
@@ -6259,19 +7027,19 @@
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" s="14">
         <f t="shared" si="0"/>
@@ -6281,7 +7049,7 @@
         <v>3</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J46" s="1">
         <v>150</v>
@@ -6303,19 +7071,19 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="F47" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="14">
         <f t="shared" si="0"/>
@@ -6343,19 +7111,19 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="42"/>
       <c r="C48" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="F48" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="14">
         <f t="shared" si="0"/>
@@ -6374,19 +7142,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="42"/>
       <c r="C49" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="F49" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="14">
         <f t="shared" si="0"/>
@@ -6403,6 +7171,37 @@
       </c>
       <c r="K49" s="1">
         <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="43"/>
+      <c r="C50" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="14">
+        <f>IFERROR(VLOOKUP(I50,$E$2:$F$4,2,0)*8,0)+K50</f>
+        <v>4000</v>
+      </c>
+      <c r="H50" s="14">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="1">
+        <v>315</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1480</v>
       </c>
     </row>
   </sheetData>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A29C35C-4A5F-4397-A8A4-094E9459FD97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6DE34B-DB5D-43E7-BDF9-2698110D43A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
+    <sheet name="BED Holes Location" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FRAMECALCULATOR!$C$7:$H$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="38" r:id="rId2"/>
+    <pivotCache cacheId="39" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="124">
   <si>
     <t>Desired Print Area</t>
   </si>
@@ -399,13 +400,25 @@
   </si>
   <si>
     <t>GT2 Belt</t>
+  </si>
+  <si>
+    <t>As eneterd on the previous sheet:</t>
+  </si>
+  <si>
+    <t>Bed Size</t>
+  </si>
+  <si>
+    <t>Mounting Hole Spacing</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,8 +504,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00FFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,8 +572,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBFC96"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -826,11 +887,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -946,13 +1069,296 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="270">
+  <dxfs count="30">
     <dxf>
-      <alignment horizontal="left"/>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
     </dxf>
     <dxf>
       <border>
@@ -1065,3227 +1471,16 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEBFC96"/>
       <color rgb="FFD1F810"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF33CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4408,6 +1603,61 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>515541</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3163B089-26CB-41CA-9003-31A6CAD6CF32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9049941" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4836,7 +2086,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q30" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4980,80 +2230,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="210">
+    <format dxfId="29">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="212">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="213">
+    <format dxfId="26">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="214">
+    <format dxfId="25">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="215">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="216">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="217">
+    <format dxfId="22">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="218">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="219">
+    <format dxfId="20">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="220">
+    <format dxfId="19">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="221">
+    <format dxfId="18">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="222">
+    <format dxfId="17">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="223">
+    <format dxfId="16">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="224">
+    <format dxfId="15">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="225">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="226">
+    <format dxfId="13">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="227">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="228">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="229">
+    <format dxfId="10">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="230">
+    <format dxfId="9">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="231">
+    <format dxfId="8">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="232">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="233">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -5066,7 +2316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="234">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -5080,7 +2330,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="235">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -5092,7 +2342,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="236">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -5106,7 +2356,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="237">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -5118,7 +2368,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="238">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -5130,7 +2380,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="239">
+    <format dxfId="0">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5448,8 +2698,8 @@
   </sheetPr>
   <dimension ref="B1:U50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5585,7 +2835,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="14">
-        <f t="shared" ref="G8:G50" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
+        <f t="shared" ref="G8:G49" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
         <v>420</v>
       </c>
       <c r="H8" s="14">
@@ -7223,4 +4473,113 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6487C1D2-A674-4414-8299-37AC10F5B8E0}">
+  <dimension ref="P2:Q15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="16:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P3" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="56"/>
+    </row>
+    <row r="4" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P4" s="57" t="str">
+        <f>FRAMECALCULATOR!E1</f>
+        <v>Desired Print Area</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P5" s="59" t="str">
+        <f>FRAMECALCULATOR!E2</f>
+        <v>X</v>
+      </c>
+      <c r="Q5" s="60">
+        <f>FRAMECALCULATOR!F2</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="16:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P6" s="61" t="str">
+        <f>FRAMECALCULATOR!E3</f>
+        <v>Y</v>
+      </c>
+      <c r="Q6" s="62">
+        <f>FRAMECALCULATOR!F3</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P9" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P10" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="54">
+        <f>Q5+25</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P11" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="54">
+        <f>Q6+25</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P13" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P14" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="54">
+        <f>Q5+12</f>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P15" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="54">
+        <f>Q6+-13</f>
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6DE34B-DB5D-43E7-BDF9-2698110D43A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4677943A-49DC-4D09-B659-23D66C361CFD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId3"/>
+    <pivotCache cacheId="28" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1045,30 +1045,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1098,221 +1074,165 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
+  <dxfs count="180">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <fill>
@@ -1343,22 +1263,218 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
       <border>
@@ -1471,7 +1587,1741 @@
       </border>
     </dxf>
     <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1666,7 +3516,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44017.03537395833" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{EE21856B-4584-42FE-9CE7-DE41726CCFEE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44022.542758333337" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{EE21856B-4584-42FE-9CE7-DE41726CCFEE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C7:H50" sheet="FRAMECALCULATOR"/>
   </cacheSource>
@@ -1692,36 +3542,44 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="5600" count="29">
-        <n v="420"/>
-        <n v="410"/>
-        <n v="880"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="5600" count="37">
+        <n v="620"/>
+        <n v="610"/>
+        <n v="1080"/>
         <n v="140"/>
-        <n v="510"/>
-        <n v="260"/>
-        <n v="320"/>
-        <n v="431"/>
-        <n v="340"/>
-        <n v="400"/>
-        <n v="385"/>
-        <n v="450"/>
+        <n v="710"/>
+        <n v="460"/>
+        <n v="520"/>
+        <n v="631"/>
+        <n v="540"/>
+        <n v="600"/>
+        <n v="585"/>
+        <n v="650"/>
         <n v="150"/>
-        <n v="4000"/>
-        <n v="710" u="1"/>
-        <n v="1080" u="1"/>
-        <n v="600" u="1"/>
+        <n v="5600"/>
+        <n v="440" u="1"/>
+        <n v="385" u="1"/>
+        <n v="485" u="1"/>
+        <n v="4800" u="1"/>
         <n v="1130" u="1"/>
-        <n v="631" u="1"/>
+        <n v="320" u="1"/>
+        <n v="980" u="1"/>
+        <n v="420" u="1"/>
         <n v="760" u="1"/>
-        <n v="650" u="1"/>
-        <n v="540" u="1"/>
-        <n v="585" u="1"/>
-        <n v="520" u="1"/>
-        <n v="610" u="1"/>
+        <n v="410" u="1"/>
+        <n v="510" u="1"/>
+        <n v="400" u="1"/>
+        <n v="500" u="1"/>
+        <n v="4000" u="1"/>
         <n v="700" u="1"/>
-        <n v="5600" u="1"/>
-        <n v="460" u="1"/>
-        <n v="620" u="1"/>
+        <n v="880" u="1"/>
+        <n v="531" u="1"/>
+        <n v="260" u="1"/>
+        <n v="360" u="1"/>
+        <n v="431" u="1"/>
+        <n v="550" u="1"/>
+        <n v="450" u="1"/>
+        <n v="340" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -2086,7 +3944,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q30" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2109,36 +3967,44 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="30">
+      <items count="38">
         <item x="12"/>
+        <item m="1" x="31"/>
+        <item m="1" x="19"/>
+        <item m="1" x="36"/>
+        <item m="1" x="15"/>
+        <item m="1" x="25"/>
+        <item m="1" x="23"/>
+        <item m="1" x="21"/>
+        <item m="1" x="35"/>
+        <item x="3"/>
+        <item m="1" x="33"/>
+        <item m="1" x="29"/>
+        <item m="1" x="24"/>
+        <item m="1" x="27"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item x="10"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="7"/>
+        <item x="13"/>
         <item x="2"/>
         <item x="4"/>
-        <item x="13"/>
+        <item x="11"/>
+        <item m="1" x="18"/>
+        <item m="1" x="22"/>
         <item m="1" x="28"/>
-        <item m="1" x="24"/>
-        <item m="1" x="27"/>
-        <item m="1" x="23"/>
-        <item m="1" x="18"/>
-        <item m="1" x="21"/>
+        <item m="1" x="20"/>
+        <item m="1" x="32"/>
+        <item m="1" x="30"/>
+        <item m="1" x="14"/>
+        <item m="1" x="26"/>
         <item m="1" x="16"/>
-        <item m="1" x="22"/>
-        <item m="1" x="26"/>
-        <item m="1" x="15"/>
-        <item m="1" x="14"/>
-        <item m="1" x="20"/>
+        <item m="1" x="34"/>
         <item m="1" x="17"/>
-        <item m="1" x="19"/>
-        <item m="1" x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2151,39 +4017,39 @@
   <rowItems count="22">
     <i>
       <x/>
-      <x v="1"/>
+      <x v="16"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="17"/>
     </i>
     <i r="1">
-      <x v="10"/>
+      <x v="18"/>
     </i>
     <i t="blank">
       <x/>
     </i>
     <i>
       <x v="1"/>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
       <x v="9"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="14"/>
     </i>
     <i r="1">
-      <x v="12"/>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
     </i>
     <i t="blank">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-      <x v="5"/>
+      <x v="20"/>
     </i>
     <i t="blank">
       <x v="2"/>
@@ -2193,31 +4059,31 @@
       <x/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="21"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="25"/>
     </i>
     <i t="blank">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="3"/>
+      <x v="19"/>
     </i>
     <i t="blank">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x v="8"/>
+      <x v="25"/>
     </i>
     <i t="blank">
       <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-      <x v="13"/>
+      <x v="22"/>
     </i>
     <i t="blank">
       <x v="6"/>
@@ -2230,80 +4096,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="29">
+    <format dxfId="60">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="61">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="62">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="63">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="64">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="65">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="66">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="67">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="68">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="69">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="70">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="71">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="72">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="73">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="74">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="75">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="76">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="77">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="78">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="79">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="80">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="81">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2316,7 +4182,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2330,7 +4196,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2342,7 +4208,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2356,7 +4222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2368,7 +4234,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2380,7 +4246,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="89">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2698,34 +4564,34 @@
   </sheetPr>
   <dimension ref="B1:U50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13:Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="1.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="1.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.140625" collapsed="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="1.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.81640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.1796875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.1796875"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="1.26953125" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1796875" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -2734,59 +4600,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="1"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>315</v>
+        <v>515</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="6">
         <f>F2</f>
-        <v>315</v>
+        <v>515</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:21" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="U5" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="59"/>
     </row>
-    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2821,7 +4687,7 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
@@ -2836,7 +4702,7 @@
       </c>
       <c r="G8" s="14">
         <f t="shared" ref="G8:G49" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
@@ -2861,7 +4727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
@@ -2876,7 +4742,7 @@
       </c>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
@@ -2894,14 +4760,14 @@
       <c r="O9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="37">
-        <v>260</v>
+      <c r="P9" s="15">
+        <v>460</v>
       </c>
       <c r="Q9" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2916,7 +4782,7 @@
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
@@ -2934,14 +4800,14 @@
       <c r="O10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="38">
-        <v>320</v>
+      <c r="P10" s="15">
+        <v>520</v>
       </c>
       <c r="Q10" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
@@ -2956,7 +4822,7 @@
       </c>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="H11" s="14">
         <v>1</v>
@@ -2975,13 +4841,13 @@
         <v>23</v>
       </c>
       <c r="P11" s="15">
-        <v>431</v>
+        <v>631</v>
       </c>
       <c r="Q11" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -2996,7 +4862,7 @@
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
@@ -3015,7 +4881,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
@@ -3030,7 +4896,7 @@
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="H13" s="14">
         <v>1</v>
@@ -3048,14 +4914,14 @@
       <c r="O13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="37">
-        <v>410</v>
+      <c r="P13" s="40">
+        <v>140</v>
       </c>
       <c r="Q13" s="31">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
@@ -3070,7 +4936,7 @@
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="H14" s="14">
         <v>1</v>
@@ -3088,14 +4954,14 @@
       <c r="O14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="39">
-        <v>420</v>
+      <c r="P14" s="15">
+        <v>620</v>
       </c>
       <c r="Q14" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +4976,7 @@
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="H15" s="14">
         <v>1</v>
@@ -3128,14 +4994,14 @@
       <c r="O15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="38">
-        <v>140</v>
+      <c r="P15" s="15">
+        <v>610</v>
       </c>
       <c r="Q15" s="31">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
@@ -3150,7 +5016,7 @@
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="H16" s="14">
         <v>1</v>
@@ -3169,13 +5035,13 @@
         <v>19</v>
       </c>
       <c r="P16" s="15">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q16" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="13" t="s">
         <v>16</v>
       </c>
@@ -3190,7 +5056,7 @@
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="H17" s="14">
         <v>1</v>
@@ -3209,13 +5075,13 @@
         <v>19</v>
       </c>
       <c r="P17" s="15">
-        <v>510</v>
+        <v>710</v>
       </c>
       <c r="Q17" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
@@ -3230,7 +5096,7 @@
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="H18" s="14">
         <v>1</v>
@@ -3249,7 +5115,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="31"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="24"/>
       <c r="C19" s="13" t="s">
         <v>16</v>
@@ -3265,7 +5131,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="H19" s="14">
         <v>1</v>
@@ -3283,14 +5149,14 @@
       <c r="O19" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="40">
-        <v>400</v>
+      <c r="P19" s="15">
+        <v>600</v>
       </c>
       <c r="Q19" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
         <v>16</v>
@@ -3306,7 +5172,7 @@
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="H20" s="14">
         <v>1</v>
@@ -3325,7 +5191,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
         <v>16</v>
@@ -3341,7 +5207,7 @@
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
@@ -3359,14 +5225,14 @@
       <c r="O21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="40">
         <v>150</v>
       </c>
       <c r="Q21" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="24"/>
       <c r="C22" s="13" t="s">
         <v>16</v>
@@ -3382,7 +5248,7 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="H22" s="14">
         <v>1</v>
@@ -3400,14 +5266,14 @@
       <c r="O22" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P22" s="39">
-        <v>385</v>
+      <c r="P22" s="15">
+        <v>585</v>
       </c>
       <c r="Q22" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="24"/>
       <c r="C23" s="13" t="s">
         <v>52</v>
@@ -3423,7 +5289,7 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="H23" s="14">
         <v>1</v>
@@ -3441,14 +5307,14 @@
       <c r="O23" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P23" s="38">
-        <v>450</v>
+      <c r="P23" s="15">
+        <v>650</v>
       </c>
       <c r="Q23" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="24"/>
       <c r="C24" s="13" t="s">
         <v>52</v>
@@ -3483,7 +5349,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="24"/>
       <c r="C25" s="13" t="s">
         <v>52</v>
@@ -3517,14 +5383,14 @@
       <c r="O25" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="40">
-        <v>340</v>
+      <c r="P25" s="15">
+        <v>540</v>
       </c>
       <c r="Q25" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="24"/>
       <c r="C26" s="13" t="s">
         <v>52</v>
@@ -3559,7 +5425,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="24"/>
       <c r="C27" s="13" t="s">
         <v>52</v>
@@ -3593,14 +5459,14 @@
       <c r="O27" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="P27" s="40">
-        <v>450</v>
+      <c r="P27" s="15">
+        <v>650</v>
       </c>
       <c r="Q27" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="24"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
@@ -3616,7 +5482,7 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="H28" s="14">
         <v>1</v>
@@ -3634,7 +5500,7 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="31"/>
     </row>
-    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24"/>
       <c r="C29" s="13" t="s">
         <v>52</v>
@@ -3650,7 +5516,7 @@
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="H29" s="14">
         <v>1</v>
@@ -3670,13 +5536,13 @@
         <v>119</v>
       </c>
       <c r="P29" s="15">
-        <v>4000</v>
+        <v>5600</v>
       </c>
       <c r="Q29" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="24"/>
       <c r="C30" s="13" t="s">
         <v>52</v>
@@ -3692,7 +5558,7 @@
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="H30" s="14">
         <v>1</v>
@@ -3710,7 +5576,7 @@
       <c r="P30" s="28"/>
       <c r="Q30" s="32"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="24"/>
       <c r="C31" s="13" t="s">
         <v>72</v>
@@ -3726,7 +5592,7 @@
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>710</v>
       </c>
       <c r="H31" s="14">
         <v>1</v>
@@ -3743,7 +5609,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="21" x14ac:dyDescent="0.5">
       <c r="B32" s="24"/>
       <c r="C32" s="13" t="s">
         <v>72</v>
@@ -3759,7 +5625,7 @@
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>710</v>
       </c>
       <c r="H32" s="14">
         <v>1</v>
@@ -3779,7 +5645,7 @@
       <c r="P32" s="1"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
         <v>72</v>
@@ -3795,7 +5661,7 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>710</v>
       </c>
       <c r="H33" s="14">
         <v>1</v>
@@ -3812,7 +5678,7 @@
       <c r="P33" s="1"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C34" s="13" t="s">
         <v>79</v>
       </c>
@@ -3827,7 +5693,7 @@
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="H34" s="14">
         <v>1</v>
@@ -3845,7 +5711,7 @@
       <c r="P34" s="1"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C35" s="13" t="s">
         <v>79</v>
       </c>
@@ -3860,7 +5726,7 @@
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="H35" s="14">
         <v>1</v>
@@ -3885,7 +5751,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C36" s="13" t="s">
         <v>79</v>
       </c>
@@ -3900,7 +5766,7 @@
       </c>
       <c r="G36" s="14">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="H36" s="14">
         <v>1</v>
@@ -3914,18 +5780,18 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-      <c r="M36" s="49" t="s">
+      <c r="M36" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C37" s="13" t="s">
         <v>79</v>
       </c>
@@ -3940,7 +5806,7 @@
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="H37" s="14">
         <v>1</v>
@@ -3954,16 +5820,16 @@
       <c r="K37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
     </row>
-    <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
         <v>112</v>
@@ -3979,7 +5845,7 @@
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>631</v>
       </c>
       <c r="H38" s="14">
         <v>1</v>
@@ -4002,7 +5868,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C39" s="13" t="s">
         <v>88</v>
       </c>
@@ -4017,7 +5883,7 @@
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="H39" s="14">
         <v>1</v>
@@ -4031,15 +5897,15 @@
       <c r="K39" s="1">
         <v>25</v>
       </c>
-      <c r="M39" s="50" t="s">
+      <c r="M39" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="N39" s="51"/>
+      <c r="N39" s="62"/>
       <c r="O39" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="42"/>
       <c r="C40" s="13" t="s">
         <v>90</v>
@@ -4055,7 +5921,7 @@
       </c>
       <c r="G40" s="14">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H40" s="14">
         <v>1</v>
@@ -4069,15 +5935,15 @@
       <c r="K40" s="1">
         <v>85</v>
       </c>
-      <c r="M40" s="44">
+      <c r="M40" s="55">
         <v>315</v>
       </c>
-      <c r="N40" s="45"/>
+      <c r="N40" s="56"/>
       <c r="O40" s="16">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="42"/>
       <c r="C41" s="13" t="s">
         <v>90</v>
@@ -4093,7 +5959,7 @@
       </c>
       <c r="G41" s="14">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H41" s="14">
         <v>1</v>
@@ -4107,17 +5973,17 @@
       <c r="K41" s="1">
         <v>85</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="55">
         <f>M40+50</f>
         <v>365</v>
       </c>
-      <c r="N41" s="45"/>
+      <c r="N41" s="56"/>
       <c r="O41" s="16">
         <f>O40+50</f>
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="42"/>
       <c r="C42" s="13" t="s">
         <v>90</v>
@@ -4133,7 +5999,7 @@
       </c>
       <c r="G42" s="14">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>585</v>
       </c>
       <c r="H42" s="14">
         <v>1</v>
@@ -4147,17 +6013,17 @@
       <c r="K42" s="1">
         <v>70</v>
       </c>
-      <c r="M42" s="44">
+      <c r="M42" s="55">
         <f t="shared" ref="M42:M47" si="1">M41+50</f>
         <v>415</v>
       </c>
-      <c r="N42" s="45"/>
+      <c r="N42" s="56"/>
       <c r="O42" s="16">
         <f t="shared" ref="O42:O47" si="2">O41+50</f>
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
         <v>96</v>
@@ -4173,7 +6039,7 @@
       </c>
       <c r="G43" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="H43" s="14">
         <v>1</v>
@@ -4187,17 +6053,17 @@
       <c r="K43" s="1">
         <v>110</v>
       </c>
-      <c r="M43" s="44">
+      <c r="M43" s="55">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="N43" s="45"/>
+      <c r="N43" s="56"/>
       <c r="O43" s="16">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B44" s="42"/>
       <c r="C44" s="13" t="s">
         <v>96</v>
@@ -4213,7 +6079,7 @@
       </c>
       <c r="G44" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="H44" s="14">
         <v>1</v>
@@ -4227,17 +6093,17 @@
       <c r="K44" s="1">
         <v>110</v>
       </c>
-      <c r="M44" s="44">
+      <c r="M44" s="55">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
-      <c r="N44" s="45"/>
+      <c r="N44" s="56"/>
       <c r="O44" s="16">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B45" s="42"/>
       <c r="C45" s="13" t="s">
         <v>96</v>
@@ -4253,7 +6119,7 @@
       </c>
       <c r="G45" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="H45" s="14">
         <v>1</v>
@@ -4267,17 +6133,17 @@
       <c r="K45" s="1">
         <v>110</v>
       </c>
-      <c r="M45" s="44">
+      <c r="M45" s="55">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="N45" s="45"/>
+      <c r="N45" s="56"/>
       <c r="O45" s="16">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
         <v>96</v>
@@ -4307,11 +6173,11 @@
       <c r="K46" s="1">
         <v>150</v>
       </c>
-      <c r="M46" s="44">
+      <c r="M46" s="55">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="N46" s="45"/>
+      <c r="N46" s="56"/>
       <c r="O46" s="16">
         <f t="shared" si="2"/>
         <v>640</v>
@@ -4321,7 +6187,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B47" s="42"/>
       <c r="C47" s="13" t="s">
         <v>96</v>
@@ -4337,7 +6203,7 @@
       </c>
       <c r="G47" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="H47" s="14">
         <v>1</v>
@@ -4351,17 +6217,17 @@
       <c r="K47" s="1">
         <v>110</v>
       </c>
-      <c r="M47" s="44">
+      <c r="M47" s="55">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="N47" s="45"/>
+      <c r="N47" s="56"/>
       <c r="O47" s="16">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B48" s="42"/>
       <c r="C48" s="13" t="s">
         <v>96</v>
@@ -4377,7 +6243,7 @@
       </c>
       <c r="G48" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="H48" s="14">
         <v>1</v>
@@ -4392,7 +6258,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="42"/>
       <c r="C49" s="13" t="s">
         <v>96</v>
@@ -4408,7 +6274,7 @@
       </c>
       <c r="G49" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="H49" s="14">
         <v>1</v>
@@ -4423,7 +6289,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="43"/>
       <c r="C50" s="13" t="s">
         <v>116</v>
@@ -4439,7 +6305,7 @@
       </c>
       <c r="G50" s="14">
         <f>IFERROR(VLOOKUP(I50,$E$2:$F$4,2,0)*8,0)+K50</f>
-        <v>4000</v>
+        <v>5600</v>
       </c>
       <c r="H50" s="14">
         <v>1</v>
@@ -4479,102 +6345,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6487C1D2-A674-4414-8299-37AC10F5B8E0}">
   <dimension ref="P2:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="16:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P3" s="55" t="s">
+    <row r="2" spans="16:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="16:17" x14ac:dyDescent="0.35">
+      <c r="P3" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="56"/>
+      <c r="Q3" s="48"/>
     </row>
-    <row r="4" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P4" s="57" t="str">
+    <row r="4" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P4" s="49" t="str">
         <f>FRAMECALCULATOR!E1</f>
         <v>Desired Print Area</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="P5" s="59" t="str">
+    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="P5" s="51" t="str">
         <f>FRAMECALCULATOR!E2</f>
         <v>X</v>
       </c>
-      <c r="Q5" s="60">
+      <c r="Q5" s="52">
         <f>FRAMECALCULATOR!F2</f>
-        <v>315</v>
+        <v>515</v>
       </c>
     </row>
-    <row r="6" spans="16:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P6" s="61" t="str">
+    <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" s="53" t="str">
         <f>FRAMECALCULATOR!E3</f>
         <v>Y</v>
       </c>
-      <c r="Q6" s="62">
+      <c r="Q6" s="54">
         <f>FRAMECALCULATOR!F3</f>
-        <v>315</v>
+        <v>515</v>
       </c>
     </row>
-    <row r="9" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P9" s="53" t="s">
+    <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P9" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="53" t="s">
+      <c r="Q9" s="45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="P10" s="52" t="s">
+    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="P10" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="54">
+      <c r="Q10" s="46">
         <f>Q5+25</f>
-        <v>340</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="P11" s="52" t="s">
+    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="P11" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="54">
+      <c r="Q11" s="46">
         <f>Q6+25</f>
-        <v>340</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="13" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P13" s="53" t="s">
+    <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P13" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="Q13" s="53" t="s">
+      <c r="Q13" s="45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="P14" s="52" t="s">
+    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="P14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="54">
+      <c r="Q14" s="46">
         <f>Q5+12</f>
-        <v>327</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="P15" s="52" t="s">
+    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="P15" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="54">
+      <c r="Q15" s="46">
         <f>Q6+-13</f>
-        <v>302</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4677943A-49DC-4D09-B659-23D66C361CFD}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2412156F-9234-48E0-B8AC-406A269C4201}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1102,7 +1102,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="180">
+  <dxfs count="90">
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -1844,135 +1844,215 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
       <border>
-        <left style="thin">
-          <color indexed="64"/>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color indexed="64"/>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color indexed="64"/>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color indexed="64"/>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color indexed="64"/>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
     </dxf>
     <dxf>
       <fill>
@@ -2003,218 +2083,22 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
     </dxf>
     <dxf>
       <border>
@@ -2327,1001 +2211,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3516,7 +2406,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44022.542758333337" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{EE21856B-4584-42FE-9CE7-DE41726CCFEE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44027.431705208335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{EE21856B-4584-42FE-9CE7-DE41726CCFEE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C7:H50" sheet="FRAMECALCULATOR"/>
   </cacheSource>
@@ -3542,43 +2432,59 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="5600" count="37">
-        <n v="620"/>
-        <n v="610"/>
-        <n v="1080"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="6400" count="53">
+        <n v="705"/>
+        <n v="695"/>
+        <n v="1140"/>
         <n v="140"/>
+        <n v="770"/>
+        <n v="545"/>
+        <n v="605"/>
+        <n v="716"/>
+        <n v="625"/>
+        <n v="685"/>
+        <n v="670"/>
         <n v="710"/>
-        <n v="460"/>
-        <n v="520"/>
-        <n v="631"/>
-        <n v="540"/>
-        <n v="600"/>
-        <n v="585"/>
-        <n v="650"/>
         <n v="150"/>
-        <n v="5600"/>
+        <n v="6280"/>
         <n v="440" u="1"/>
+        <n v="1080" u="1"/>
         <n v="385" u="1"/>
         <n v="485" u="1"/>
+        <n v="600" u="1"/>
         <n v="4800" u="1"/>
+        <n v="6400" u="1"/>
         <n v="1130" u="1"/>
         <n v="320" u="1"/>
         <n v="980" u="1"/>
         <n v="420" u="1"/>
+        <n v="560" u="1"/>
+        <n v="631" u="1"/>
         <n v="760" u="1"/>
         <n v="410" u="1"/>
         <n v="510" u="1"/>
+        <n v="650" u="1"/>
+        <n v="540" u="1"/>
+        <n v="585" u="1"/>
         <n v="400" u="1"/>
         <n v="500" u="1"/>
         <n v="4000" u="1"/>
+        <n v="520" u="1"/>
+        <n v="720" u="1"/>
+        <n v="610" u="1"/>
         <n v="700" u="1"/>
+        <n v="5600" u="1"/>
         <n v="880" u="1"/>
         <n v="531" u="1"/>
+        <n v="731" u="1"/>
         <n v="260" u="1"/>
         <n v="360" u="1"/>
         <n v="431" u="1"/>
+        <n v="460" u="1"/>
         <n v="550" u="1"/>
+        <n v="640" u="1"/>
         <n v="450" u="1"/>
+        <n v="620" u="1"/>
         <n v="340" u="1"/>
       </sharedItems>
     </cacheField>
@@ -3944,7 +2850,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q30" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3967,44 +2873,60 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="38">
+      <items count="54">
         <item x="12"/>
+        <item m="1" x="44"/>
+        <item m="1" x="22"/>
+        <item m="1" x="52"/>
+        <item m="1" x="16"/>
+        <item m="1" x="33"/>
+        <item m="1" x="28"/>
+        <item m="1" x="24"/>
+        <item m="1" x="50"/>
+        <item x="3"/>
+        <item m="1" x="46"/>
+        <item m="1" x="41"/>
+        <item m="1" x="29"/>
+        <item m="1" x="35"/>
+        <item m="1" x="51"/>
+        <item m="1" x="38"/>
+        <item m="1" x="47"/>
+        <item m="1" x="36"/>
+        <item m="1" x="26"/>
         <item m="1" x="31"/>
+        <item m="1" x="18"/>
+        <item m="1" x="32"/>
+        <item m="1" x="40"/>
+        <item m="1" x="15"/>
+        <item x="11"/>
+        <item m="1" x="30"/>
+        <item m="1" x="21"/>
+        <item m="1" x="27"/>
+        <item m="1" x="39"/>
+        <item m="1" x="23"/>
+        <item m="1" x="45"/>
+        <item m="1" x="42"/>
+        <item m="1" x="14"/>
+        <item m="1" x="34"/>
+        <item m="1" x="17"/>
+        <item m="1" x="48"/>
         <item m="1" x="19"/>
-        <item m="1" x="36"/>
-        <item m="1" x="15"/>
+        <item m="1" x="37"/>
         <item m="1" x="25"/>
-        <item m="1" x="23"/>
-        <item m="1" x="21"/>
-        <item m="1" x="35"/>
-        <item x="3"/>
-        <item m="1" x="33"/>
-        <item m="1" x="29"/>
-        <item m="1" x="24"/>
-        <item m="1" x="27"/>
+        <item m="1" x="43"/>
+        <item m="1" x="49"/>
+        <item x="9"/>
+        <item m="1" x="20"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item x="9"/>
         <item x="10"/>
         <item x="13"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item m="1" x="18"/>
-        <item m="1" x="22"/>
-        <item m="1" x="28"/>
-        <item m="1" x="20"/>
-        <item m="1" x="32"/>
-        <item m="1" x="30"/>
-        <item m="1" x="14"/>
-        <item m="1" x="26"/>
-        <item m="1" x="16"/>
-        <item m="1" x="34"/>
-        <item m="1" x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4017,13 +2939,13 @@
   <rowItems count="22">
     <i>
       <x/>
-      <x v="16"/>
+      <x v="47"/>
     </i>
     <i r="1">
-      <x v="17"/>
+      <x v="48"/>
     </i>
     <i r="1">
-      <x v="18"/>
+      <x v="49"/>
     </i>
     <i t="blank">
       <x/>
@@ -4033,23 +2955,23 @@
       <x v="9"/>
     </i>
     <i r="1">
-      <x v="14"/>
+      <x v="43"/>
     </i>
     <i r="1">
-      <x v="15"/>
+      <x v="44"/>
     </i>
     <i r="1">
-      <x v="23"/>
+      <x v="45"/>
     </i>
     <i r="1">
-      <x v="24"/>
+      <x v="46"/>
     </i>
     <i t="blank">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-      <x v="20"/>
+      <x v="41"/>
     </i>
     <i t="blank">
       <x v="2"/>
@@ -4059,31 +2981,31 @@
       <x/>
     </i>
     <i r="1">
-      <x v="21"/>
+      <x v="24"/>
     </i>
     <i r="1">
-      <x v="25"/>
+      <x v="51"/>
     </i>
     <i t="blank">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="19"/>
+      <x v="50"/>
     </i>
     <i t="blank">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x v="25"/>
+      <x v="24"/>
     </i>
     <i t="blank">
       <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-      <x v="22"/>
+      <x v="52"/>
     </i>
     <i t="blank">
       <x v="6"/>
@@ -4096,80 +3018,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="60">
+    <format dxfId="89">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="88">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="87">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="86">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="85">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="84">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="82">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="81">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="80">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="79">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="70">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    <format dxfId="69">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="73">
+    <format dxfId="68">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="74">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="75">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="76">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="77">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="78">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="79">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="80">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="81">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="82">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4182,7 +3104,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4196,7 +3118,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4208,7 +3130,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4222,7 +3144,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4234,7 +3156,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -4246,7 +3168,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="60">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4565,7 +3487,7 @@
   <dimension ref="B1:U50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:Q17"/>
+      <selection activeCell="E1" sqref="E1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -4585,8 +3507,8 @@
     <col min="13" max="13" width="11.81640625" customWidth="1"/>
     <col min="14" max="14" width="1.26953125" customWidth="1"/>
     <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.1796875" customWidth="1"/>
     <col min="19" max="19" width="12.26953125" customWidth="1"/>
   </cols>
@@ -4606,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>515</v>
+        <v>600</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>109</v>
@@ -4619,7 +3541,7 @@
       </c>
       <c r="F3" s="6">
         <f>F2</f>
-        <v>515</v>
+        <v>600</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -4631,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>105</v>
@@ -4702,7 +3624,7 @@
       </c>
       <c r="G8" s="14">
         <f t="shared" ref="G8:G49" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
-        <v>620</v>
+        <v>705</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
@@ -4742,7 +3664,7 @@
       </c>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
-        <v>620</v>
+        <v>705</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
@@ -4761,7 +3683,7 @@
         <v>23</v>
       </c>
       <c r="P9" s="15">
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="Q9" s="30">
         <v>2</v>
@@ -4782,7 +3704,7 @@
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
@@ -4801,7 +3723,7 @@
         <v>23</v>
       </c>
       <c r="P10" s="15">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="Q10" s="31">
         <v>2</v>
@@ -4822,7 +3744,7 @@
       </c>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="H11" s="14">
         <v>1</v>
@@ -4841,7 +3763,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="15">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="Q11" s="31">
         <v>1</v>
@@ -4862,7 +3784,7 @@
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>620</v>
+        <v>705</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
@@ -4896,7 +3818,7 @@
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>620</v>
+        <v>705</v>
       </c>
       <c r="H13" s="14">
         <v>1</v>
@@ -4936,7 +3858,7 @@
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="H14" s="14">
         <v>1</v>
@@ -4955,7 +3877,7 @@
         <v>19</v>
       </c>
       <c r="P14" s="15">
-        <v>620</v>
+        <v>705</v>
       </c>
       <c r="Q14" s="31">
         <v>5</v>
@@ -4976,7 +3898,7 @@
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="H15" s="14">
         <v>1</v>
@@ -4995,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="P15" s="15">
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="Q15" s="31">
         <v>8</v>
@@ -5016,7 +3938,7 @@
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>620</v>
+        <v>705</v>
       </c>
       <c r="H16" s="14">
         <v>1</v>
@@ -5035,7 +3957,7 @@
         <v>19</v>
       </c>
       <c r="P16" s="15">
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="Q16" s="31">
         <v>6</v>
@@ -5056,7 +3978,7 @@
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="H17" s="14">
         <v>1</v>
@@ -5075,7 +3997,7 @@
         <v>19</v>
       </c>
       <c r="P17" s="15">
-        <v>710</v>
+        <v>770</v>
       </c>
       <c r="Q17" s="31">
         <v>3</v>
@@ -5096,7 +4018,7 @@
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="H18" s="14">
         <v>1</v>
@@ -5131,7 +4053,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="H19" s="14">
         <v>1</v>
@@ -5150,7 +4072,7 @@
         <v>42</v>
       </c>
       <c r="P19" s="15">
-        <v>600</v>
+        <v>685</v>
       </c>
       <c r="Q19" s="31">
         <v>2</v>
@@ -5172,7 +4094,7 @@
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="H20" s="14">
         <v>1</v>
@@ -5207,7 +4129,7 @@
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
@@ -5248,7 +4170,7 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="H22" s="14">
         <v>1</v>
@@ -5267,10 +4189,10 @@
         <v>47</v>
       </c>
       <c r="P22" s="15">
-        <v>585</v>
+        <v>710</v>
       </c>
       <c r="Q22" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5289,7 +4211,7 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="H23" s="14">
         <v>1</v>
@@ -5308,10 +4230,10 @@
         <v>47</v>
       </c>
       <c r="P23" s="15">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="Q23" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5384,7 +4306,7 @@
         <v>58</v>
       </c>
       <c r="P25" s="15">
-        <v>540</v>
+        <v>625</v>
       </c>
       <c r="Q25" s="31">
         <v>1</v>
@@ -5460,7 +4382,7 @@
         <v>63</v>
       </c>
       <c r="P27" s="15">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="Q27" s="31">
         <v>3</v>
@@ -5482,7 +4404,7 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="H28" s="14">
         <v>1</v>
@@ -5516,7 +4438,7 @@
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="H29" s="14">
         <v>1</v>
@@ -5536,7 +4458,7 @@
         <v>119</v>
       </c>
       <c r="P29" s="15">
-        <v>5600</v>
+        <v>6280</v>
       </c>
       <c r="Q29" s="31">
         <v>1</v>
@@ -5558,7 +4480,7 @@
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="H30" s="14">
         <v>1</v>
@@ -5592,7 +4514,7 @@
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>770</v>
       </c>
       <c r="H31" s="14">
         <v>1</v>
@@ -5625,7 +4547,7 @@
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>770</v>
       </c>
       <c r="H32" s="14">
         <v>1</v>
@@ -5661,7 +4583,7 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>770</v>
       </c>
       <c r="H33" s="14">
         <v>1</v>
@@ -5693,7 +4615,7 @@
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="H34" s="14">
         <v>1</v>
@@ -5726,7 +4648,7 @@
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="H35" s="14">
         <v>1</v>
@@ -5766,7 +4688,7 @@
       </c>
       <c r="G36" s="14">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="H36" s="14">
         <v>1</v>
@@ -5806,7 +4728,7 @@
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="H37" s="14">
         <v>1</v>
@@ -5845,7 +4767,7 @@
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="H38" s="14">
         <v>1</v>
@@ -5883,7 +4805,7 @@
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>625</v>
       </c>
       <c r="H39" s="14">
         <v>1</v>
@@ -5921,7 +4843,7 @@
       </c>
       <c r="G40" s="14">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>685</v>
       </c>
       <c r="H40" s="14">
         <v>1</v>
@@ -5959,7 +4881,7 @@
       </c>
       <c r="G41" s="14">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>685</v>
       </c>
       <c r="H41" s="14">
         <v>1</v>
@@ -5999,7 +4921,7 @@
       </c>
       <c r="G42" s="14">
         <f t="shared" si="0"/>
-        <v>585</v>
+        <v>670</v>
       </c>
       <c r="H42" s="14">
         <v>1</v>
@@ -6039,7 +4961,7 @@
       </c>
       <c r="G43" s="14">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="H43" s="14">
         <v>1</v>
@@ -6079,7 +5001,7 @@
       </c>
       <c r="G44" s="14">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="H44" s="14">
         <v>1</v>
@@ -6119,7 +5041,7 @@
       </c>
       <c r="G45" s="14">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="H45" s="14">
         <v>1</v>
@@ -6203,7 +5125,7 @@
       </c>
       <c r="G47" s="14">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="H47" s="14">
         <v>1</v>
@@ -6243,7 +5165,7 @@
       </c>
       <c r="G48" s="14">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="H48" s="14">
         <v>1</v>
@@ -6274,7 +5196,7 @@
       </c>
       <c r="G49" s="14">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="H49" s="14">
         <v>1</v>
@@ -6305,7 +5227,7 @@
       </c>
       <c r="G50" s="14">
         <f>IFERROR(VLOOKUP(I50,$E$2:$F$4,2,0)*8,0)+K50</f>
-        <v>5600</v>
+        <v>6280</v>
       </c>
       <c r="H50" s="14">
         <v>1</v>
@@ -6378,7 +5300,7 @@
       </c>
       <c r="Q5" s="52">
         <f>FRAMECALCULATOR!F2</f>
-        <v>515</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -6388,7 +5310,7 @@
       </c>
       <c r="Q6" s="54">
         <f>FRAMECALCULATOR!F3</f>
-        <v>515</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -6405,7 +5327,7 @@
       </c>
       <c r="Q10" s="46">
         <f>Q5+25</f>
-        <v>540</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -6414,7 +5336,7 @@
       </c>
       <c r="Q11" s="46">
         <f>Q6+25</f>
-        <v>540</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -6431,7 +5353,7 @@
       </c>
       <c r="Q14" s="46">
         <f>Q5+12</f>
-        <v>527</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -6440,7 +5362,7 @@
       </c>
       <c r="Q15" s="46">
         <f>Q6+-13</f>
-        <v>502</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2412156F-9234-48E0-B8AC-406A269C4201}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3460B9B5-11FD-493A-BDC7-F816AD57BECA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="57480" yWindow="7725" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="17" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44027.431705208335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{EE21856B-4584-42FE-9CE7-DE41726CCFEE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44035.0291005787" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{EE21856B-4584-42FE-9CE7-DE41726CCFEE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C7:H50" sheet="FRAMECALCULATOR"/>
   </cacheSource>
@@ -2432,59 +2432,62 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="6400" count="53">
-        <n v="705"/>
-        <n v="695"/>
-        <n v="1140"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="6400" count="56">
+        <n v="620"/>
+        <n v="610"/>
+        <n v="1540"/>
         <n v="140"/>
-        <n v="770"/>
-        <n v="545"/>
-        <n v="605"/>
-        <n v="716"/>
-        <n v="625"/>
-        <n v="685"/>
-        <n v="670"/>
-        <n v="710"/>
+        <n v="1170"/>
+        <n v="460"/>
+        <n v="520"/>
+        <n v="631"/>
+        <n v="540"/>
+        <n v="600"/>
+        <n v="585"/>
+        <n v="1110"/>
         <n v="150"/>
-        <n v="6280"/>
+        <n v="5600"/>
         <n v="440" u="1"/>
+        <n v="710" u="1"/>
         <n v="1080" u="1"/>
         <n v="385" u="1"/>
         <n v="485" u="1"/>
-        <n v="600" u="1"/>
+        <n v="716" u="1"/>
         <n v="4800" u="1"/>
         <n v="6400" u="1"/>
         <n v="1130" u="1"/>
         <n v="320" u="1"/>
+        <n v="625" u="1"/>
         <n v="980" u="1"/>
         <n v="420" u="1"/>
+        <n v="670" u="1"/>
         <n v="560" u="1"/>
-        <n v="631" u="1"/>
         <n v="760" u="1"/>
+        <n v="605" u="1"/>
         <n v="410" u="1"/>
         <n v="510" u="1"/>
         <n v="650" u="1"/>
-        <n v="540" u="1"/>
-        <n v="585" u="1"/>
+        <n v="695" u="1"/>
+        <n v="1140" u="1"/>
         <n v="400" u="1"/>
         <n v="500" u="1"/>
+        <n v="6280" u="1"/>
         <n v="4000" u="1"/>
-        <n v="520" u="1"/>
         <n v="720" u="1"/>
-        <n v="610" u="1"/>
         <n v="700" u="1"/>
-        <n v="5600" u="1"/>
+        <n v="545" u="1"/>
         <n v="880" u="1"/>
+        <n v="770" u="1"/>
         <n v="531" u="1"/>
         <n v="731" u="1"/>
         <n v="260" u="1"/>
         <n v="360" u="1"/>
         <n v="431" u="1"/>
-        <n v="460" u="1"/>
+        <n v="705" u="1"/>
         <n v="550" u="1"/>
         <n v="640" u="1"/>
+        <n v="685" u="1"/>
         <n v="450" u="1"/>
-        <n v="620" u="1"/>
         <n v="340" u="1"/>
       </sharedItems>
     </cacheField>
@@ -2850,7 +2853,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q30" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2873,60 +2876,63 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="54">
+      <items count="57">
         <item x="12"/>
-        <item m="1" x="44"/>
-        <item m="1" x="22"/>
-        <item m="1" x="52"/>
-        <item m="1" x="16"/>
-        <item m="1" x="33"/>
-        <item m="1" x="28"/>
-        <item m="1" x="24"/>
-        <item m="1" x="50"/>
+        <item m="1" x="47"/>
+        <item m="1" x="23"/>
+        <item m="1" x="55"/>
+        <item m="1" x="17"/>
+        <item m="1" x="36"/>
+        <item m="1" x="31"/>
+        <item m="1" x="26"/>
+        <item m="1" x="54"/>
         <item x="3"/>
-        <item m="1" x="46"/>
-        <item m="1" x="41"/>
-        <item m="1" x="29"/>
-        <item m="1" x="35"/>
-        <item m="1" x="51"/>
-        <item m="1" x="38"/>
-        <item m="1" x="47"/>
-        <item m="1" x="36"/>
-        <item m="1" x="26"/>
-        <item m="1" x="31"/>
-        <item m="1" x="18"/>
+        <item m="1" x="49"/>
+        <item m="1" x="43"/>
         <item m="1" x="32"/>
-        <item m="1" x="40"/>
-        <item m="1" x="15"/>
-        <item x="11"/>
-        <item m="1" x="30"/>
-        <item m="1" x="21"/>
-        <item m="1" x="27"/>
         <item m="1" x="39"/>
-        <item m="1" x="23"/>
-        <item m="1" x="45"/>
-        <item m="1" x="42"/>
-        <item m="1" x="14"/>
-        <item m="1" x="34"/>
-        <item m="1" x="17"/>
-        <item m="1" x="48"/>
-        <item m="1" x="19"/>
-        <item m="1" x="37"/>
-        <item m="1" x="25"/>
-        <item m="1" x="43"/>
-        <item m="1" x="49"/>
-        <item x="9"/>
-        <item m="1" x="20"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item x="10"/>
         <item x="13"/>
+        <item m="1" x="16"/>
+        <item m="1" x="15"/>
+        <item m="1" x="33"/>
+        <item m="1" x="22"/>
+        <item m="1" x="29"/>
+        <item m="1" x="41"/>
+        <item m="1" x="25"/>
+        <item m="1" x="48"/>
+        <item m="1" x="45"/>
+        <item m="1" x="14"/>
+        <item m="1" x="37"/>
+        <item m="1" x="18"/>
+        <item m="1" x="51"/>
+        <item m="1" x="20"/>
+        <item m="1" x="40"/>
+        <item m="1" x="28"/>
+        <item m="1" x="46"/>
+        <item m="1" x="52"/>
+        <item m="1" x="53"/>
+        <item m="1" x="21"/>
+        <item m="1" x="50"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="44"/>
+        <item m="1" x="42"/>
+        <item m="1" x="30"/>
+        <item m="1" x="19"/>
+        <item m="1" x="24"/>
+        <item m="1" x="27"/>
+        <item m="1" x="38"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2939,13 +2945,13 @@
   <rowItems count="22">
     <i>
       <x/>
-      <x v="47"/>
+      <x v="16"/>
     </i>
     <i r="1">
-      <x v="48"/>
+      <x v="17"/>
     </i>
     <i r="1">
-      <x v="49"/>
+      <x v="18"/>
     </i>
     <i t="blank">
       <x/>
@@ -2955,23 +2961,23 @@
       <x v="9"/>
     </i>
     <i r="1">
-      <x v="43"/>
+      <x v="14"/>
     </i>
     <i r="1">
-      <x v="44"/>
+      <x v="15"/>
     </i>
     <i r="1">
-      <x v="45"/>
+      <x v="53"/>
     </i>
     <i r="1">
-      <x v="46"/>
+      <x v="54"/>
     </i>
     <i t="blank">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-      <x v="41"/>
+      <x v="20"/>
     </i>
     <i t="blank">
       <x v="2"/>
@@ -2981,31 +2987,31 @@
       <x/>
     </i>
     <i r="1">
-      <x v="24"/>
+      <x v="21"/>
     </i>
     <i r="1">
-      <x v="51"/>
+      <x v="55"/>
     </i>
     <i t="blank">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="50"/>
+      <x v="19"/>
     </i>
     <i t="blank">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x v="24"/>
+      <x v="55"/>
     </i>
     <i t="blank">
       <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-      <x v="52"/>
+      <x v="22"/>
     </i>
     <i t="blank">
       <x v="6"/>
@@ -3487,7 +3493,7 @@
   <dimension ref="B1:U50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F4"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -3528,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>600</v>
+        <v>515</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>109</v>
@@ -3541,7 +3547,7 @@
       </c>
       <c r="F3" s="6">
         <f>F2</f>
-        <v>600</v>
+        <v>515</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -3553,7 +3559,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>105</v>
@@ -3624,7 +3630,7 @@
       </c>
       <c r="G8" s="14">
         <f t="shared" ref="G8:G49" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
-        <v>705</v>
+        <v>620</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
@@ -3664,7 +3670,7 @@
       </c>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>620</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
@@ -3683,7 +3689,7 @@
         <v>23</v>
       </c>
       <c r="P9" s="15">
-        <v>545</v>
+        <v>460</v>
       </c>
       <c r="Q9" s="30">
         <v>2</v>
@@ -3704,7 +3710,7 @@
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
@@ -3723,7 +3729,7 @@
         <v>23</v>
       </c>
       <c r="P10" s="15">
-        <v>605</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="31">
         <v>2</v>
@@ -3744,7 +3750,7 @@
       </c>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="H11" s="14">
         <v>1</v>
@@ -3763,7 +3769,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="15">
-        <v>716</v>
+        <v>631</v>
       </c>
       <c r="Q11" s="31">
         <v>1</v>
@@ -3784,7 +3790,7 @@
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>620</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
@@ -3818,7 +3824,7 @@
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>620</v>
       </c>
       <c r="H13" s="14">
         <v>1</v>
@@ -3858,7 +3864,7 @@
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="H14" s="14">
         <v>1</v>
@@ -3877,7 +3883,7 @@
         <v>19</v>
       </c>
       <c r="P14" s="15">
-        <v>705</v>
+        <v>620</v>
       </c>
       <c r="Q14" s="31">
         <v>5</v>
@@ -3898,7 +3904,7 @@
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="H15" s="14">
         <v>1</v>
@@ -3917,7 +3923,7 @@
         <v>19</v>
       </c>
       <c r="P15" s="15">
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="Q15" s="31">
         <v>8</v>
@@ -3938,7 +3944,7 @@
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>620</v>
       </c>
       <c r="H16" s="14">
         <v>1</v>
@@ -3957,7 +3963,7 @@
         <v>19</v>
       </c>
       <c r="P16" s="15">
-        <v>1140</v>
+        <v>1540</v>
       </c>
       <c r="Q16" s="31">
         <v>6</v>
@@ -3978,7 +3984,7 @@
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="H17" s="14">
         <v>1</v>
@@ -3997,7 +4003,7 @@
         <v>19</v>
       </c>
       <c r="P17" s="15">
-        <v>770</v>
+        <v>1170</v>
       </c>
       <c r="Q17" s="31">
         <v>3</v>
@@ -4018,7 +4024,7 @@
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="H18" s="14">
         <v>1</v>
@@ -4053,7 +4059,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>1540</v>
       </c>
       <c r="H19" s="14">
         <v>1</v>
@@ -4072,7 +4078,7 @@
         <v>42</v>
       </c>
       <c r="P19" s="15">
-        <v>685</v>
+        <v>600</v>
       </c>
       <c r="Q19" s="31">
         <v>2</v>
@@ -4094,7 +4100,7 @@
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>1540</v>
       </c>
       <c r="H20" s="14">
         <v>1</v>
@@ -4129,7 +4135,7 @@
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>1540</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
@@ -4170,7 +4176,7 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>1540</v>
       </c>
       <c r="H22" s="14">
         <v>1</v>
@@ -4189,10 +4195,10 @@
         <v>47</v>
       </c>
       <c r="P22" s="15">
-        <v>710</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4211,7 +4217,7 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="H23" s="14">
         <v>1</v>
@@ -4230,10 +4236,10 @@
         <v>47</v>
       </c>
       <c r="P23" s="15">
-        <v>670</v>
+        <v>1110</v>
       </c>
       <c r="Q23" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4306,7 +4312,7 @@
         <v>58</v>
       </c>
       <c r="P25" s="15">
-        <v>625</v>
+        <v>540</v>
       </c>
       <c r="Q25" s="31">
         <v>1</v>
@@ -4382,7 +4388,7 @@
         <v>63</v>
       </c>
       <c r="P27" s="15">
-        <v>710</v>
+        <v>1110</v>
       </c>
       <c r="Q27" s="31">
         <v>3</v>
@@ -4404,7 +4410,7 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="H28" s="14">
         <v>1</v>
@@ -4438,7 +4444,7 @@
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>1540</v>
       </c>
       <c r="H29" s="14">
         <v>1</v>
@@ -4458,7 +4464,7 @@
         <v>119</v>
       </c>
       <c r="P29" s="15">
-        <v>6280</v>
+        <v>5600</v>
       </c>
       <c r="Q29" s="31">
         <v>1</v>
@@ -4480,7 +4486,7 @@
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>1540</v>
       </c>
       <c r="H30" s="14">
         <v>1</v>
@@ -4514,7 +4520,7 @@
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>770</v>
+        <v>1170</v>
       </c>
       <c r="H31" s="14">
         <v>1</v>
@@ -4547,7 +4553,7 @@
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>770</v>
+        <v>1170</v>
       </c>
       <c r="H32" s="14">
         <v>1</v>
@@ -4583,7 +4589,7 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>770</v>
+        <v>1170</v>
       </c>
       <c r="H33" s="14">
         <v>1</v>
@@ -4615,7 +4621,7 @@
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>545</v>
+        <v>460</v>
       </c>
       <c r="H34" s="14">
         <v>1</v>
@@ -4648,7 +4654,7 @@
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>545</v>
+        <v>460</v>
       </c>
       <c r="H35" s="14">
         <v>1</v>
@@ -4688,7 +4694,7 @@
       </c>
       <c r="G36" s="14">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>520</v>
       </c>
       <c r="H36" s="14">
         <v>1</v>
@@ -4728,7 +4734,7 @@
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>520</v>
       </c>
       <c r="H37" s="14">
         <v>1</v>
@@ -4767,7 +4773,7 @@
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>716</v>
+        <v>631</v>
       </c>
       <c r="H38" s="14">
         <v>1</v>
@@ -4805,7 +4811,7 @@
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>540</v>
       </c>
       <c r="H39" s="14">
         <v>1</v>
@@ -4843,7 +4849,7 @@
       </c>
       <c r="G40" s="14">
         <f t="shared" si="0"/>
-        <v>685</v>
+        <v>600</v>
       </c>
       <c r="H40" s="14">
         <v>1</v>
@@ -4881,7 +4887,7 @@
       </c>
       <c r="G41" s="14">
         <f t="shared" si="0"/>
-        <v>685</v>
+        <v>600</v>
       </c>
       <c r="H41" s="14">
         <v>1</v>
@@ -4921,7 +4927,7 @@
       </c>
       <c r="G42" s="14">
         <f t="shared" si="0"/>
-        <v>670</v>
+        <v>585</v>
       </c>
       <c r="H42" s="14">
         <v>1</v>
@@ -4961,7 +4967,7 @@
       </c>
       <c r="G43" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>1110</v>
       </c>
       <c r="H43" s="14">
         <v>1</v>
@@ -5001,7 +5007,7 @@
       </c>
       <c r="G44" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>1110</v>
       </c>
       <c r="H44" s="14">
         <v>1</v>
@@ -5041,7 +5047,7 @@
       </c>
       <c r="G45" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>1110</v>
       </c>
       <c r="H45" s="14">
         <v>1</v>
@@ -5125,7 +5131,7 @@
       </c>
       <c r="G47" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>1110</v>
       </c>
       <c r="H47" s="14">
         <v>1</v>
@@ -5165,7 +5171,7 @@
       </c>
       <c r="G48" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>1110</v>
       </c>
       <c r="H48" s="14">
         <v>1</v>
@@ -5196,7 +5202,7 @@
       </c>
       <c r="G49" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>1110</v>
       </c>
       <c r="H49" s="14">
         <v>1</v>
@@ -5227,7 +5233,7 @@
       </c>
       <c r="G50" s="14">
         <f>IFERROR(VLOOKUP(I50,$E$2:$F$4,2,0)*8,0)+K50</f>
-        <v>6280</v>
+        <v>5600</v>
       </c>
       <c r="H50" s="14">
         <v>1</v>
@@ -5300,7 +5306,7 @@
       </c>
       <c r="Q5" s="52">
         <f>FRAMECALCULATOR!F2</f>
-        <v>600</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -5310,7 +5316,7 @@
       </c>
       <c r="Q6" s="54">
         <f>FRAMECALCULATOR!F3</f>
-        <v>600</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -5327,7 +5333,7 @@
       </c>
       <c r="Q10" s="46">
         <f>Q5+25</f>
-        <v>625</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -5336,7 +5342,7 @@
       </c>
       <c r="Q11" s="46">
         <f>Q6+25</f>
-        <v>625</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -5353,7 +5359,7 @@
       </c>
       <c r="Q14" s="46">
         <f>Q5+12</f>
-        <v>612</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -5362,7 +5368,7 @@
       </c>
       <c r="Q15" s="46">
         <f>Q6+-13</f>
-        <v>587</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3460B9B5-11FD-493A-BDC7-F816AD57BECA}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFC5CFF1-0DD3-4317-9301-7AF7FBC73FCE}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7725" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1102,7 +1102,377 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="120">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -2406,7 +2776,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44035.0291005787" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{EE21856B-4584-42FE-9CE7-DE41726CCFEE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44048.690906481483" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{EE21856B-4584-42FE-9CE7-DE41726CCFEE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C7:H50" sheet="FRAMECALCULATOR"/>
   </cacheSource>
@@ -2433,62 +2803,62 @@
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="6400" count="56">
-        <n v="620"/>
-        <n v="610"/>
-        <n v="1540"/>
+        <n v="420"/>
+        <n v="410"/>
+        <n v="880"/>
         <n v="140"/>
-        <n v="1170"/>
-        <n v="460"/>
-        <n v="520"/>
-        <n v="631"/>
-        <n v="540"/>
-        <n v="600"/>
-        <n v="585"/>
-        <n v="1110"/>
+        <n v="510"/>
+        <n v="260"/>
+        <n v="320"/>
+        <n v="431"/>
+        <n v="340"/>
+        <n v="400"/>
+        <n v="385"/>
+        <n v="450"/>
         <n v="150"/>
-        <n v="5600"/>
+        <n v="4000"/>
         <n v="440" u="1"/>
         <n v="710" u="1"/>
         <n v="1080" u="1"/>
-        <n v="385" u="1"/>
         <n v="485" u="1"/>
+        <n v="600" u="1"/>
+        <n v="1170" u="1"/>
         <n v="716" u="1"/>
         <n v="4800" u="1"/>
         <n v="6400" u="1"/>
         <n v="1130" u="1"/>
-        <n v="320" u="1"/>
         <n v="625" u="1"/>
         <n v="980" u="1"/>
-        <n v="420" u="1"/>
         <n v="670" u="1"/>
         <n v="560" u="1"/>
+        <n v="631" u="1"/>
         <n v="760" u="1"/>
         <n v="605" u="1"/>
-        <n v="410" u="1"/>
-        <n v="510" u="1"/>
         <n v="650" u="1"/>
         <n v="695" u="1"/>
+        <n v="540" u="1"/>
+        <n v="585" u="1"/>
         <n v="1140" u="1"/>
-        <n v="400" u="1"/>
+        <n v="1540" u="1"/>
         <n v="500" u="1"/>
         <n v="6280" u="1"/>
-        <n v="4000" u="1"/>
+        <n v="520" u="1"/>
         <n v="720" u="1"/>
+        <n v="610" u="1"/>
         <n v="700" u="1"/>
         <n v="545" u="1"/>
-        <n v="880" u="1"/>
+        <n v="5600" u="1"/>
+        <n v="1110" u="1"/>
         <n v="770" u="1"/>
         <n v="531" u="1"/>
         <n v="731" u="1"/>
-        <n v="260" u="1"/>
         <n v="360" u="1"/>
-        <n v="431" u="1"/>
         <n v="705" u="1"/>
+        <n v="460" u="1"/>
         <n v="550" u="1"/>
         <n v="640" u="1"/>
         <n v="685" u="1"/>
-        <n v="450" u="1"/>
-        <n v="340" u="1"/>
+        <n v="620" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -2853,7 +3223,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q30" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2878,61 +3248,61 @@
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="57">
         <item x="12"/>
-        <item m="1" x="47"/>
-        <item m="1" x="23"/>
-        <item m="1" x="55"/>
-        <item m="1" x="17"/>
-        <item m="1" x="36"/>
-        <item m="1" x="31"/>
-        <item m="1" x="26"/>
-        <item m="1" x="54"/>
-        <item x="3"/>
-        <item m="1" x="49"/>
-        <item m="1" x="43"/>
-        <item m="1" x="32"/>
-        <item m="1" x="39"/>
-        <item x="0"/>
-        <item x="1"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="3"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
+        <item x="2"/>
+        <item x="4"/>
         <item x="13"/>
+        <item m="1" x="55"/>
+        <item m="1" x="41"/>
+        <item m="1" x="51"/>
+        <item m="1" x="39"/>
+        <item m="1" x="28"/>
+        <item m="1" x="33"/>
+        <item m="1" x="18"/>
+        <item m="1" x="34"/>
+        <item m="1" x="44"/>
         <item m="1" x="16"/>
         <item m="1" x="15"/>
-        <item m="1" x="33"/>
-        <item m="1" x="22"/>
+        <item m="1" x="31"/>
+        <item m="1" x="23"/>
         <item m="1" x="29"/>
-        <item m="1" x="41"/>
+        <item m="1" x="42"/>
         <item m="1" x="25"/>
-        <item m="1" x="48"/>
-        <item m="1" x="45"/>
+        <item m="1" x="49"/>
+        <item m="1" x="47"/>
         <item m="1" x="14"/>
         <item m="1" x="37"/>
-        <item m="1" x="18"/>
-        <item m="1" x="51"/>
+        <item m="1" x="17"/>
+        <item m="1" x="52"/>
+        <item m="1" x="21"/>
+        <item m="1" x="40"/>
+        <item m="1" x="27"/>
+        <item m="1" x="48"/>
+        <item m="1" x="53"/>
+        <item m="1" x="54"/>
+        <item m="1" x="22"/>
+        <item m="1" x="50"/>
+        <item m="1" x="32"/>
+        <item m="1" x="35"/>
+        <item m="1" x="46"/>
+        <item m="1" x="43"/>
+        <item m="1" x="30"/>
         <item m="1" x="20"/>
-        <item m="1" x="40"/>
-        <item m="1" x="28"/>
-        <item m="1" x="46"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="21"/>
-        <item m="1" x="50"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="44"/>
-        <item m="1" x="42"/>
-        <item m="1" x="30"/>
+        <item m="1" x="24"/>
+        <item m="1" x="26"/>
+        <item m="1" x="38"/>
+        <item m="1" x="36"/>
         <item m="1" x="19"/>
-        <item m="1" x="24"/>
-        <item m="1" x="27"/>
-        <item m="1" x="38"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="11"/>
+        <item m="1" x="45"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2945,39 +3315,39 @@
   <rowItems count="22">
     <i>
       <x/>
-      <x v="16"/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x v="17"/>
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="18"/>
+      <x v="10"/>
     </i>
     <i t="blank">
       <x/>
     </i>
     <i>
       <x v="1"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
       <x v="9"/>
     </i>
     <i r="1">
-      <x v="14"/>
+      <x v="11"/>
     </i>
     <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="54"/>
+      <x v="12"/>
     </i>
     <i t="blank">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-      <x v="20"/>
+      <x v="5"/>
     </i>
     <i t="blank">
       <x v="2"/>
@@ -2987,31 +3357,31 @@
       <x/>
     </i>
     <i r="1">
-      <x v="21"/>
+      <x v="4"/>
     </i>
     <i r="1">
-      <x v="55"/>
+      <x v="8"/>
     </i>
     <i t="blank">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="19"/>
+      <x v="3"/>
     </i>
     <i t="blank">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x v="55"/>
+      <x v="8"/>
     </i>
     <i t="blank">
       <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-      <x v="22"/>
+      <x v="13"/>
     </i>
     <i t="blank">
       <x v="6"/>
@@ -3024,80 +3394,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="89">
+    <format dxfId="119">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="118">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="117">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="116">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="115">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="114">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="113">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="112">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="111">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="110">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="109">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="108">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="107">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="106">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="105">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="104">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="103">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="102">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="101">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="100">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="99">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="98">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3110,7 +3480,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3124,7 +3494,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3136,7 +3506,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3150,7 +3520,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3162,7 +3532,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3174,7 +3544,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="90">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3493,7 +3863,7 @@
   <dimension ref="B1:U50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="O6" sqref="O6:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -3534,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>515</v>
+        <v>315</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>109</v>
@@ -3547,7 +3917,7 @@
       </c>
       <c r="F3" s="6">
         <f>F2</f>
-        <v>515</v>
+        <v>315</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -3559,7 +3929,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>105</v>
@@ -3630,7 +4000,7 @@
       </c>
       <c r="G8" s="14">
         <f t="shared" ref="G8:G49" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
@@ -3670,7 +4040,7 @@
       </c>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
@@ -3688,14 +4058,14 @@
       <c r="O9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="15">
-        <v>460</v>
+      <c r="P9" s="37">
+        <v>260</v>
       </c>
       <c r="Q9" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
@@ -3710,7 +4080,7 @@
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
@@ -3728,8 +4098,8 @@
       <c r="O10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="15">
-        <v>520</v>
+      <c r="P10" s="38">
+        <v>320</v>
       </c>
       <c r="Q10" s="31">
         <v>2</v>
@@ -3750,7 +4120,7 @@
       </c>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="H11" s="14">
         <v>1</v>
@@ -3769,7 +4139,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="15">
-        <v>631</v>
+        <v>431</v>
       </c>
       <c r="Q11" s="31">
         <v>1</v>
@@ -3790,7 +4160,7 @@
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
@@ -3809,7 +4179,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
@@ -3824,7 +4194,7 @@
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="H13" s="14">
         <v>1</v>
@@ -3842,11 +4212,11 @@
       <c r="O13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="40">
-        <v>140</v>
+      <c r="P13" s="37">
+        <v>410</v>
       </c>
       <c r="Q13" s="31">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.35">
@@ -3864,7 +4234,7 @@
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="H14" s="14">
         <v>1</v>
@@ -3882,14 +4252,14 @@
       <c r="O14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="15">
-        <v>620</v>
+      <c r="P14" s="39">
+        <v>420</v>
       </c>
       <c r="Q14" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
@@ -3904,7 +4274,7 @@
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="H15" s="14">
         <v>1</v>
@@ -3922,11 +4292,11 @@
       <c r="O15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="15">
-        <v>610</v>
+      <c r="P15" s="38">
+        <v>140</v>
       </c>
       <c r="Q15" s="31">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.35">
@@ -3944,7 +4314,7 @@
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="H16" s="14">
         <v>1</v>
@@ -3963,7 +4333,7 @@
         <v>19</v>
       </c>
       <c r="P16" s="15">
-        <v>1540</v>
+        <v>880</v>
       </c>
       <c r="Q16" s="31">
         <v>6</v>
@@ -3984,7 +4354,7 @@
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="H17" s="14">
         <v>1</v>
@@ -4003,7 +4373,7 @@
         <v>19</v>
       </c>
       <c r="P17" s="15">
-        <v>1170</v>
+        <v>510</v>
       </c>
       <c r="Q17" s="31">
         <v>3</v>
@@ -4024,7 +4394,7 @@
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="H18" s="14">
         <v>1</v>
@@ -4059,7 +4429,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>1540</v>
+        <v>880</v>
       </c>
       <c r="H19" s="14">
         <v>1</v>
@@ -4077,8 +4447,8 @@
       <c r="O19" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="15">
-        <v>600</v>
+      <c r="P19" s="40">
+        <v>400</v>
       </c>
       <c r="Q19" s="31">
         <v>2</v>
@@ -4100,7 +4470,7 @@
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>1540</v>
+        <v>880</v>
       </c>
       <c r="H20" s="14">
         <v>1</v>
@@ -4119,7 +4489,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
         <v>16</v>
@@ -4135,7 +4505,7 @@
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>1540</v>
+        <v>880</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
@@ -4153,7 +4523,7 @@
       <c r="O21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="37">
         <v>150</v>
       </c>
       <c r="Q21" s="31">
@@ -4176,7 +4546,7 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>1540</v>
+        <v>880</v>
       </c>
       <c r="H22" s="14">
         <v>1</v>
@@ -4194,8 +4564,8 @@
       <c r="O22" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P22" s="15">
-        <v>585</v>
+      <c r="P22" s="39">
+        <v>385</v>
       </c>
       <c r="Q22" s="31">
         <v>1</v>
@@ -4217,7 +4587,7 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="H23" s="14">
         <v>1</v>
@@ -4235,8 +4605,8 @@
       <c r="O23" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P23" s="15">
-        <v>1110</v>
+      <c r="P23" s="38">
+        <v>450</v>
       </c>
       <c r="Q23" s="31">
         <v>3</v>
@@ -4311,8 +4681,8 @@
       <c r="O25" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="15">
-        <v>540</v>
+      <c r="P25" s="40">
+        <v>340</v>
       </c>
       <c r="Q25" s="31">
         <v>1</v>
@@ -4387,8 +4757,8 @@
       <c r="O27" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="P27" s="15">
-        <v>1110</v>
+      <c r="P27" s="40">
+        <v>450</v>
       </c>
       <c r="Q27" s="31">
         <v>3</v>
@@ -4410,7 +4780,7 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="H28" s="14">
         <v>1</v>
@@ -4444,7 +4814,7 @@
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
-        <v>1540</v>
+        <v>880</v>
       </c>
       <c r="H29" s="14">
         <v>1</v>
@@ -4464,7 +4834,7 @@
         <v>119</v>
       </c>
       <c r="P29" s="15">
-        <v>5600</v>
+        <v>4000</v>
       </c>
       <c r="Q29" s="31">
         <v>1</v>
@@ -4486,7 +4856,7 @@
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>1540</v>
+        <v>880</v>
       </c>
       <c r="H30" s="14">
         <v>1</v>
@@ -4520,7 +4890,7 @@
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>1170</v>
+        <v>510</v>
       </c>
       <c r="H31" s="14">
         <v>1</v>
@@ -4553,7 +4923,7 @@
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>1170</v>
+        <v>510</v>
       </c>
       <c r="H32" s="14">
         <v>1</v>
@@ -4589,7 +4959,7 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>1170</v>
+        <v>510</v>
       </c>
       <c r="H33" s="14">
         <v>1</v>
@@ -4621,7 +4991,7 @@
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="H34" s="14">
         <v>1</v>
@@ -4654,7 +5024,7 @@
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="H35" s="14">
         <v>1</v>
@@ -4694,7 +5064,7 @@
       </c>
       <c r="G36" s="14">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="H36" s="14">
         <v>1</v>
@@ -4734,7 +5104,7 @@
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="H37" s="14">
         <v>1</v>
@@ -4773,7 +5143,7 @@
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>631</v>
+        <v>431</v>
       </c>
       <c r="H38" s="14">
         <v>1</v>
@@ -4811,7 +5181,7 @@
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="H39" s="14">
         <v>1</v>
@@ -4849,7 +5219,7 @@
       </c>
       <c r="G40" s="14">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H40" s="14">
         <v>1</v>
@@ -4887,7 +5257,7 @@
       </c>
       <c r="G41" s="14">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H41" s="14">
         <v>1</v>
@@ -4927,7 +5297,7 @@
       </c>
       <c r="G42" s="14">
         <f t="shared" si="0"/>
-        <v>585</v>
+        <v>385</v>
       </c>
       <c r="H42" s="14">
         <v>1</v>
@@ -4967,7 +5337,7 @@
       </c>
       <c r="G43" s="14">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>450</v>
       </c>
       <c r="H43" s="14">
         <v>1</v>
@@ -5007,7 +5377,7 @@
       </c>
       <c r="G44" s="14">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>450</v>
       </c>
       <c r="H44" s="14">
         <v>1</v>
@@ -5047,7 +5417,7 @@
       </c>
       <c r="G45" s="14">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>450</v>
       </c>
       <c r="H45" s="14">
         <v>1</v>
@@ -5131,7 +5501,7 @@
       </c>
       <c r="G47" s="14">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>450</v>
       </c>
       <c r="H47" s="14">
         <v>1</v>
@@ -5171,7 +5541,7 @@
       </c>
       <c r="G48" s="14">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>450</v>
       </c>
       <c r="H48" s="14">
         <v>1</v>
@@ -5202,7 +5572,7 @@
       </c>
       <c r="G49" s="14">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>450</v>
       </c>
       <c r="H49" s="14">
         <v>1</v>
@@ -5233,7 +5603,7 @@
       </c>
       <c r="G50" s="14">
         <f>IFERROR(VLOOKUP(I50,$E$2:$F$4,2,0)*8,0)+K50</f>
-        <v>5600</v>
+        <v>4000</v>
       </c>
       <c r="H50" s="14">
         <v>1</v>
@@ -5306,7 +5676,7 @@
       </c>
       <c r="Q5" s="52">
         <f>FRAMECALCULATOR!F2</f>
-        <v>515</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -5316,7 +5686,7 @@
       </c>
       <c r="Q6" s="54">
         <f>FRAMECALCULATOR!F3</f>
-        <v>515</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -5333,7 +5703,7 @@
       </c>
       <c r="Q10" s="46">
         <f>Q5+25</f>
-        <v>540</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -5342,7 +5712,7 @@
       </c>
       <c r="Q11" s="46">
         <f>Q6+25</f>
-        <v>540</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -5359,7 +5729,7 @@
       </c>
       <c r="Q14" s="46">
         <f>Q5+12</f>
-        <v>527</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -5368,7 +5738,7 @@
       </c>
       <c r="Q15" s="46">
         <f>Q6+-13</f>
-        <v>502</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFC5CFF1-0DD3-4317-9301-7AF7FBC73FCE}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A9FBC0B-2B4D-4C71-9F97-3A6BB1C3A4A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1102,1117 +1102,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <border>
         <left style="medium">
@@ -3223,7 +2113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q30" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3394,80 +2284,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="119">
+    <format dxfId="29">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="26">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="25">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="22">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="20">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="19">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="18">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="17">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="16">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="15">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="13">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="10">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="9">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="8">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3480,7 +2370,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3494,7 +2384,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3506,7 +2396,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3520,7 +2410,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3532,7 +2422,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3544,7 +2434,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="0">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3863,33 +2753,32 @@
   <dimension ref="B1:U50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:Q30"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="1.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="1.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.81640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.1796875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.1796875"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="1.26953125" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -3898,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D2" s="1"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -3910,7 +2799,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -3923,7 +2812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -3935,12 +2824,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U5" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="7" t="s">
         <v>115</v>
       </c>
@@ -3950,7 +2839,7 @@
       <c r="P6" s="58"/>
       <c r="Q6" s="59"/>
     </row>
-    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
@@ -3985,7 +2874,7 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
@@ -4025,7 +2914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
@@ -4065,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
@@ -4105,7 +2994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
@@ -4145,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -4179,7 +3068,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
@@ -4219,7 +3108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
@@ -4259,7 +3148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
@@ -4299,7 +3188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
@@ -4339,7 +3228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="13" t="s">
         <v>16</v>
       </c>
@@ -4379,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
@@ -4413,7 +3302,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="31"/>
     </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24"/>
       <c r="C19" s="13" t="s">
         <v>16</v>
@@ -4454,7 +3343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
         <v>16</v>
@@ -4489,7 +3378,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
         <v>16</v>
@@ -4530,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="24"/>
       <c r="C22" s="13" t="s">
         <v>16</v>
@@ -4571,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
       <c r="C23" s="13" t="s">
         <v>52</v>
@@ -4612,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
       <c r="C24" s="13" t="s">
         <v>52</v>
@@ -4647,7 +3536,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24"/>
       <c r="C25" s="13" t="s">
         <v>52</v>
@@ -4688,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24"/>
       <c r="C26" s="13" t="s">
         <v>52</v>
@@ -4723,7 +3612,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24"/>
       <c r="C27" s="13" t="s">
         <v>52</v>
@@ -4764,7 +3653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
@@ -4798,7 +3687,7 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="31"/>
     </row>
-    <row r="29" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24"/>
       <c r="C29" s="13" t="s">
         <v>52</v>
@@ -4840,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="13" t="s">
         <v>52</v>
@@ -4874,7 +3763,7 @@
       <c r="P30" s="28"/>
       <c r="Q30" s="32"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="C31" s="13" t="s">
         <v>72</v>
@@ -4907,7 +3796,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="2:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B32" s="24"/>
       <c r="C32" s="13" t="s">
         <v>72</v>
@@ -4943,7 +3832,7 @@
       <c r="P32" s="1"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
         <v>72</v>
@@ -4976,7 +3865,7 @@
       <c r="P33" s="1"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C34" s="13" t="s">
         <v>79</v>
       </c>
@@ -5009,7 +3898,7 @@
       <c r="P34" s="1"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
         <v>79</v>
       </c>
@@ -5049,7 +3938,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C36" s="13" t="s">
         <v>79</v>
       </c>
@@ -5089,7 +3978,7 @@
       <c r="S36" s="60"/>
       <c r="T36" s="60"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C37" s="13" t="s">
         <v>79</v>
       </c>
@@ -5127,7 +4016,7 @@
       <c r="S37" s="60"/>
       <c r="T37" s="60"/>
     </row>
-    <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
         <v>112</v>
@@ -5166,7 +4055,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C39" s="13" t="s">
         <v>88</v>
       </c>
@@ -5203,7 +4092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="42"/>
       <c r="C40" s="13" t="s">
         <v>90</v>
@@ -5241,7 +4130,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="42"/>
       <c r="C41" s="13" t="s">
         <v>90</v>
@@ -5281,7 +4170,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="42"/>
       <c r="C42" s="13" t="s">
         <v>90</v>
@@ -5321,7 +4210,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
         <v>96</v>
@@ -5361,7 +4250,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="42"/>
       <c r="C44" s="13" t="s">
         <v>96</v>
@@ -5401,7 +4290,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="42"/>
       <c r="C45" s="13" t="s">
         <v>96</v>
@@ -5441,7 +4330,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
         <v>96</v>
@@ -5485,7 +4374,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="13" t="s">
         <v>96</v>
@@ -5525,7 +4414,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="42"/>
       <c r="C48" s="13" t="s">
         <v>96</v>
@@ -5556,7 +4445,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="42"/>
       <c r="C49" s="13" t="s">
         <v>96</v>
@@ -5587,7 +4476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="43"/>
       <c r="C50" s="13" t="s">
         <v>116</v>
@@ -5647,20 +4536,20 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="16:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="16:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="16:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P3" s="47" t="s">
         <v>120</v>
       </c>
       <c r="Q3" s="48"/>
     </row>
-    <row r="4" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P4" s="49" t="str">
         <f>FRAMECALCULATOR!E1</f>
         <v>Desired Print Area</v>
@@ -5669,7 +4558,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P5" s="51" t="str">
         <f>FRAMECALCULATOR!E2</f>
         <v>X</v>
@@ -5679,7 +4568,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="16:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P6" s="53" t="str">
         <f>FRAMECALCULATOR!E3</f>
         <v>Y</v>
@@ -5689,7 +4578,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P9" s="45" t="s">
         <v>121</v>
       </c>
@@ -5697,7 +4586,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P10" s="44" t="s">
         <v>2</v>
       </c>
@@ -5706,7 +4595,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P11" s="44" t="s">
         <v>3</v>
       </c>
@@ -5715,7 +4604,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P13" s="45" t="s">
         <v>122</v>
       </c>
@@ -5723,7 +4612,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P14" s="44" t="s">
         <v>2</v>
       </c>
@@ -5732,7 +4621,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P15" s="44" t="s">
         <v>3</v>
       </c>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A9FBC0B-2B4D-4C71-9F97-3A6BB1C3A4A4}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36AD52A6-797C-48EA-AEF9-AD62A59D2BA6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="18" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="129">
   <si>
     <t>Desired Print Area</t>
   </si>
@@ -216,9 +216,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>MIC6 Alu 6mm</t>
-  </si>
-  <si>
     <t>XHHF</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>GT2 Belt</t>
   </si>
   <si>
-    <t>As eneterd on the previous sheet:</t>
-  </si>
-  <si>
     <t>Bed Size</t>
   </si>
   <si>
@@ -412,6 +406,27 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>ZR_HeaterPad</t>
+  </si>
+  <si>
+    <t>ZR_SiliconeHeatPad</t>
+  </si>
+  <si>
+    <t>Silicone Heat Pad (Keenovo Recommended)</t>
+  </si>
+  <si>
+    <t>SiliconeHeatPad (Square)</t>
+  </si>
+  <si>
+    <t>MIC6 Alu 6mm (Square)</t>
+  </si>
+  <si>
+    <t>Heated Pad recommended size</t>
+  </si>
+  <si>
+    <t>As entered on the previous sheet:</t>
   </si>
 </sst>
 </file>
@@ -568,12 +583,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,6 +602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,11 +1059,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1056,22 +1070,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1098,221 +1112,142 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
+  <dxfs count="150">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <fill>
@@ -1343,22 +1278,218 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
       <border>
@@ -1471,16 +1602,1380 @@
       </border>
     </dxf>
     <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CCFF"/>
       <color rgb="FFEBFC96"/>
       <color rgb="FFD1F810"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FF33CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1548,23 +3043,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>16165</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>69398</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>73565</xdr:rowOff>
+      <xdr:rowOff>182336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B842143-C9D1-4021-AD05-10C5B18931FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320ABF8F-B871-47FF-ABBB-1FE2D4C2E4E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,8 +3082,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14255750" y="1273175"/>
-          <a:ext cx="8010814" cy="8039296"/>
+          <a:off x="14967858" y="1306286"/>
+          <a:ext cx="7621361" cy="8768443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1622,8 +3117,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>515541</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1666,9 +3161,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44048.690906481483" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{EE21856B-4584-42FE-9CE7-DE41726CCFEE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44082.589951388887" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="44" xr:uid="{9DE3B3A4-4E52-4408-AE9E-80A17BDCAD77}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C7:H50" sheet="FRAMECALCULATOR"/>
+    <worksheetSource ref="C7:H51" sheet="FRAMECALCULATOR"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Structure Section" numFmtId="0">
@@ -1681,18 +3176,21 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Part Type" numFmtId="0">
-      <sharedItems count="7">
+      <sharedItems count="10">
         <s v="3030 Extrusion"/>
         <s v="2020 Extrusion"/>
-        <s v="MIC6 Alu 6mm"/>
+        <s v="MIC6 Alu 6mm (Square)"/>
         <s v="MGN12C Rail"/>
         <s v="MGN12H Rail"/>
         <s v="SFU1204 Screw"/>
         <s v="GT2 Belt"/>
+        <s v="SiliconeHeatPad (Square)"/>
+        <s v="SiliconeHeatPad" u="1"/>
+        <s v="MIC6 Alu 6mm" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="6400" count="56">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="4000" count="15">
         <n v="420"/>
         <n v="410"/>
         <n v="880"/>
@@ -1707,48 +3205,7 @@
         <n v="450"/>
         <n v="150"/>
         <n v="4000"/>
-        <n v="440" u="1"/>
-        <n v="710" u="1"/>
-        <n v="1080" u="1"/>
-        <n v="485" u="1"/>
-        <n v="600" u="1"/>
-        <n v="1170" u="1"/>
-        <n v="716" u="1"/>
-        <n v="4800" u="1"/>
-        <n v="6400" u="1"/>
-        <n v="1130" u="1"/>
-        <n v="625" u="1"/>
-        <n v="980" u="1"/>
-        <n v="670" u="1"/>
-        <n v="560" u="1"/>
-        <n v="631" u="1"/>
-        <n v="760" u="1"/>
-        <n v="605" u="1"/>
-        <n v="650" u="1"/>
-        <n v="695" u="1"/>
-        <n v="540" u="1"/>
-        <n v="585" u="1"/>
-        <n v="1140" u="1"/>
-        <n v="1540" u="1"/>
-        <n v="500" u="1"/>
-        <n v="6280" u="1"/>
-        <n v="520" u="1"/>
-        <n v="720" u="1"/>
-        <n v="610" u="1"/>
-        <n v="700" u="1"/>
-        <n v="545" u="1"/>
-        <n v="5600" u="1"/>
-        <n v="1110" u="1"/>
-        <n v="770" u="1"/>
-        <n v="531" u="1"/>
-        <n v="731" u="1"/>
-        <n v="360" u="1"/>
-        <n v="705" u="1"/>
-        <n v="460" u="1"/>
-        <n v="550" u="1"/>
-        <n v="640" u="1"/>
-        <n v="685" u="1"/>
-        <n v="620" u="1"/>
+        <n v="300"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -1764,7 +3221,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="43">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="44">
   <r>
     <s v="Frame"/>
     <s v="HHB"/>
@@ -2109,25 +3566,36 @@
     <x v="13"/>
     <n v="1"/>
   </r>
+  <r>
+    <s v="ZR_HeaterPad"/>
+    <s v="ZR_SiliconeHeatPad"/>
+    <s v="Silicone Heat Pad (Keenovo Recommended)"/>
+    <x v="7"/>
+    <x v="14"/>
+    <n v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94C6CC85-CA6D-48DC-B3E5-974B9FFE69AC}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="O7:Q30" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDCFAFF3-D92B-420B-A37D-3E3E68134BAA}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="O7:Q32" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" insertBlankRow="1" defaultSubtotal="0">
-      <items count="7">
+      <items count="10">
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="2"/>
+        <item m="1" x="9"/>
         <item x="5"/>
         <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="7"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -2136,7 +3604,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="57">
+      <items count="16">
         <item x="12"/>
         <item x="5"/>
         <item x="6"/>
@@ -2151,48 +3619,7 @@
         <item x="2"/>
         <item x="4"/>
         <item x="13"/>
-        <item m="1" x="55"/>
-        <item m="1" x="41"/>
-        <item m="1" x="51"/>
-        <item m="1" x="39"/>
-        <item m="1" x="28"/>
-        <item m="1" x="33"/>
-        <item m="1" x="18"/>
-        <item m="1" x="34"/>
-        <item m="1" x="44"/>
-        <item m="1" x="16"/>
-        <item m="1" x="15"/>
-        <item m="1" x="31"/>
-        <item m="1" x="23"/>
-        <item m="1" x="29"/>
-        <item m="1" x="42"/>
-        <item m="1" x="25"/>
-        <item m="1" x="49"/>
-        <item m="1" x="47"/>
-        <item m="1" x="14"/>
-        <item m="1" x="37"/>
-        <item m="1" x="17"/>
-        <item m="1" x="52"/>
-        <item m="1" x="21"/>
-        <item m="1" x="40"/>
-        <item m="1" x="27"/>
-        <item m="1" x="48"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="22"/>
-        <item m="1" x="50"/>
-        <item m="1" x="32"/>
-        <item m="1" x="35"/>
-        <item m="1" x="46"/>
-        <item m="1" x="43"/>
-        <item m="1" x="30"/>
-        <item m="1" x="20"/>
-        <item m="1" x="24"/>
-        <item m="1" x="26"/>
-        <item m="1" x="38"/>
-        <item m="1" x="36"/>
-        <item m="1" x="19"/>
-        <item m="1" x="45"/>
+        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2202,7 +3629,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="22">
+  <rowItems count="24">
     <i>
       <x/>
       <x v="1"/>
@@ -2256,13 +3683,6 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i t="blank">
-      <x v="4"/>
-    </i>
-    <i>
       <x v="5"/>
       <x v="8"/>
     </i>
@@ -2276,6 +3696,20 @@
     <i t="blank">
       <x v="6"/>
     </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i t="blank">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="14"/>
+    </i>
+    <i t="blank">
+      <x v="9"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -2284,80 +3718,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="29">
+    <format dxfId="90">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="91">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="92">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="93">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="94">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="95">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="96">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="97">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="98">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="99">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="100">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="101">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="102">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="103">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="104">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="105">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="106">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="107">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="108">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="109">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="110">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="111">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2370,7 +3804,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2384,7 +3818,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2396,7 +3830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2410,7 +3844,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2422,7 +3856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2434,7 +3868,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="119">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2750,10 +4184,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:U50"/>
+  <dimension ref="B1:U51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2763,17 +4197,18 @@
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.140625" collapsed="1"/>
     <col min="13" max="13" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="1.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" customWidth="1"/>
     <col min="19" max="19" width="12.28515625" customWidth="1"/>
   </cols>
@@ -2796,7 +4231,7 @@
         <v>315</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -2821,23 +4256,23 @@
         <v>340</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U5" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="59"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
     </row>
     <row r="7" spans="3:21" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
@@ -2888,7 +4323,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="14">
-        <f t="shared" ref="G8:G49" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
+        <f t="shared" ref="G8:G51" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
         <v>420</v>
       </c>
       <c r="H8" s="14">
@@ -3542,10 +4977,10 @@
         <v>52</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>19</v>
@@ -3568,13 +5003,13 @@
       </c>
       <c r="N25" s="24"/>
       <c r="O25" s="40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P25" s="40">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3583,10 +5018,10 @@
         <v>52</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>19</v>
@@ -3618,10 +5053,10 @@
         <v>52</v>
       </c>
       <c r="D27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>19</v>
@@ -3644,13 +5079,13 @@
       </c>
       <c r="N27" s="24"/>
       <c r="O27" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" s="40">
-        <v>450</v>
+        <v>118</v>
+      </c>
+      <c r="P27" s="15">
+        <v>4000</v>
       </c>
       <c r="Q27" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3659,10 +5094,10 @@
         <v>52</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>19</v>
@@ -3693,10 +5128,10 @@
         <v>52</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>19</v>
@@ -3718,12 +5153,12 @@
         <v>540</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="N29" s="43"/>
+      <c r="N29" s="24"/>
       <c r="O29" s="40" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P29" s="15">
-        <v>4000</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="31">
         <v>1</v>
@@ -3735,10 +5170,10 @@
         <v>52</v>
       </c>
       <c r="D30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>19</v>
@@ -3759,20 +5194,20 @@
       <c r="K30" s="1">
         <v>540</v>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="32"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O30" s="26"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="31"/>
+    </row>
+    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="24"/>
       <c r="C31" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>19</v>
@@ -3793,19 +5228,27 @@
       <c r="K31" s="1">
         <v>170</v>
       </c>
-      <c r="P31"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="N31" s="62"/>
+      <c r="O31" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="P31" s="15">
+        <v>300</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="24"/>
       <c r="C32" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>19</v>
@@ -3826,22 +5269,20 @@
       <c r="K32" s="1">
         <v>170</v>
       </c>
-      <c r="N32" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="P32" s="1"/>
-      <c r="Q32"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O32" s="27"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>19</v>
@@ -3862,18 +5303,21 @@
       <c r="K33" s="1">
         <v>170</v>
       </c>
+      <c r="N33" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="P33" s="1"/>
       <c r="Q33"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C34" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>23</v>
@@ -3900,13 +5344,13 @@
     </row>
     <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>23</v>
@@ -3928,7 +5372,7 @@
         <v>-55</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
@@ -3940,13 +5384,13 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C36" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>23</v>
@@ -3967,26 +5411,26 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-      <c r="M36" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
+      <c r="M36" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C37" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>23</v>
@@ -4007,25 +5451,25 @@
       <c r="K37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
     </row>
     <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>23</v>
@@ -4057,16 +5501,16 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C39" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>89</v>
-      </c>
       <c r="F39" s="14" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
@@ -4084,10 +5528,10 @@
       <c r="K39" s="1">
         <v>25</v>
       </c>
-      <c r="M39" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="N39" s="62"/>
+      <c r="M39" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="N39" s="61"/>
       <c r="O39" s="19" t="s">
         <v>5</v>
       </c>
@@ -4095,13 +5539,13 @@
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="42"/>
       <c r="C40" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>42</v>
@@ -4122,10 +5566,10 @@
       <c r="K40" s="1">
         <v>85</v>
       </c>
-      <c r="M40" s="55">
+      <c r="M40" s="54">
         <v>315</v>
       </c>
-      <c r="N40" s="56"/>
+      <c r="N40" s="55"/>
       <c r="O40" s="16">
         <v>340</v>
       </c>
@@ -4133,13 +5577,13 @@
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="42"/>
       <c r="C41" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>42</v>
@@ -4160,11 +5604,11 @@
       <c r="K41" s="1">
         <v>85</v>
       </c>
-      <c r="M41" s="55">
+      <c r="M41" s="54">
         <f>M40+50</f>
         <v>365</v>
       </c>
-      <c r="N41" s="56"/>
+      <c r="N41" s="55"/>
       <c r="O41" s="16">
         <f>O40+50</f>
         <v>390</v>
@@ -4173,13 +5617,13 @@
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="42"/>
       <c r="C42" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>47</v>
@@ -4200,11 +5644,11 @@
       <c r="K42" s="1">
         <v>70</v>
       </c>
-      <c r="M42" s="55">
+      <c r="M42" s="54">
         <f t="shared" ref="M42:M47" si="1">M41+50</f>
         <v>415</v>
       </c>
-      <c r="N42" s="56"/>
+      <c r="N42" s="55"/>
       <c r="O42" s="16">
         <f t="shared" ref="O42:O47" si="2">O41+50</f>
         <v>440</v>
@@ -4213,13 +5657,13 @@
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="E43" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>47</v>
@@ -4240,11 +5684,11 @@
       <c r="K43" s="1">
         <v>110</v>
       </c>
-      <c r="M43" s="55">
+      <c r="M43" s="54">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="N43" s="56"/>
+      <c r="N43" s="55"/>
       <c r="O43" s="16">
         <f t="shared" si="2"/>
         <v>490</v>
@@ -4253,13 +5697,13 @@
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="42"/>
       <c r="C44" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>47</v>
@@ -4280,11 +5724,11 @@
       <c r="K44" s="1">
         <v>110</v>
       </c>
-      <c r="M44" s="55">
+      <c r="M44" s="54">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
-      <c r="N44" s="56"/>
+      <c r="N44" s="55"/>
       <c r="O44" s="16">
         <f t="shared" si="2"/>
         <v>540</v>
@@ -4293,13 +5737,13 @@
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="42"/>
       <c r="C45" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>47</v>
@@ -4320,11 +5764,11 @@
       <c r="K45" s="1">
         <v>110</v>
       </c>
-      <c r="M45" s="55">
+      <c r="M45" s="54">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="N45" s="56"/>
+      <c r="N45" s="55"/>
       <c r="O45" s="16">
         <f t="shared" si="2"/>
         <v>590</v>
@@ -4333,13 +5777,13 @@
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>47</v>
@@ -4360,11 +5804,11 @@
       <c r="K46" s="1">
         <v>150</v>
       </c>
-      <c r="M46" s="55">
+      <c r="M46" s="54">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="N46" s="56"/>
+      <c r="N46" s="55"/>
       <c r="O46" s="16">
         <f t="shared" si="2"/>
         <v>640</v>
@@ -4377,16 +5821,16 @@
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="F47" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="14">
         <f t="shared" si="0"/>
@@ -4404,11 +5848,11 @@
       <c r="K47" s="1">
         <v>110</v>
       </c>
-      <c r="M47" s="55">
+      <c r="M47" s="54">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="N47" s="56"/>
+      <c r="N47" s="55"/>
       <c r="O47" s="16">
         <f t="shared" si="2"/>
         <v>690</v>
@@ -4417,16 +5861,16 @@
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="42"/>
       <c r="C48" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="F48" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="14">
         <f t="shared" si="0"/>
@@ -4448,16 +5892,16 @@
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="42"/>
       <c r="C49" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="F49" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="14">
         <f t="shared" si="0"/>
@@ -4477,18 +5921,18 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="43"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="F50" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="G50" s="14">
         <f>IFERROR(VLOOKUP(I50,$E$2:$F$4,2,0)*8,0)+K50</f>
@@ -4505,6 +5949,37 @@
       </c>
       <c r="K50" s="1">
         <v>1480</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="62"/>
+      <c r="C51" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="14">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="H51" s="14">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>315</v>
+      </c>
+      <c r="K51" s="1">
+        <v>-15</v>
       </c>
     </row>
   </sheetData>
@@ -4530,10 +6005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6487C1D2-A674-4414-8299-37AC10F5B8E0}">
-  <dimension ref="P2:Q15"/>
+  <dimension ref="P2:Q19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4544,90 +6019,114 @@
   <sheetData>
     <row r="2" spans="16:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P3" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="48"/>
+      <c r="P3" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P4" s="49" t="str">
+      <c r="P4" s="48" t="str">
         <f>FRAMECALCULATOR!E1</f>
         <v>Desired Print Area</v>
       </c>
-      <c r="Q4" s="50" t="s">
-        <v>123</v>
+      <c r="Q4" s="49" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="P5" s="51" t="str">
+      <c r="P5" s="50" t="str">
         <f>FRAMECALCULATOR!E2</f>
         <v>X</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="51">
         <f>FRAMECALCULATOR!F2</f>
         <v>315</v>
       </c>
     </row>
     <row r="6" spans="16:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P6" s="53" t="str">
+      <c r="P6" s="52" t="str">
         <f>FRAMECALCULATOR!E3</f>
         <v>Y</v>
       </c>
-      <c r="Q6" s="54">
+      <c r="Q6" s="53">
         <f>FRAMECALCULATOR!F3</f>
         <v>315</v>
       </c>
     </row>
     <row r="9" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="45" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="45">
         <f>Q5+25</f>
         <v>340</v>
       </c>
     </row>
     <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="P11" s="44" t="s">
+      <c r="P11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="45">
         <f>Q6+25</f>
         <v>340</v>
       </c>
     </row>
     <row r="13" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P13" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q13" s="45" t="s">
-        <v>123</v>
+      <c r="P13" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="44" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="45">
         <f>Q5+12</f>
         <v>327</v>
       </c>
     </row>
     <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="P15" s="44" t="s">
+      <c r="P15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="45">
         <f>Q6+-13</f>
         <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P17" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P18" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="45">
+        <f>Q5-15</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P19" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="45">
+        <f>Q6-15</f>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="75" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36AD52A6-797C-48EA-AEF9-AD62A59D2BA6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1088,6 +1088,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1112,14 +1113,267 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="150">
+  <dxfs count="30">
     <dxf>
-      <alignment horizontal="left"/>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
     </dxf>
     <dxf>
       <border>
@@ -1232,1741 +1486,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3578,7 +2098,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDCFAFF3-D92B-420B-A37D-3E3E68134BAA}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDCFAFF3-D92B-420B-A37D-3E3E68134BAA}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q32" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3718,80 +2238,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="90">
+    <format dxfId="29">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="26">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="25">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="22">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="20">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="19">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="18">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="17">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="16">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="15">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="13">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="10">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="9">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="8">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3804,7 +2324,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3818,7 +2338,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3830,7 +2350,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3844,7 +2364,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3856,7 +2376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3868,7 +2388,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="0">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4186,34 +2706,34 @@
   </sheetPr>
   <dimension ref="B1:U51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="1.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="1.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.140625" collapsed="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="1.28515625" customWidth="1"/>
-    <col min="15" max="15" width="32.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.81640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.1796875" collapsed="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="1.26953125" customWidth="1"/>
+    <col min="15" max="15" width="32.1796875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1796875" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -4222,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="1"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -4234,7 +2754,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -4247,7 +2767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -4259,22 +2779,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:21" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="U5" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="58"/>
-    </row>
-    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="58"/>
+      <c r="Q6" s="59"/>
+    </row>
+    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
@@ -4309,7 +2829,7 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
@@ -4349,7 +2869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
@@ -4389,7 +2909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
@@ -4429,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
@@ -4469,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -4503,7 +3023,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
@@ -4543,7 +3063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
@@ -4583,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
@@ -4623,7 +3143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
@@ -4663,7 +3183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="13" t="s">
         <v>16</v>
       </c>
@@ -4703,7 +3223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
@@ -4737,7 +3257,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="31"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="24"/>
       <c r="C19" s="13" t="s">
         <v>16</v>
@@ -4778,7 +3298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
         <v>16</v>
@@ -4813,7 +3333,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
         <v>16</v>
@@ -4854,7 +3374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="24"/>
       <c r="C22" s="13" t="s">
         <v>16</v>
@@ -4895,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="24"/>
       <c r="C23" s="13" t="s">
         <v>52</v>
@@ -4936,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="24"/>
       <c r="C24" s="13" t="s">
         <v>52</v>
@@ -4971,7 +3491,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="24"/>
       <c r="C25" s="13" t="s">
         <v>52</v>
@@ -5012,7 +3532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="24"/>
       <c r="C26" s="13" t="s">
         <v>52</v>
@@ -5047,7 +3567,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="24"/>
       <c r="C27" s="13" t="s">
         <v>52</v>
@@ -5088,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="24"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
@@ -5122,7 +3642,7 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="31"/>
     </row>
-    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24"/>
       <c r="C29" s="13" t="s">
         <v>52</v>
@@ -5164,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="24"/>
       <c r="C30" s="13" t="s">
         <v>52</v>
@@ -5198,7 +3718,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="31"/>
     </row>
-    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="24"/>
       <c r="C31" s="13" t="s">
         <v>71</v>
@@ -5228,7 +3748,7 @@
       <c r="K31" s="1">
         <v>170</v>
       </c>
-      <c r="N31" s="62"/>
+      <c r="N31" s="54"/>
       <c r="O31" s="40" t="s">
         <v>125</v>
       </c>
@@ -5239,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="24"/>
       <c r="C32" s="13" t="s">
         <v>71</v>
@@ -5273,7 +3793,7 @@
       <c r="P32" s="28"/>
       <c r="Q32" s="32"/>
     </row>
-    <row r="33" spans="2:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:20" ht="21" x14ac:dyDescent="0.5">
       <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
         <v>71</v>
@@ -5309,7 +3829,7 @@
       <c r="P33" s="1"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C34" s="13" t="s">
         <v>78</v>
       </c>
@@ -5342,7 +3862,7 @@
       <c r="P34" s="1"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C35" s="13" t="s">
         <v>78</v>
       </c>
@@ -5382,7 +3902,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C36" s="13" t="s">
         <v>78</v>
       </c>
@@ -5411,18 +3931,18 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-      <c r="M36" s="59" t="s">
+      <c r="M36" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C37" s="13" t="s">
         <v>78</v>
       </c>
@@ -5451,16 +3971,16 @@
       <c r="K37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-    </row>
-    <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+    </row>
+    <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
         <v>111</v>
@@ -5499,7 +4019,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C39" s="13" t="s">
         <v>87</v>
       </c>
@@ -5528,15 +4048,15 @@
       <c r="K39" s="1">
         <v>25</v>
       </c>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="N39" s="61"/>
+      <c r="N39" s="62"/>
       <c r="O39" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="42"/>
       <c r="C40" s="13" t="s">
         <v>89</v>
@@ -5566,15 +4086,15 @@
       <c r="K40" s="1">
         <v>85</v>
       </c>
-      <c r="M40" s="54">
+      <c r="M40" s="55">
         <v>315</v>
       </c>
-      <c r="N40" s="55"/>
+      <c r="N40" s="56"/>
       <c r="O40" s="16">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="42"/>
       <c r="C41" s="13" t="s">
         <v>89</v>
@@ -5604,17 +4124,17 @@
       <c r="K41" s="1">
         <v>85</v>
       </c>
-      <c r="M41" s="54">
+      <c r="M41" s="55">
         <f>M40+50</f>
         <v>365</v>
       </c>
-      <c r="N41" s="55"/>
+      <c r="N41" s="56"/>
       <c r="O41" s="16">
         <f>O40+50</f>
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="42"/>
       <c r="C42" s="13" t="s">
         <v>89</v>
@@ -5644,17 +4164,17 @@
       <c r="K42" s="1">
         <v>70</v>
       </c>
-      <c r="M42" s="54">
+      <c r="M42" s="55">
         <f t="shared" ref="M42:M47" si="1">M41+50</f>
         <v>415</v>
       </c>
-      <c r="N42" s="55"/>
+      <c r="N42" s="56"/>
       <c r="O42" s="16">
         <f t="shared" ref="O42:O47" si="2">O41+50</f>
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
         <v>95</v>
@@ -5684,17 +4204,17 @@
       <c r="K43" s="1">
         <v>110</v>
       </c>
-      <c r="M43" s="54">
+      <c r="M43" s="55">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="N43" s="55"/>
+      <c r="N43" s="56"/>
       <c r="O43" s="16">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B44" s="42"/>
       <c r="C44" s="13" t="s">
         <v>95</v>
@@ -5724,17 +4244,17 @@
       <c r="K44" s="1">
         <v>110</v>
       </c>
-      <c r="M44" s="54">
+      <c r="M44" s="55">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
-      <c r="N44" s="55"/>
+      <c r="N44" s="56"/>
       <c r="O44" s="16">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B45" s="42"/>
       <c r="C45" s="13" t="s">
         <v>95</v>
@@ -5764,17 +4284,17 @@
       <c r="K45" s="1">
         <v>110</v>
       </c>
-      <c r="M45" s="54">
+      <c r="M45" s="55">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="N45" s="55"/>
+      <c r="N45" s="56"/>
       <c r="O45" s="16">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
         <v>95</v>
@@ -5804,11 +4324,11 @@
       <c r="K46" s="1">
         <v>150</v>
       </c>
-      <c r="M46" s="54">
+      <c r="M46" s="55">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="N46" s="55"/>
+      <c r="N46" s="56"/>
       <c r="O46" s="16">
         <f t="shared" si="2"/>
         <v>640</v>
@@ -5818,7 +4338,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B47" s="42"/>
       <c r="C47" s="13" t="s">
         <v>95</v>
@@ -5848,17 +4368,17 @@
       <c r="K47" s="1">
         <v>110</v>
       </c>
-      <c r="M47" s="54">
+      <c r="M47" s="55">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="N47" s="55"/>
+      <c r="N47" s="56"/>
       <c r="O47" s="16">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B48" s="42"/>
       <c r="C48" s="13" t="s">
         <v>95</v>
@@ -5889,7 +4409,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="42"/>
       <c r="C49" s="13" t="s">
         <v>95</v>
@@ -5920,7 +4440,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="24"/>
       <c r="C50" s="13" t="s">
         <v>115</v>
@@ -5951,8 +4471,8 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="62"/>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B51" s="54"/>
       <c r="C51" s="13" t="s">
         <v>122</v>
       </c>
@@ -6011,20 +4531,20 @@
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="16:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="16:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P3" s="46" t="s">
         <v>128</v>
       </c>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P4" s="48" t="str">
         <f>FRAMECALCULATOR!E1</f>
         <v>Desired Print Area</v>
@@ -6033,7 +4553,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P5" s="50" t="str">
         <f>FRAMECALCULATOR!E2</f>
         <v>X</v>
@@ -6043,7 +4563,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="16:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P6" s="52" t="str">
         <f>FRAMECALCULATOR!E3</f>
         <v>Y</v>
@@ -6053,7 +4573,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P9" s="44" t="s">
         <v>119</v>
       </c>
@@ -6061,7 +4581,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P10" s="43" t="s">
         <v>2</v>
       </c>
@@ -6070,7 +4590,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P11" s="43" t="s">
         <v>3</v>
       </c>
@@ -6079,7 +4599,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P13" s="44" t="s">
         <v>120</v>
       </c>
@@ -6087,7 +4607,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P14" s="43" t="s">
         <v>2</v>
       </c>
@@ -6096,7 +4616,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P15" s="43" t="s">
         <v>3</v>
       </c>
@@ -6105,13 +4625,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P17" s="44" t="s">
         <v>127</v>
       </c>
       <c r="Q17" s="44"/>
     </row>
-    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P18" s="43" t="s">
         <v>2</v>
       </c>
@@ -6120,7 +4640,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P19" s="43" t="s">
         <v>3</v>
       </c>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36AD52A6-797C-48EA-AEF9-AD62A59D2BA6}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A8E80F9-BD21-446F-B077-AD96A4BECA76}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
   <si>
     <t>Desired Print Area</t>
   </si>
@@ -372,9 +372,6 @@
     <t>(*) NOTE</t>
   </si>
   <si>
-    <t>3. Right-Click in the table above and do "Refresh"</t>
-  </si>
-  <si>
     <t>X Axis Support</t>
   </si>
   <si>
@@ -427,6 +424,21 @@
   </si>
   <si>
     <t>As entered on the previous sheet:</t>
+  </si>
+  <si>
+    <t>HD_X axis Support</t>
+  </si>
+  <si>
+    <t>Track_XHD_2020Profile</t>
+  </si>
+  <si>
+    <t>X axis support for HD9 and HD12 only. Replaces Regular X Axis if HD version is selected.</t>
+  </si>
+  <si>
+    <t>2020 Extrusion (HD Only)</t>
+  </si>
+  <si>
+    <t>3. Right-Click in the table below and do "Refresh"</t>
   </si>
 </sst>
 </file>
@@ -607,7 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF33CCFF"/>
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,7 +1100,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,221 +1124,142 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
+  <dxfs count="147">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <fill>
@@ -1358,6 +1290,1518 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
@@ -1492,10 +2936,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFEBFC96"/>
       <color rgb="FFD1F810"/>
-      <color rgb="FF00FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1522,7 +2966,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>455083</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1570,9 +3014,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>69398</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>182336</xdr:rowOff>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>135477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1681,9 +3125,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44082.589951388887" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="44" xr:uid="{9DE3B3A4-4E52-4408-AE9E-80A17BDCAD77}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44120.501693981481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{5F61B17E-7DC0-4CFB-85E8-FF96C6C9113B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C7:H51" sheet="FRAMECALCULATOR"/>
+    <worksheetSource ref="C7:H52" sheet="FRAMECALCULATOR"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Structure Section" numFmtId="0">
@@ -1696,7 +3140,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Part Type" numFmtId="0">
-      <sharedItems count="10">
+      <sharedItems count="9">
         <s v="3030 Extrusion"/>
         <s v="2020 Extrusion"/>
         <s v="MIC6 Alu 6mm (Square)"/>
@@ -1705,12 +3149,11 @@
         <s v="SFU1204 Screw"/>
         <s v="GT2 Belt"/>
         <s v="SiliconeHeatPad (Square)"/>
-        <s v="SiliconeHeatPad" u="1"/>
-        <s v="MIC6 Alu 6mm" u="1"/>
+        <s v="2020 Extrusion (HD Only)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="4000" count="15">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="4000" count="16">
         <n v="420"/>
         <n v="410"/>
         <n v="880"/>
@@ -1726,6 +3169,7 @@
         <n v="150"/>
         <n v="4000"/>
         <n v="300"/>
+        <n v="315"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -1741,7 +3185,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="44">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
   <r>
     <s v="Frame"/>
     <s v="HHB"/>
@@ -2094,28 +3538,35 @@
     <x v="14"/>
     <n v="1"/>
   </r>
+  <r>
+    <s v="HD_X axis Support"/>
+    <s v="Track_XHD_2020Profile"/>
+    <s v="X axis support for HD9 and HD12 only. Replaces Regular X Axis if HD version is selected."/>
+    <x v="8"/>
+    <x v="15"/>
+    <n v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDCFAFF3-D92B-420B-A37D-3E3E68134BAA}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="O7:Q32" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74C2BB5-BA82-419A-891C-9C4B9F44329D}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="O7:Q34" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" insertBlankRow="1" defaultSubtotal="0">
-      <items count="10">
+      <items count="9">
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
         <item x="4"/>
-        <item m="1" x="9"/>
         <item x="5"/>
         <item x="6"/>
-        <item m="1" x="8"/>
         <item x="2"/>
         <item x="7"/>
+        <item x="8"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -2124,7 +3575,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="16">
+      <items count="17">
         <item x="12"/>
         <item x="5"/>
         <item x="6"/>
@@ -2140,6 +3591,7 @@
         <item x="4"/>
         <item x="13"/>
         <item x="14"/>
+        <item x="15"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2149,7 +3601,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="24">
+  <rowItems count="26">
     <i>
       <x/>
       <x v="1"/>
@@ -2203,32 +3655,39 @@
       <x v="3"/>
     </i>
     <i>
+      <x v="4"/>
+      <x v="8"/>
+    </i>
+    <i t="blank">
+      <x v="4"/>
+    </i>
+    <i>
       <x v="5"/>
-      <x v="8"/>
+      <x v="13"/>
     </i>
     <i t="blank">
       <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-      <x v="13"/>
+      <x v="3"/>
     </i>
     <i t="blank">
       <x v="6"/>
     </i>
     <i>
+      <x v="7"/>
+      <x v="14"/>
+    </i>
+    <i t="blank">
+      <x v="7"/>
+    </i>
+    <i>
       <x v="8"/>
-      <x v="3"/>
+      <x v="15"/>
     </i>
     <i t="blank">
       <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="14"/>
-    </i>
-    <i t="blank">
-      <x v="9"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -2237,81 +3696,81 @@
   <dataFields count="1">
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
-  <formats count="30">
-    <format dxfId="29">
+  <formats count="29">
+    <format dxfId="146">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="145">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="144">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="143">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="142">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="141">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="140">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="139">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="138">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="137">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="136">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="135">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="134">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="133">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="132">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="131">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="130">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="129">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="128">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="127">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="126">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="125">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2324,7 +3783,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2338,7 +3797,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2350,7 +3809,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2364,23 +3823,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
             <x v="4"/>
-          </reference>
-          <reference field="4" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
           </reference>
           <reference field="4" count="1">
             <x v="8"/>
@@ -2388,7 +3835,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="118">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2704,36 +4151,36 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:U51"/>
+  <dimension ref="B1:U52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="1.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="1.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.81640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.1796875" collapsed="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="1.26953125" customWidth="1"/>
-    <col min="15" max="15" width="32.1796875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.140625" collapsed="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" customWidth="1"/>
+    <col min="15" max="15" width="32.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -2742,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D2" s="1"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -2754,7 +4201,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -2767,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -2779,22 +4226,25 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O5" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="U5" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="59"/>
-    </row>
-    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
+    </row>
+    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +4279,7 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +4293,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="14">
-        <f t="shared" ref="G8:G51" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
+        <f t="shared" ref="G8:G52" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
         <v>420</v>
       </c>
       <c r="H8" s="14">
@@ -2869,7 +4319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
@@ -2909,7 +4359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2949,7 +4399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
@@ -2989,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -3023,7 +4473,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
@@ -3063,7 +4513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
@@ -3103,7 +4553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
@@ -3143,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
@@ -3183,7 +4633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="13" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +4673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
@@ -3257,7 +4707,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="31"/>
     </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24"/>
       <c r="C19" s="13" t="s">
         <v>16</v>
@@ -3298,7 +4748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
         <v>16</v>
@@ -3333,7 +4783,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
         <v>16</v>
@@ -3374,7 +4824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="24"/>
       <c r="C22" s="13" t="s">
         <v>16</v>
@@ -3415,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
       <c r="C23" s="13" t="s">
         <v>52</v>
@@ -3456,7 +4906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
       <c r="C24" s="13" t="s">
         <v>52</v>
@@ -3491,7 +4941,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24"/>
       <c r="C25" s="13" t="s">
         <v>52</v>
@@ -3532,7 +4982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24"/>
       <c r="C26" s="13" t="s">
         <v>52</v>
@@ -3567,7 +5017,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24"/>
       <c r="C27" s="13" t="s">
         <v>52</v>
@@ -3599,7 +5049,7 @@
       </c>
       <c r="N27" s="24"/>
       <c r="O27" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P27" s="15">
         <v>4000</v>
@@ -3608,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
@@ -3642,7 +5092,7 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="31"/>
     </row>
-    <row r="29" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24"/>
       <c r="C29" s="13" t="s">
         <v>52</v>
@@ -3675,7 +5125,7 @@
       <c r="L29" s="1"/>
       <c r="N29" s="24"/>
       <c r="O29" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P29" s="15">
         <v>340</v>
@@ -3684,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="13" t="s">
         <v>52</v>
@@ -3718,7 +5168,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="31"/>
     </row>
-    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="24"/>
       <c r="C31" s="13" t="s">
         <v>71</v>
@@ -3748,9 +5198,9 @@
       <c r="K31" s="1">
         <v>170</v>
       </c>
-      <c r="N31" s="54"/>
+      <c r="N31" s="24"/>
       <c r="O31" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P31" s="15">
         <v>300</v>
@@ -3759,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="24"/>
       <c r="C32" s="13" t="s">
         <v>71</v>
@@ -3789,11 +5239,11 @@
       <c r="K32" s="1">
         <v>170</v>
       </c>
-      <c r="O32" s="27"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="32"/>
-    </row>
-    <row r="33" spans="2:20" ht="21" x14ac:dyDescent="0.5">
+      <c r="O32" s="26"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="31"/>
+    </row>
+    <row r="33" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
         <v>71</v>
@@ -3823,13 +5273,18 @@
       <c r="K33" s="1">
         <v>170</v>
       </c>
-      <c r="N33" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="Q33"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N33" s="62"/>
+      <c r="O33" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="P33" s="15">
+        <v>315</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="13" t="s">
         <v>78</v>
       </c>
@@ -3858,11 +5313,11 @@
       <c r="K34" s="1">
         <v>-55</v>
       </c>
-      <c r="O34"/>
-      <c r="P34" s="1"/>
-      <c r="Q34"/>
-    </row>
-    <row r="35" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O34" s="27"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="32"/>
+    </row>
+    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
         <v>78</v>
       </c>
@@ -3902,7 +5357,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C36" s="13" t="s">
         <v>78</v>
       </c>
@@ -3931,18 +5386,18 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-      <c r="M36" s="60" t="s">
+      <c r="M36" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C37" s="13" t="s">
         <v>78</v>
       </c>
@@ -3971,25 +5426,25 @@
       <c r="K37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-    </row>
-    <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+    </row>
+    <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>23</v>
@@ -4019,7 +5474,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C39" s="13" t="s">
         <v>87</v>
       </c>
@@ -4030,7 +5485,7 @@
         <v>88</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
@@ -4048,15 +5503,15 @@
       <c r="K39" s="1">
         <v>25</v>
       </c>
-      <c r="M39" s="61" t="s">
+      <c r="M39" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="N39" s="62"/>
+      <c r="N39" s="61"/>
       <c r="O39" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="42"/>
       <c r="C40" s="13" t="s">
         <v>89</v>
@@ -4086,15 +5541,15 @@
       <c r="K40" s="1">
         <v>85</v>
       </c>
-      <c r="M40" s="55">
+      <c r="M40" s="54">
         <v>315</v>
       </c>
-      <c r="N40" s="56"/>
+      <c r="N40" s="55"/>
       <c r="O40" s="16">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="42"/>
       <c r="C41" s="13" t="s">
         <v>89</v>
@@ -4124,17 +5579,17 @@
       <c r="K41" s="1">
         <v>85</v>
       </c>
-      <c r="M41" s="55">
+      <c r="M41" s="54">
         <f>M40+50</f>
         <v>365</v>
       </c>
-      <c r="N41" s="56"/>
+      <c r="N41" s="55"/>
       <c r="O41" s="16">
         <f>O40+50</f>
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="42"/>
       <c r="C42" s="13" t="s">
         <v>89</v>
@@ -4164,17 +5619,17 @@
       <c r="K42" s="1">
         <v>70</v>
       </c>
-      <c r="M42" s="55">
+      <c r="M42" s="54">
         <f t="shared" ref="M42:M47" si="1">M41+50</f>
         <v>415</v>
       </c>
-      <c r="N42" s="56"/>
+      <c r="N42" s="55"/>
       <c r="O42" s="16">
         <f t="shared" ref="O42:O47" si="2">O41+50</f>
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
         <v>95</v>
@@ -4204,17 +5659,17 @@
       <c r="K43" s="1">
         <v>110</v>
       </c>
-      <c r="M43" s="55">
+      <c r="M43" s="54">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="N43" s="56"/>
+      <c r="N43" s="55"/>
       <c r="O43" s="16">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="42"/>
       <c r="C44" s="13" t="s">
         <v>95</v>
@@ -4244,17 +5699,17 @@
       <c r="K44" s="1">
         <v>110</v>
       </c>
-      <c r="M44" s="55">
+      <c r="M44" s="54">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
-      <c r="N44" s="56"/>
+      <c r="N44" s="55"/>
       <c r="O44" s="16">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="42"/>
       <c r="C45" s="13" t="s">
         <v>95</v>
@@ -4284,17 +5739,17 @@
       <c r="K45" s="1">
         <v>110</v>
       </c>
-      <c r="M45" s="55">
+      <c r="M45" s="54">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="N45" s="56"/>
+      <c r="N45" s="55"/>
       <c r="O45" s="16">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
         <v>95</v>
@@ -4324,11 +5779,11 @@
       <c r="K46" s="1">
         <v>150</v>
       </c>
-      <c r="M46" s="55">
+      <c r="M46" s="54">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="N46" s="56"/>
+      <c r="N46" s="55"/>
       <c r="O46" s="16">
         <f t="shared" si="2"/>
         <v>640</v>
@@ -4338,7 +5793,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="13" t="s">
         <v>95</v>
@@ -4368,17 +5823,17 @@
       <c r="K47" s="1">
         <v>110</v>
       </c>
-      <c r="M47" s="55">
+      <c r="M47" s="54">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="N47" s="56"/>
+      <c r="N47" s="55"/>
       <c r="O47" s="16">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="42"/>
       <c r="C48" s="13" t="s">
         <v>95</v>
@@ -4409,7 +5864,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="42"/>
       <c r="C49" s="13" t="s">
         <v>95</v>
@@ -4440,19 +5895,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="24"/>
       <c r="C50" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="F50" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>118</v>
       </c>
       <c r="G50" s="14">
         <f>IFERROR(VLOOKUP(I50,$E$2:$F$4,2,0)*8,0)+K50</f>
@@ -4471,19 +5926,19 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B51" s="54"/>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="24"/>
       <c r="C51" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="E51" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="F51" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="G51" s="14">
         <f t="shared" si="0"/>
@@ -4500,6 +5955,37 @@
       </c>
       <c r="K51" s="1">
         <v>-15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="62"/>
+      <c r="C52" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="H52" s="14">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="1">
+        <v>315</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4531,29 +6017,29 @@
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="16:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="16:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="16:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P3" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P4" s="48" t="str">
         <f>FRAMECALCULATOR!E1</f>
         <v>Desired Print Area</v>
       </c>
       <c r="Q4" s="49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P5" s="50" t="str">
         <f>FRAMECALCULATOR!E2</f>
         <v>X</v>
@@ -4563,7 +6049,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="16:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P6" s="52" t="str">
         <f>FRAMECALCULATOR!E3</f>
         <v>Y</v>
@@ -4573,15 +6059,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P9" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P10" s="43" t="s">
         <v>2</v>
       </c>
@@ -4590,7 +6076,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P11" s="43" t="s">
         <v>3</v>
       </c>
@@ -4599,15 +6085,15 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P13" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="Q13" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P14" s="43" t="s">
         <v>2</v>
       </c>
@@ -4616,7 +6102,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P15" s="43" t="s">
         <v>3</v>
       </c>
@@ -4625,13 +6111,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P17" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="44"/>
     </row>
-    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P18" s="43" t="s">
         <v>2</v>
       </c>
@@ -4640,7 +6126,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P19" s="43" t="s">
         <v>3</v>
       </c>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A8E80F9-BD21-446F-B077-AD96A4BECA76}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5905CC0D-A039-4589-8FD9-2070CB178F57}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1100,6 +1100,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,1460 +1125,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <border>
         <left style="medium">
@@ -2936,9 +1488,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEBFC96"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF33CCFF"/>
-      <color rgb="FFEBFC96"/>
       <color rgb="FFD1F810"/>
     </mruColors>
   </colors>
@@ -3550,7 +2102,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74C2BB5-BA82-419A-891C-9C4B9F44329D}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74C2BB5-BA82-419A-891C-9C4B9F44329D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q34" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3697,80 +2249,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="146">
+    <format dxfId="28">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="143">
+    <format dxfId="25">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="24">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="21">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="19">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="18">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="17">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="16">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="15">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="14">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="13">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
+    <format dxfId="12">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="127">
+    <format dxfId="9">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="8">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="7">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="124">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3783,7 +2335,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3797,7 +2349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3809,7 +2361,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3823,7 +2375,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -3835,7 +2387,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="0">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4153,34 +2705,34 @@
   </sheetPr>
   <dimension ref="B1:U52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="1.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="1.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.140625" collapsed="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="1.28515625" customWidth="1"/>
-    <col min="15" max="15" width="32.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.81640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.1796875" collapsed="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="1.26953125" customWidth="1"/>
+    <col min="15" max="15" width="32.1796875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1796875" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -4189,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="1"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -4201,7 +2753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -4214,7 +2766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -4226,7 +2778,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O5" s="18" t="s">
         <v>132</v>
       </c>
@@ -4234,17 +2786,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="58"/>
-    </row>
-    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="58"/>
+      <c r="Q6" s="59"/>
+    </row>
+    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
@@ -4279,7 +2831,7 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
@@ -4319,7 +2871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
@@ -4359,7 +2911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
@@ -4399,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
@@ -4439,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -4473,7 +3025,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
@@ -4513,7 +3065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
@@ -4553,7 +3105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
@@ -4593,7 +3145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
@@ -4633,7 +3185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="13" t="s">
         <v>16</v>
       </c>
@@ -4673,7 +3225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
@@ -4707,7 +3259,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="31"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="24"/>
       <c r="C19" s="13" t="s">
         <v>16</v>
@@ -4748,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
         <v>16</v>
@@ -4783,7 +3335,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
         <v>16</v>
@@ -4824,7 +3376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="24"/>
       <c r="C22" s="13" t="s">
         <v>16</v>
@@ -4865,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="24"/>
       <c r="C23" s="13" t="s">
         <v>52</v>
@@ -4906,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="24"/>
       <c r="C24" s="13" t="s">
         <v>52</v>
@@ -4941,7 +3493,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="24"/>
       <c r="C25" s="13" t="s">
         <v>52</v>
@@ -4982,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="24"/>
       <c r="C26" s="13" t="s">
         <v>52</v>
@@ -5017,7 +3569,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="24"/>
       <c r="C27" s="13" t="s">
         <v>52</v>
@@ -5058,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="24"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
@@ -5092,7 +3644,7 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="31"/>
     </row>
-    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24"/>
       <c r="C29" s="13" t="s">
         <v>52</v>
@@ -5134,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="24"/>
       <c r="C30" s="13" t="s">
         <v>52</v>
@@ -5168,7 +3720,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="31"/>
     </row>
-    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="24"/>
       <c r="C31" s="13" t="s">
         <v>71</v>
@@ -5209,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="24"/>
       <c r="C32" s="13" t="s">
         <v>71</v>
@@ -5243,7 +3795,7 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="31"/>
     </row>
-    <row r="33" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
         <v>71</v>
@@ -5273,7 +3825,7 @@
       <c r="K33" s="1">
         <v>170</v>
       </c>
-      <c r="N33" s="62"/>
+      <c r="N33" s="54"/>
       <c r="O33" s="40" t="s">
         <v>131</v>
       </c>
@@ -5284,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="13" t="s">
         <v>78</v>
       </c>
@@ -5317,7 +3869,7 @@
       <c r="P34" s="28"/>
       <c r="Q34" s="32"/>
     </row>
-    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C35" s="13" t="s">
         <v>78</v>
       </c>
@@ -5357,7 +3909,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C36" s="13" t="s">
         <v>78</v>
       </c>
@@ -5386,18 +3938,18 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-      <c r="M36" s="59" t="s">
+      <c r="M36" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C37" s="13" t="s">
         <v>78</v>
       </c>
@@ -5426,16 +3978,16 @@
       <c r="K37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-    </row>
-    <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+    </row>
+    <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
         <v>110</v>
@@ -5474,7 +4026,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C39" s="13" t="s">
         <v>87</v>
       </c>
@@ -5503,15 +4055,15 @@
       <c r="K39" s="1">
         <v>25</v>
       </c>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="N39" s="61"/>
+      <c r="N39" s="62"/>
       <c r="O39" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="42"/>
       <c r="C40" s="13" t="s">
         <v>89</v>
@@ -5541,15 +4093,15 @@
       <c r="K40" s="1">
         <v>85</v>
       </c>
-      <c r="M40" s="54">
+      <c r="M40" s="55">
         <v>315</v>
       </c>
-      <c r="N40" s="55"/>
+      <c r="N40" s="56"/>
       <c r="O40" s="16">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="42"/>
       <c r="C41" s="13" t="s">
         <v>89</v>
@@ -5579,17 +4131,17 @@
       <c r="K41" s="1">
         <v>85</v>
       </c>
-      <c r="M41" s="54">
+      <c r="M41" s="55">
         <f>M40+50</f>
         <v>365</v>
       </c>
-      <c r="N41" s="55"/>
+      <c r="N41" s="56"/>
       <c r="O41" s="16">
         <f>O40+50</f>
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="42"/>
       <c r="C42" s="13" t="s">
         <v>89</v>
@@ -5619,17 +4171,17 @@
       <c r="K42" s="1">
         <v>70</v>
       </c>
-      <c r="M42" s="54">
+      <c r="M42" s="55">
         <f t="shared" ref="M42:M47" si="1">M41+50</f>
         <v>415</v>
       </c>
-      <c r="N42" s="55"/>
+      <c r="N42" s="56"/>
       <c r="O42" s="16">
         <f t="shared" ref="O42:O47" si="2">O41+50</f>
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
         <v>95</v>
@@ -5659,17 +4211,17 @@
       <c r="K43" s="1">
         <v>110</v>
       </c>
-      <c r="M43" s="54">
+      <c r="M43" s="55">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="N43" s="55"/>
+      <c r="N43" s="56"/>
       <c r="O43" s="16">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B44" s="42"/>
       <c r="C44" s="13" t="s">
         <v>95</v>
@@ -5699,17 +4251,17 @@
       <c r="K44" s="1">
         <v>110</v>
       </c>
-      <c r="M44" s="54">
+      <c r="M44" s="55">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
-      <c r="N44" s="55"/>
+      <c r="N44" s="56"/>
       <c r="O44" s="16">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B45" s="42"/>
       <c r="C45" s="13" t="s">
         <v>95</v>
@@ -5739,17 +4291,17 @@
       <c r="K45" s="1">
         <v>110</v>
       </c>
-      <c r="M45" s="54">
+      <c r="M45" s="55">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="N45" s="55"/>
+      <c r="N45" s="56"/>
       <c r="O45" s="16">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
         <v>95</v>
@@ -5779,11 +4331,11 @@
       <c r="K46" s="1">
         <v>150</v>
       </c>
-      <c r="M46" s="54">
+      <c r="M46" s="55">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="N46" s="55"/>
+      <c r="N46" s="56"/>
       <c r="O46" s="16">
         <f t="shared" si="2"/>
         <v>640</v>
@@ -5793,7 +4345,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B47" s="42"/>
       <c r="C47" s="13" t="s">
         <v>95</v>
@@ -5823,17 +4375,17 @@
       <c r="K47" s="1">
         <v>110</v>
       </c>
-      <c r="M47" s="54">
+      <c r="M47" s="55">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="N47" s="55"/>
+      <c r="N47" s="56"/>
       <c r="O47" s="16">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B48" s="42"/>
       <c r="C48" s="13" t="s">
         <v>95</v>
@@ -5864,7 +4416,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="42"/>
       <c r="C49" s="13" t="s">
         <v>95</v>
@@ -5895,7 +4447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="24"/>
       <c r="C50" s="13" t="s">
         <v>114</v>
@@ -5926,7 +4478,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" s="24"/>
       <c r="C51" s="13" t="s">
         <v>121</v>
@@ -5957,8 +4509,8 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="62"/>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B52" s="54"/>
       <c r="C52" s="13" t="s">
         <v>128</v>
       </c>
@@ -6011,26 +4563,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6487C1D2-A674-4414-8299-37AC10F5B8E0}">
+  <sheetPr>
+    <tabColor rgb="FFEBFC96"/>
+  </sheetPr>
   <dimension ref="P2:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="16:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="16:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P3" s="46" t="s">
         <v>127</v>
       </c>
       <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P4" s="48" t="str">
         <f>FRAMECALCULATOR!E1</f>
         <v>Desired Print Area</v>
@@ -6039,7 +4594,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P5" s="50" t="str">
         <f>FRAMECALCULATOR!E2</f>
         <v>X</v>
@@ -6049,7 +4604,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="16:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P6" s="52" t="str">
         <f>FRAMECALCULATOR!E3</f>
         <v>Y</v>
@@ -6059,7 +4614,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P9" s="44" t="s">
         <v>118</v>
       </c>
@@ -6067,7 +4622,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P10" s="43" t="s">
         <v>2</v>
       </c>
@@ -6076,7 +4631,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P11" s="43" t="s">
         <v>3</v>
       </c>
@@ -6085,7 +4640,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P13" s="44" t="s">
         <v>119</v>
       </c>
@@ -6093,7 +4648,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P14" s="43" t="s">
         <v>2</v>
       </c>
@@ -6102,7 +4657,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P15" s="43" t="s">
         <v>3</v>
       </c>
@@ -6111,13 +4666,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P17" s="44" t="s">
         <v>126</v>
       </c>
       <c r="Q17" s="44"/>
     </row>
-    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P18" s="43" t="s">
         <v>2</v>
       </c>
@@ -6126,7 +4681,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P19" s="43" t="s">
         <v>3</v>
       </c>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="114_{04D01490-EE98-4F05-8C12-A1B4D3BC434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5905CC0D-A039-4589-8FD9-2070CB178F57}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA53D410-7DD2-4547-9334-261E16E730C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -980,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1125,11 +1125,368 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="58">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="medium">
@@ -1566,7 +1923,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>72572</xdr:colOff>
+      <xdr:colOff>72571</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>135477</xdr:rowOff>
     </xdr:to>
@@ -1677,7 +2034,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44120.501693981481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{5F61B17E-7DC0-4CFB-85E8-FF96C6C9113B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44130.915966319444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{5F61B17E-7DC0-4CFB-85E8-FF96C6C9113B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C7:H52" sheet="FRAMECALCULATOR"/>
   </cacheSource>
@@ -1705,23 +2062,36 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="4000" count="16">
-        <n v="420"/>
-        <n v="410"/>
-        <n v="880"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="7600" count="29">
+        <n v="870"/>
+        <n v="860"/>
+        <n v="1330"/>
         <n v="140"/>
-        <n v="510"/>
-        <n v="260"/>
-        <n v="320"/>
-        <n v="431"/>
-        <n v="340"/>
-        <n v="400"/>
-        <n v="385"/>
-        <n v="450"/>
+        <n v="960"/>
+        <n v="710"/>
+        <n v="770"/>
+        <n v="881"/>
+        <n v="790"/>
+        <n v="850"/>
+        <n v="835"/>
+        <n v="900"/>
         <n v="150"/>
-        <n v="4000"/>
-        <n v="300"/>
-        <n v="315"/>
+        <n v="7600"/>
+        <n v="750"/>
+        <n v="385" u="1"/>
+        <n v="320" u="1"/>
+        <n v="420" u="1"/>
+        <n v="410" u="1"/>
+        <n v="510" u="1"/>
+        <n v="300" u="1"/>
+        <n v="400" u="1"/>
+        <n v="4000" u="1"/>
+        <n v="880" u="1"/>
+        <n v="315" u="1"/>
+        <n v="260" u="1"/>
+        <n v="431" u="1"/>
+        <n v="450" u="1"/>
+        <n v="340" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -2095,14 +2465,14 @@
     <s v="Track_XHD_2020Profile"/>
     <s v="X axis support for HD9 and HD12 only. Replaces Regular X Axis if HD version is selected."/>
     <x v="8"/>
-    <x v="15"/>
+    <x v="0"/>
     <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74C2BB5-BA82-419A-891C-9C4B9F44329D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74C2BB5-BA82-419A-891C-9C4B9F44329D}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q34" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2127,23 +2497,36 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="17">
+      <items count="30">
         <item x="12"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="28"/>
+        <item m="1" x="15"/>
+        <item m="1" x="21"/>
+        <item m="1" x="18"/>
+        <item m="1" x="17"/>
+        <item m="1" x="27"/>
+        <item x="3"/>
+        <item m="1" x="26"/>
+        <item m="1" x="23"/>
+        <item m="1" x="19"/>
+        <item m="1" x="22"/>
+        <item m="1" x="20"/>
+        <item m="1" x="24"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item x="10"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="0"/>
         <item x="11"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
         <item x="13"/>
         <item x="14"/>
-        <item x="15"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2156,39 +2539,39 @@
   <rowItems count="26">
     <i>
       <x/>
-      <x v="1"/>
+      <x v="20"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="21"/>
     </i>
     <i r="1">
-      <x v="10"/>
+      <x v="22"/>
     </i>
     <i t="blank">
       <x/>
     </i>
     <i>
       <x v="1"/>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
       <x v="9"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="16"/>
     </i>
     <i r="1">
-      <x v="12"/>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
     </i>
     <i t="blank">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-      <x v="5"/>
+      <x v="24"/>
     </i>
     <i t="blank">
       <x v="2"/>
@@ -2198,45 +2581,45 @@
       <x/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="25"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="26"/>
     </i>
     <i t="blank">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="8"/>
+      <x v="26"/>
     </i>
     <i t="blank">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x v="13"/>
+      <x v="27"/>
     </i>
     <i t="blank">
       <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-      <x v="3"/>
+      <x v="23"/>
     </i>
     <i t="blank">
       <x v="6"/>
     </i>
     <i>
       <x v="7"/>
-      <x v="14"/>
+      <x v="28"/>
     </i>
     <i t="blank">
       <x v="7"/>
     </i>
     <i>
       <x v="8"/>
-      <x v="15"/>
+      <x v="16"/>
     </i>
     <i t="blank">
       <x v="8"/>
@@ -2249,80 +2632,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="28">
+    <format dxfId="57">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="54">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="53">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="52">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="50">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="48">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="47">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="46">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="45">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="44">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="43">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="42">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="41">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="40">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="38">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="37">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="36">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2335,7 +2718,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2349,7 +2732,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2361,7 +2744,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2375,7 +2758,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2387,7 +2770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="29">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2705,8 +3088,8 @@
   </sheetPr>
   <dimension ref="B1:U52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -2726,8 +3109,8 @@
     <col min="13" max="13" width="11.81640625" customWidth="1"/>
     <col min="14" max="14" width="1.26953125" customWidth="1"/>
     <col min="15" max="15" width="32.1796875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.1796875" customWidth="1"/>
     <col min="19" max="19" width="12.26953125" customWidth="1"/>
   </cols>
@@ -2747,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>315</v>
+        <v>765</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>108</v>
@@ -2760,7 +3143,7 @@
       </c>
       <c r="F3" s="6">
         <f>F2</f>
-        <v>315</v>
+        <v>765</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -2772,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>104</v>
@@ -2846,7 +3229,7 @@
       </c>
       <c r="G8" s="14">
         <f t="shared" ref="G8:G52" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
-        <v>420</v>
+        <v>870</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
@@ -2886,7 +3269,7 @@
       </c>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>870</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
@@ -2904,14 +3287,14 @@
       <c r="O9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="37">
-        <v>260</v>
+      <c r="P9" s="15">
+        <v>710</v>
       </c>
       <c r="Q9" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2926,7 +3309,7 @@
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>860</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
@@ -2944,8 +3327,8 @@
       <c r="O10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="38">
-        <v>320</v>
+      <c r="P10" s="15">
+        <v>770</v>
       </c>
       <c r="Q10" s="31">
         <v>2</v>
@@ -2966,7 +3349,7 @@
       </c>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>860</v>
       </c>
       <c r="H11" s="14">
         <v>1</v>
@@ -2985,7 +3368,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="15">
-        <v>431</v>
+        <v>881</v>
       </c>
       <c r="Q11" s="31">
         <v>1</v>
@@ -3006,7 +3389,7 @@
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>870</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
@@ -3025,7 +3408,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
@@ -3040,7 +3423,7 @@
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>870</v>
       </c>
       <c r="H13" s="14">
         <v>1</v>
@@ -3058,11 +3441,11 @@
       <c r="O13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="37">
-        <v>410</v>
+      <c r="P13" s="40">
+        <v>140</v>
       </c>
       <c r="Q13" s="31">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.35">
@@ -3080,7 +3463,7 @@
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>860</v>
       </c>
       <c r="H14" s="14">
         <v>1</v>
@@ -3098,14 +3481,14 @@
       <c r="O14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="39">
-        <v>420</v>
+      <c r="P14" s="15">
+        <v>870</v>
       </c>
       <c r="Q14" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
@@ -3120,7 +3503,7 @@
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>860</v>
       </c>
       <c r="H15" s="14">
         <v>1</v>
@@ -3138,11 +3521,11 @@
       <c r="O15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="38">
-        <v>140</v>
+      <c r="P15" s="15">
+        <v>860</v>
       </c>
       <c r="Q15" s="31">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.35">
@@ -3160,7 +3543,7 @@
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>870</v>
       </c>
       <c r="H16" s="14">
         <v>1</v>
@@ -3179,7 +3562,7 @@
         <v>19</v>
       </c>
       <c r="P16" s="15">
-        <v>880</v>
+        <v>1330</v>
       </c>
       <c r="Q16" s="31">
         <v>6</v>
@@ -3200,7 +3583,7 @@
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>860</v>
       </c>
       <c r="H17" s="14">
         <v>1</v>
@@ -3219,7 +3602,7 @@
         <v>19</v>
       </c>
       <c r="P17" s="15">
-        <v>510</v>
+        <v>960</v>
       </c>
       <c r="Q17" s="31">
         <v>3</v>
@@ -3240,7 +3623,7 @@
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>860</v>
       </c>
       <c r="H18" s="14">
         <v>1</v>
@@ -3275,7 +3658,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1330</v>
       </c>
       <c r="H19" s="14">
         <v>1</v>
@@ -3293,8 +3676,8 @@
       <c r="O19" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="40">
-        <v>400</v>
+      <c r="P19" s="15">
+        <v>850</v>
       </c>
       <c r="Q19" s="31">
         <v>2</v>
@@ -3316,7 +3699,7 @@
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1330</v>
       </c>
       <c r="H20" s="14">
         <v>1</v>
@@ -3335,7 +3718,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
         <v>16</v>
@@ -3351,7 +3734,7 @@
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1330</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
@@ -3369,7 +3752,7 @@
       <c r="O21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="40">
         <v>150</v>
       </c>
       <c r="Q21" s="31">
@@ -3392,7 +3775,7 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1330</v>
       </c>
       <c r="H22" s="14">
         <v>1</v>
@@ -3410,8 +3793,8 @@
       <c r="O22" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P22" s="39">
-        <v>385</v>
+      <c r="P22" s="15">
+        <v>835</v>
       </c>
       <c r="Q22" s="31">
         <v>1</v>
@@ -3433,7 +3816,7 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>860</v>
       </c>
       <c r="H23" s="14">
         <v>1</v>
@@ -3451,8 +3834,8 @@
       <c r="O23" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P23" s="38">
-        <v>450</v>
+      <c r="P23" s="15">
+        <v>900</v>
       </c>
       <c r="Q23" s="31">
         <v>3</v>
@@ -3527,8 +3910,8 @@
       <c r="O25" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="40">
-        <v>450</v>
+      <c r="P25" s="15">
+        <v>900</v>
       </c>
       <c r="Q25" s="31">
         <v>3</v>
@@ -3604,7 +3987,7 @@
         <v>117</v>
       </c>
       <c r="P27" s="15">
-        <v>4000</v>
+        <v>7600</v>
       </c>
       <c r="Q27" s="31">
         <v>1</v>
@@ -3626,7 +4009,7 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>860</v>
       </c>
       <c r="H28" s="14">
         <v>1</v>
@@ -3660,7 +4043,7 @@
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1330</v>
       </c>
       <c r="H29" s="14">
         <v>1</v>
@@ -3680,7 +4063,7 @@
         <v>125</v>
       </c>
       <c r="P29" s="15">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="Q29" s="31">
         <v>1</v>
@@ -3702,7 +4085,7 @@
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1330</v>
       </c>
       <c r="H30" s="14">
         <v>1</v>
@@ -3736,7 +4119,7 @@
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>960</v>
       </c>
       <c r="H31" s="14">
         <v>1</v>
@@ -3755,7 +4138,7 @@
         <v>124</v>
       </c>
       <c r="P31" s="15">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="Q31" s="31">
         <v>1</v>
@@ -3777,7 +4160,7 @@
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>960</v>
       </c>
       <c r="H32" s="14">
         <v>1</v>
@@ -3811,7 +4194,7 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>960</v>
       </c>
       <c r="H33" s="14">
         <v>1</v>
@@ -3830,7 +4213,7 @@
         <v>131</v>
       </c>
       <c r="P33" s="15">
-        <v>315</v>
+        <v>870</v>
       </c>
       <c r="Q33" s="31">
         <v>1</v>
@@ -3851,7 +4234,7 @@
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>710</v>
       </c>
       <c r="H34" s="14">
         <v>1</v>
@@ -3884,7 +4267,7 @@
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>710</v>
       </c>
       <c r="H35" s="14">
         <v>1</v>
@@ -3924,7 +4307,7 @@
       </c>
       <c r="G36" s="14">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>770</v>
       </c>
       <c r="H36" s="14">
         <v>1</v>
@@ -3964,7 +4347,7 @@
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>770</v>
       </c>
       <c r="H37" s="14">
         <v>1</v>
@@ -4003,7 +4386,7 @@
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>881</v>
       </c>
       <c r="H38" s="14">
         <v>1</v>
@@ -4041,7 +4424,7 @@
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="H39" s="14">
         <v>1</v>
@@ -4079,7 +4462,7 @@
       </c>
       <c r="G40" s="14">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="H40" s="14">
         <v>1</v>
@@ -4117,7 +4500,7 @@
       </c>
       <c r="G41" s="14">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="H41" s="14">
         <v>1</v>
@@ -4157,7 +4540,7 @@
       </c>
       <c r="G42" s="14">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>835</v>
       </c>
       <c r="H42" s="14">
         <v>1</v>
@@ -4197,7 +4580,7 @@
       </c>
       <c r="G43" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H43" s="14">
         <v>1</v>
@@ -4237,7 +4620,7 @@
       </c>
       <c r="G44" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H44" s="14">
         <v>1</v>
@@ -4277,7 +4660,7 @@
       </c>
       <c r="G45" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H45" s="14">
         <v>1</v>
@@ -4361,7 +4744,7 @@
       </c>
       <c r="G47" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H47" s="14">
         <v>1</v>
@@ -4401,7 +4784,7 @@
       </c>
       <c r="G48" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H48" s="14">
         <v>1</v>
@@ -4432,7 +4815,7 @@
       </c>
       <c r="G49" s="14">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H49" s="14">
         <v>1</v>
@@ -4463,7 +4846,7 @@
       </c>
       <c r="G50" s="14">
         <f>IFERROR(VLOOKUP(I50,$E$2:$F$4,2,0)*8,0)+K50</f>
-        <v>4000</v>
+        <v>7600</v>
       </c>
       <c r="H50" s="14">
         <v>1</v>
@@ -4494,7 +4877,7 @@
       </c>
       <c r="G51" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="H51" s="14">
         <v>1</v>
@@ -4525,7 +4908,7 @@
       </c>
       <c r="G52" s="14">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>870</v>
       </c>
       <c r="H52" s="14">
         <v>1</v>
@@ -4536,8 +4919,8 @@
       <c r="J52" s="1">
         <v>315</v>
       </c>
-      <c r="K52" s="1">
-        <v>0</v>
+      <c r="K52" s="63">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4568,7 +4951,7 @@
   </sheetPr>
   <dimension ref="P2:Q19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
@@ -4601,7 +4984,7 @@
       </c>
       <c r="Q5" s="51">
         <f>FRAMECALCULATOR!F2</f>
-        <v>315</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -4611,7 +4994,7 @@
       </c>
       <c r="Q6" s="53">
         <f>FRAMECALCULATOR!F3</f>
-        <v>315</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -4628,7 +5011,7 @@
       </c>
       <c r="Q10" s="45">
         <f>Q5+25</f>
-        <v>340</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -4637,7 +5020,7 @@
       </c>
       <c r="Q11" s="45">
         <f>Q6+25</f>
-        <v>340</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -4654,7 +5037,7 @@
       </c>
       <c r="Q14" s="45">
         <f>Q5+12</f>
-        <v>327</v>
+        <v>777</v>
       </c>
     </row>
     <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -4663,7 +5046,7 @@
       </c>
       <c r="Q15" s="45">
         <f>Q6+-13</f>
-        <v>302</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -4678,7 +5061,7 @@
       </c>
       <c r="Q18" s="45">
         <f>Q5-15</f>
-        <v>300</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -4687,7 +5070,7 @@
       </c>
       <c r="Q19" s="45">
         <f>Q6-15</f>
-        <v>300</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA53D410-7DD2-4547-9334-261E16E730C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73200090-227F-462F-BAFC-2AC29A376AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1101,6 +1101,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1125,368 +1128,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <border>
         <left style="medium">
@@ -2472,7 +2118,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74C2BB5-BA82-419A-891C-9C4B9F44329D}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74C2BB5-BA82-419A-891C-9C4B9F44329D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q34" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2632,80 +2278,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="57">
+    <format dxfId="28">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="25">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="24">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="21">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="19">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="18">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="17">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="16">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="15">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="14">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="13">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="12">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="9">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="8">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="7">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2718,7 +2364,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2732,7 +2378,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2744,7 +2390,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2758,7 +2404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2770,7 +2416,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="0">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3089,7 +2735,7 @@
   <dimension ref="B1:U52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -3130,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>765</v>
+        <v>315</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>108</v>
@@ -3143,7 +2789,7 @@
       </c>
       <c r="F3" s="6">
         <f>F2</f>
-        <v>765</v>
+        <v>315</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -3155,7 +2801,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5">
-        <v>790</v>
+        <v>340</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>104</v>
@@ -3173,11 +2819,11 @@
       <c r="C6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="O6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
     </row>
     <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="8" t="s">
@@ -3229,7 +2875,7 @@
       </c>
       <c r="G8" s="14">
         <f t="shared" ref="G8:G52" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
-        <v>870</v>
+        <v>420</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
@@ -3269,7 +2915,7 @@
       </c>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
-        <v>870</v>
+        <v>420</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
@@ -3309,7 +2955,7 @@
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>860</v>
+        <v>410</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
@@ -3349,7 +2995,7 @@
       </c>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>860</v>
+        <v>410</v>
       </c>
       <c r="H11" s="14">
         <v>1</v>
@@ -3389,7 +3035,7 @@
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>870</v>
+        <v>420</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
@@ -3423,7 +3069,7 @@
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>870</v>
+        <v>420</v>
       </c>
       <c r="H13" s="14">
         <v>1</v>
@@ -3463,7 +3109,7 @@
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>860</v>
+        <v>410</v>
       </c>
       <c r="H14" s="14">
         <v>1</v>
@@ -3503,7 +3149,7 @@
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>860</v>
+        <v>410</v>
       </c>
       <c r="H15" s="14">
         <v>1</v>
@@ -3543,7 +3189,7 @@
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>870</v>
+        <v>420</v>
       </c>
       <c r="H16" s="14">
         <v>1</v>
@@ -3583,7 +3229,7 @@
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>860</v>
+        <v>410</v>
       </c>
       <c r="H17" s="14">
         <v>1</v>
@@ -3623,7 +3269,7 @@
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>860</v>
+        <v>410</v>
       </c>
       <c r="H18" s="14">
         <v>1</v>
@@ -3658,7 +3304,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>1330</v>
+        <v>880</v>
       </c>
       <c r="H19" s="14">
         <v>1</v>
@@ -3699,7 +3345,7 @@
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>1330</v>
+        <v>880</v>
       </c>
       <c r="H20" s="14">
         <v>1</v>
@@ -3734,7 +3380,7 @@
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>1330</v>
+        <v>880</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
@@ -3775,7 +3421,7 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>1330</v>
+        <v>880</v>
       </c>
       <c r="H22" s="14">
         <v>1</v>
@@ -3816,7 +3462,7 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>860</v>
+        <v>410</v>
       </c>
       <c r="H23" s="14">
         <v>1</v>
@@ -4009,7 +3655,7 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>860</v>
+        <v>410</v>
       </c>
       <c r="H28" s="14">
         <v>1</v>
@@ -4043,7 +3689,7 @@
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
-        <v>1330</v>
+        <v>880</v>
       </c>
       <c r="H29" s="14">
         <v>1</v>
@@ -4085,7 +3731,7 @@
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>1330</v>
+        <v>880</v>
       </c>
       <c r="H30" s="14">
         <v>1</v>
@@ -4119,7 +3765,7 @@
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>510</v>
       </c>
       <c r="H31" s="14">
         <v>1</v>
@@ -4160,7 +3806,7 @@
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>510</v>
       </c>
       <c r="H32" s="14">
         <v>1</v>
@@ -4194,7 +3840,7 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>510</v>
       </c>
       <c r="H33" s="14">
         <v>1</v>
@@ -4234,7 +3880,7 @@
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>260</v>
       </c>
       <c r="H34" s="14">
         <v>1</v>
@@ -4267,7 +3913,7 @@
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>260</v>
       </c>
       <c r="H35" s="14">
         <v>1</v>
@@ -4307,7 +3953,7 @@
       </c>
       <c r="G36" s="14">
         <f t="shared" si="0"/>
-        <v>770</v>
+        <v>320</v>
       </c>
       <c r="H36" s="14">
         <v>1</v>
@@ -4321,16 +3967,16 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-      <c r="M36" s="60" t="s">
+      <c r="M36" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C37" s="13" t="s">
@@ -4347,7 +3993,7 @@
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>770</v>
+        <v>320</v>
       </c>
       <c r="H37" s="14">
         <v>1</v>
@@ -4361,14 +4007,14 @@
       <c r="K37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
     </row>
     <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" s="24"/>
@@ -4386,7 +4032,7 @@
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>881</v>
+        <v>431</v>
       </c>
       <c r="H38" s="14">
         <v>1</v>
@@ -4424,7 +4070,7 @@
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>790</v>
+        <v>340</v>
       </c>
       <c r="H39" s="14">
         <v>1</v>
@@ -4438,10 +4084,10 @@
       <c r="K39" s="1">
         <v>25</v>
       </c>
-      <c r="M39" s="61" t="s">
+      <c r="M39" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="N39" s="62"/>
+      <c r="N39" s="63"/>
       <c r="O39" s="19" t="s">
         <v>5</v>
       </c>
@@ -4462,7 +4108,7 @@
       </c>
       <c r="G40" s="14">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="H40" s="14">
         <v>1</v>
@@ -4476,10 +4122,10 @@
       <c r="K40" s="1">
         <v>85</v>
       </c>
-      <c r="M40" s="55">
+      <c r="M40" s="56">
         <v>315</v>
       </c>
-      <c r="N40" s="56"/>
+      <c r="N40" s="57"/>
       <c r="O40" s="16">
         <v>340</v>
       </c>
@@ -4500,7 +4146,7 @@
       </c>
       <c r="G41" s="14">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="H41" s="14">
         <v>1</v>
@@ -4514,11 +4160,11 @@
       <c r="K41" s="1">
         <v>85</v>
       </c>
-      <c r="M41" s="55">
+      <c r="M41" s="56">
         <f>M40+50</f>
         <v>365</v>
       </c>
-      <c r="N41" s="56"/>
+      <c r="N41" s="57"/>
       <c r="O41" s="16">
         <f>O40+50</f>
         <v>390</v>
@@ -4540,7 +4186,7 @@
       </c>
       <c r="G42" s="14">
         <f t="shared" si="0"/>
-        <v>835</v>
+        <v>385</v>
       </c>
       <c r="H42" s="14">
         <v>1</v>
@@ -4554,11 +4200,11 @@
       <c r="K42" s="1">
         <v>70</v>
       </c>
-      <c r="M42" s="55">
+      <c r="M42" s="56">
         <f t="shared" ref="M42:M47" si="1">M41+50</f>
         <v>415</v>
       </c>
-      <c r="N42" s="56"/>
+      <c r="N42" s="57"/>
       <c r="O42" s="16">
         <f t="shared" ref="O42:O47" si="2">O41+50</f>
         <v>440</v>
@@ -4580,7 +4226,7 @@
       </c>
       <c r="G43" s="14">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="H43" s="14">
         <v>1</v>
@@ -4594,11 +4240,11 @@
       <c r="K43" s="1">
         <v>110</v>
       </c>
-      <c r="M43" s="55">
+      <c r="M43" s="56">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="N43" s="56"/>
+      <c r="N43" s="57"/>
       <c r="O43" s="16">
         <f t="shared" si="2"/>
         <v>490</v>
@@ -4620,7 +4266,7 @@
       </c>
       <c r="G44" s="14">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="H44" s="14">
         <v>1</v>
@@ -4634,11 +4280,11 @@
       <c r="K44" s="1">
         <v>110</v>
       </c>
-      <c r="M44" s="55">
+      <c r="M44" s="56">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
-      <c r="N44" s="56"/>
+      <c r="N44" s="57"/>
       <c r="O44" s="16">
         <f t="shared" si="2"/>
         <v>540</v>
@@ -4660,7 +4306,7 @@
       </c>
       <c r="G45" s="14">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="H45" s="14">
         <v>1</v>
@@ -4674,11 +4320,11 @@
       <c r="K45" s="1">
         <v>110</v>
       </c>
-      <c r="M45" s="55">
+      <c r="M45" s="56">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="N45" s="56"/>
+      <c r="N45" s="57"/>
       <c r="O45" s="16">
         <f t="shared" si="2"/>
         <v>590</v>
@@ -4714,11 +4360,11 @@
       <c r="K46" s="1">
         <v>150</v>
       </c>
-      <c r="M46" s="55">
+      <c r="M46" s="56">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="N46" s="56"/>
+      <c r="N46" s="57"/>
       <c r="O46" s="16">
         <f t="shared" si="2"/>
         <v>640</v>
@@ -4744,7 +4390,7 @@
       </c>
       <c r="G47" s="14">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="H47" s="14">
         <v>1</v>
@@ -4758,11 +4404,11 @@
       <c r="K47" s="1">
         <v>110</v>
       </c>
-      <c r="M47" s="55">
+      <c r="M47" s="56">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="N47" s="56"/>
+      <c r="N47" s="57"/>
       <c r="O47" s="16">
         <f t="shared" si="2"/>
         <v>690</v>
@@ -4784,7 +4430,7 @@
       </c>
       <c r="G48" s="14">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="H48" s="14">
         <v>1</v>
@@ -4815,7 +4461,7 @@
       </c>
       <c r="G49" s="14">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="H49" s="14">
         <v>1</v>
@@ -4846,7 +4492,7 @@
       </c>
       <c r="G50" s="14">
         <f>IFERROR(VLOOKUP(I50,$E$2:$F$4,2,0)*8,0)+K50</f>
-        <v>7600</v>
+        <v>4000</v>
       </c>
       <c r="H50" s="14">
         <v>1</v>
@@ -4877,7 +4523,7 @@
       </c>
       <c r="G51" s="14">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="H51" s="14">
         <v>1</v>
@@ -4908,7 +4554,7 @@
       </c>
       <c r="G52" s="14">
         <f t="shared" si="0"/>
-        <v>870</v>
+        <v>420</v>
       </c>
       <c r="H52" s="14">
         <v>1</v>
@@ -4919,7 +4565,7 @@
       <c r="J52" s="1">
         <v>315</v>
       </c>
-      <c r="K52" s="63">
+      <c r="K52" s="55">
         <v>105</v>
       </c>
     </row>
@@ -4984,7 +4630,7 @@
       </c>
       <c r="Q5" s="51">
         <f>FRAMECALCULATOR!F2</f>
-        <v>765</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -4994,7 +4640,7 @@
       </c>
       <c r="Q6" s="53">
         <f>FRAMECALCULATOR!F3</f>
-        <v>765</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -5011,7 +4657,7 @@
       </c>
       <c r="Q10" s="45">
         <f>Q5+25</f>
-        <v>790</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -5020,7 +4666,7 @@
       </c>
       <c r="Q11" s="45">
         <f>Q6+25</f>
-        <v>790</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -5037,7 +4683,7 @@
       </c>
       <c r="Q14" s="45">
         <f>Q5+12</f>
-        <v>777</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -5046,7 +4692,7 @@
       </c>
       <c r="Q15" s="45">
         <f>Q6+-13</f>
-        <v>752</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -5061,7 +4707,7 @@
       </c>
       <c r="Q18" s="45">
         <f>Q5-15</f>
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -5070,7 +4716,7 @@
       </c>
       <c r="Q19" s="45">
         <f>Q6-15</f>
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73200090-227F-462F-BAFC-2AC29A376AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109ED2BE-4D14-4B94-89FC-C391C21CCDF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1132,7 +1132,361 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="58">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="medium">
@@ -1680,7 +2034,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44130.915966319444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{5F61B17E-7DC0-4CFB-85E8-FF96C6C9113B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44159.378363310185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{5F61B17E-7DC0-4CFB-85E8-FF96C6C9113B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C7:H52" sheet="FRAMECALCULATOR"/>
   </cacheSource>
@@ -1709,35 +2063,35 @@
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="7600" count="29">
-        <n v="870"/>
-        <n v="860"/>
-        <n v="1330"/>
+        <n v="420"/>
+        <n v="410"/>
+        <n v="880"/>
         <n v="140"/>
-        <n v="960"/>
-        <n v="710"/>
-        <n v="770"/>
-        <n v="881"/>
-        <n v="790"/>
-        <n v="850"/>
-        <n v="835"/>
-        <n v="900"/>
+        <n v="510"/>
+        <n v="260"/>
+        <n v="320"/>
+        <n v="431"/>
+        <n v="340"/>
+        <n v="400"/>
+        <n v="385"/>
+        <n v="450"/>
         <n v="150"/>
-        <n v="7600"/>
-        <n v="750"/>
-        <n v="385" u="1"/>
-        <n v="320" u="1"/>
-        <n v="420" u="1"/>
-        <n v="410" u="1"/>
-        <n v="510" u="1"/>
-        <n v="300" u="1"/>
-        <n v="400" u="1"/>
-        <n v="4000" u="1"/>
-        <n v="880" u="1"/>
+        <n v="4000"/>
+        <n v="300"/>
+        <n v="710" u="1"/>
+        <n v="870" u="1"/>
+        <n v="960" u="1"/>
+        <n v="850" u="1"/>
+        <n v="881" u="1"/>
+        <n v="900" u="1"/>
+        <n v="790" u="1"/>
+        <n v="835" u="1"/>
+        <n v="1330" u="1"/>
+        <n v="770" u="1"/>
         <n v="315" u="1"/>
-        <n v="260" u="1"/>
-        <n v="431" u="1"/>
-        <n v="450" u="1"/>
-        <n v="340" u="1"/>
+        <n v="860" u="1"/>
+        <n v="750" u="1"/>
+        <n v="7600" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -2118,7 +2472,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74C2BB5-BA82-419A-891C-9C4B9F44329D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74C2BB5-BA82-419A-891C-9C4B9F44329D}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="O7:Q34" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2145,34 +2499,34 @@
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="30">
         <item x="12"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="14"/>
         <item m="1" x="25"/>
         <item m="1" x="16"/>
-        <item m="1" x="28"/>
+        <item m="1" x="26"/>
+        <item m="1" x="23"/>
+        <item m="1" x="17"/>
         <item m="1" x="15"/>
+        <item m="1" x="24"/>
+        <item m="1" x="19"/>
         <item m="1" x="21"/>
         <item m="1" x="18"/>
-        <item m="1" x="17"/>
-        <item m="1" x="27"/>
-        <item x="3"/>
-        <item m="1" x="26"/>
-        <item m="1" x="23"/>
-        <item m="1" x="19"/>
         <item m="1" x="22"/>
         <item m="1" x="20"/>
-        <item m="1" x="24"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="14"/>
+        <item m="1" x="28"/>
+        <item m="1" x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2185,39 +2539,39 @@
   <rowItems count="26">
     <i>
       <x/>
-      <x v="20"/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x v="21"/>
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="22"/>
+      <x v="10"/>
     </i>
     <i t="blank">
       <x/>
     </i>
     <i>
       <x v="1"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
       <x v="9"/>
     </i>
     <i r="1">
-      <x v="16"/>
+      <x v="11"/>
     </i>
     <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
+      <x v="12"/>
     </i>
     <i t="blank">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-      <x v="24"/>
+      <x v="5"/>
     </i>
     <i t="blank">
       <x v="2"/>
@@ -2227,45 +2581,45 @@
       <x/>
     </i>
     <i r="1">
-      <x v="25"/>
+      <x v="4"/>
     </i>
     <i r="1">
-      <x v="26"/>
+      <x v="8"/>
     </i>
     <i t="blank">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="26"/>
+      <x v="8"/>
     </i>
     <i t="blank">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x v="27"/>
+      <x v="13"/>
     </i>
     <i t="blank">
       <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-      <x v="23"/>
+      <x v="3"/>
     </i>
     <i t="blank">
       <x v="6"/>
     </i>
     <i>
       <x v="7"/>
-      <x v="28"/>
+      <x v="14"/>
     </i>
     <i t="blank">
       <x v="7"/>
     </i>
     <i>
       <x v="8"/>
-      <x v="16"/>
+      <x v="7"/>
     </i>
     <i t="blank">
       <x v="8"/>
@@ -2278,80 +2632,80 @@
     <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="28">
+    <format dxfId="57">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="54">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="53">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="52">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="50">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="48">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="47">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="46">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="45">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="44">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="43">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="42">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="41">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="40">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="38">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="37">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="36">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2364,7 +2718,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2378,7 +2732,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2390,7 +2744,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2404,7 +2758,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2416,7 +2770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="29">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2735,7 +3089,7 @@
   <dimension ref="B1:U52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -2933,14 +3287,14 @@
       <c r="O9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="15">
-        <v>710</v>
+      <c r="P9" s="37">
+        <v>260</v>
       </c>
       <c r="Q9" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2973,8 +3327,8 @@
       <c r="O10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="15">
-        <v>770</v>
+      <c r="P10" s="38">
+        <v>320</v>
       </c>
       <c r="Q10" s="31">
         <v>2</v>
@@ -3014,7 +3368,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="15">
-        <v>881</v>
+        <v>431</v>
       </c>
       <c r="Q11" s="31">
         <v>1</v>
@@ -3054,7 +3408,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="31"/>
     </row>
-    <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
@@ -3087,11 +3441,11 @@
       <c r="O13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="40">
-        <v>140</v>
+      <c r="P13" s="37">
+        <v>410</v>
       </c>
       <c r="Q13" s="31">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.35">
@@ -3127,14 +3481,14 @@
       <c r="O14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="15">
-        <v>870</v>
+      <c r="P14" s="39">
+        <v>420</v>
       </c>
       <c r="Q14" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
@@ -3167,11 +3521,11 @@
       <c r="O15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="15">
-        <v>860</v>
+      <c r="P15" s="38">
+        <v>140</v>
       </c>
       <c r="Q15" s="31">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.35">
@@ -3208,7 +3562,7 @@
         <v>19</v>
       </c>
       <c r="P16" s="15">
-        <v>1330</v>
+        <v>880</v>
       </c>
       <c r="Q16" s="31">
         <v>6</v>
@@ -3248,7 +3602,7 @@
         <v>19</v>
       </c>
       <c r="P17" s="15">
-        <v>960</v>
+        <v>510</v>
       </c>
       <c r="Q17" s="31">
         <v>3</v>
@@ -3322,8 +3676,8 @@
       <c r="O19" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="15">
-        <v>850</v>
+      <c r="P19" s="40">
+        <v>400</v>
       </c>
       <c r="Q19" s="31">
         <v>2</v>
@@ -3364,7 +3718,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="31"/>
     </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
         <v>16</v>
@@ -3398,7 +3752,7 @@
       <c r="O21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="37">
         <v>150</v>
       </c>
       <c r="Q21" s="31">
@@ -3439,8 +3793,8 @@
       <c r="O22" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P22" s="15">
-        <v>835</v>
+      <c r="P22" s="39">
+        <v>385</v>
       </c>
       <c r="Q22" s="31">
         <v>1</v>
@@ -3480,8 +3834,8 @@
       <c r="O23" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P23" s="15">
-        <v>900</v>
+      <c r="P23" s="38">
+        <v>450</v>
       </c>
       <c r="Q23" s="31">
         <v>3</v>
@@ -3556,8 +3910,8 @@
       <c r="O25" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="15">
-        <v>900</v>
+      <c r="P25" s="40">
+        <v>450</v>
       </c>
       <c r="Q25" s="31">
         <v>3</v>
@@ -3633,7 +3987,7 @@
         <v>117</v>
       </c>
       <c r="P27" s="15">
-        <v>7600</v>
+        <v>4000</v>
       </c>
       <c r="Q27" s="31">
         <v>1</v>
@@ -3709,7 +4063,7 @@
         <v>125</v>
       </c>
       <c r="P29" s="15">
-        <v>790</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="31">
         <v>1</v>
@@ -3784,7 +4138,7 @@
         <v>124</v>
       </c>
       <c r="P31" s="15">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q31" s="31">
         <v>1</v>
@@ -3859,7 +4213,7 @@
         <v>131</v>
       </c>
       <c r="P33" s="15">
-        <v>870</v>
+        <v>420</v>
       </c>
       <c r="Q33" s="31">
         <v>1</v>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109ED2BE-4D14-4B94-89FC-C391C21CCDF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7DE35F-EC6A-4F47-9BE8-7D762D1077F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="BED Holes Location" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FRAMECALCULATOR!$C$7:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FRAMECALCULATOR!$E$7:$J$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="47" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="140">
   <si>
     <t>Desired Print Area</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Bed Plate (Square)</t>
   </si>
   <si>
-    <t>XYRails</t>
-  </si>
-  <si>
     <t>Y_MGN12C_Left</t>
   </si>
   <si>
@@ -360,18 +357,12 @@
     <t>315x315x340 Version</t>
   </si>
   <si>
-    <t>In order to obtain standard MGN rails and ball screw lengths, use here below proposed values</t>
-  </si>
-  <si>
     <t>XY</t>
   </si>
   <si>
     <t>1. Adjust the Desired X dimension (Y will be adjusted automatically)*</t>
   </si>
   <si>
-    <t>(*) NOTE</t>
-  </si>
-  <si>
     <t>X Axis Support</t>
   </si>
   <si>
@@ -438,7 +429,37 @@
     <t>2020 Extrusion (HD Only)</t>
   </si>
   <si>
-    <t>3. Right-Click in the table below and do "Refresh"</t>
+    <t>STD/HT XYRails</t>
+  </si>
+  <si>
+    <t>HD_XYRails</t>
+  </si>
+  <si>
+    <t>Y_MGN12H</t>
+  </si>
+  <si>
+    <t>MGN12 Rail with MGN12H (Normal Block)</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>XY Gantry Type</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>STD_HT</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>3. Select Gantry Type</t>
+  </si>
+  <si>
+    <t>4. Right-Click in the table below and do "Refresh"</t>
   </si>
 </sst>
 </file>
@@ -556,7 +577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,8 +644,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -976,11 +1003,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1030,15 +1068,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1070,7 +1100,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1119,20 +1148,29 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="325">
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -1488,199 +1526,142 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <fill>
@@ -1711,22 +1692,209 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
       <border>
@@ -1839,14 +2007,3118 @@
       </border>
     </dxf>
     <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFEBFC96"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFD1F810"/>
     </mruColors>
@@ -1866,16 +5138,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>455083</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61383</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1916,16 +5188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>612322</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>72571</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>135477</xdr:rowOff>
+      <xdr:rowOff>141827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2034,11 +5306,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44159.378363310185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{5F61B17E-7DC0-4CFB-85E8-FF96C6C9113B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44194.993237962961" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48" xr:uid="{15CD9897-A431-4957-B65B-551810028E4F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C7:H52" sheet="FRAMECALCULATOR"/>
+    <worksheetSource ref="D7:J55" sheet="FRAMECALCULATOR"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="7">
+    <cacheField name="Select" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
+        <s v="x"/>
+        <n v="0"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Structure Section" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -2062,7 +5340,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="7600" count="29">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="4800" count="23">
         <n v="420"/>
         <n v="410"/>
         <n v="880"/>
@@ -2078,20 +5356,14 @@
         <n v="150"/>
         <n v="4000"/>
         <n v="300"/>
-        <n v="710" u="1"/>
-        <n v="870" u="1"/>
-        <n v="960" u="1"/>
-        <n v="850" u="1"/>
-        <n v="881" u="1"/>
-        <n v="900" u="1"/>
-        <n v="790" u="1"/>
-        <n v="835" u="1"/>
-        <n v="1330" u="1"/>
-        <n v="770" u="1"/>
-        <n v="315" u="1"/>
-        <n v="860" u="1"/>
-        <n v="750" u="1"/>
-        <n v="7600" u="1"/>
+        <n v="350"/>
+        <n v="440" u="1"/>
+        <n v="485" u="1"/>
+        <n v="4800" u="1"/>
+        <n v="500" u="1"/>
+        <n v="520" u="1"/>
+        <n v="531" u="1"/>
+        <n v="360" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -2107,8 +5379,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="48">
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HHB"/>
     <s v="Horizontal_High_Back"/>
@@ -2117,6 +5390,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HHF"/>
     <s v="Horizontal_High_Front"/>
@@ -2125,6 +5399,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HHL"/>
     <s v="Horizontal_High_Left"/>
@@ -2133,6 +5408,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HHR"/>
     <s v="Horizontal_High_Right"/>
@@ -2141,6 +5417,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HLB"/>
     <s v="Horizontal_Low_Back"/>
@@ -2149,6 +5426,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HLF"/>
     <s v="Horizontal_Low_Front"/>
@@ -2157,6 +5435,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HLL"/>
     <s v="Horizontal_Low_Left"/>
@@ -2165,6 +5444,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HLR"/>
     <s v="Horizontal_Low_Right"/>
@@ -2173,6 +5453,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HMB"/>
     <s v="Horizontal_Mid_Back"/>
@@ -2181,6 +5462,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HML"/>
     <s v="Horizontal_Mid_Left"/>
@@ -2189,6 +5471,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="HMR"/>
     <s v="Horizontal_Mid_Right"/>
@@ -2197,6 +5480,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="VBL"/>
     <s v="Vertical_Back_Left"/>
@@ -2205,6 +5489,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="VBR"/>
     <s v="Vertical_Back_Right"/>
@@ -2213,6 +5498,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="VFL"/>
     <s v="Vertical_Front_Left"/>
@@ -2221,6 +5507,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Frame"/>
     <s v="VFR"/>
     <s v="Vertical_Front_Right"/>
@@ -2229,6 +5516,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Xtension_ElectronicBay"/>
     <s v="XHH"/>
     <s v="Xtension_Horizontal_High_Right"/>
@@ -2237,6 +5525,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Xtension_ElectronicBay"/>
     <s v="XHHB"/>
     <s v="Xtension_Horizontal_High_Back"/>
@@ -2245,6 +5534,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Xtension_ElectronicBay"/>
     <s v="XHHF"/>
     <s v="Xtension_Horizontal_High_Front"/>
@@ -2253,6 +5543,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Xtension_ElectronicBay"/>
     <s v="XHLB"/>
     <s v="Xtension_Horizontal_Low_Back"/>
@@ -2261,6 +5552,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Xtension_ElectronicBay"/>
     <s v="XHLF"/>
     <s v="Xtension_Horizontal_Low_Front"/>
@@ -2269,6 +5561,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Xtension_ElectronicBay"/>
     <s v="XHLR"/>
     <s v="Xtension_Horizontal_Low_Right"/>
@@ -2277,6 +5570,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Xtension_ElectronicBay"/>
     <s v="XVBR"/>
     <s v="Xtension_Vertical_Back_Right"/>
@@ -2285,6 +5579,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="Xtension_ElectronicBay"/>
     <s v="XVF"/>
     <s v="Xtension_Vertical_Front"/>
@@ -2293,6 +5588,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_Support"/>
     <s v="VFL_ZR"/>
     <s v="ZR Doubler Vertical_Front_Left"/>
@@ -2301,6 +5597,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_Support"/>
     <s v="VFR_ZR"/>
     <s v="ZR Doubler Vertical_Front_Right"/>
@@ -2309,6 +5606,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_Support"/>
     <s v="VRR_ZR"/>
     <s v="ZR Doubler Vertical_Rear"/>
@@ -2317,6 +5615,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="BedFrame"/>
     <s v="BedFR"/>
     <s v="BedFrame Front"/>
@@ -2325,6 +5624,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="BedFrame"/>
     <s v="BedRR"/>
     <s v="BedFrame Rear"/>
@@ -2333,6 +5633,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="BedFrame"/>
     <s v="BedLH"/>
     <s v="BedFrame Left"/>
@@ -2341,6 +5642,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="BedFrame"/>
     <s v="BedRH"/>
     <s v="BedFrame Right"/>
@@ -2349,6 +5651,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="X Axis Support"/>
     <s v="Track_X_2020Profile"/>
     <s v="X axis support aluminum profile 2020"/>
@@ -2357,6 +5660,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="BedPlate"/>
     <s v="BedPlate"/>
     <s v="Bed Plate (Square)"/>
@@ -2365,7 +5669,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="XYRails"/>
+    <x v="0"/>
+    <s v="STD/HT XYRails"/>
     <s v="Y_MGN12C_Left"/>
     <s v="MGN12 Rail with MGNC (Compact Bloc)"/>
     <x v="3"/>
@@ -2373,7 +5678,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="XYRails"/>
+    <x v="0"/>
+    <s v="STD/HT XYRails"/>
     <s v="Y_MGN12C_Right"/>
     <s v="MGN12 Rail with MGNC (Compact Bloc)"/>
     <x v="3"/>
@@ -2381,7 +5687,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="XYRails"/>
+    <x v="0"/>
+    <s v="STD/HT XYRails"/>
     <s v="X_MGN12H"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
     <x v="4"/>
@@ -2389,6 +5696,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_Motion"/>
     <s v="ZR_MGN12H_FL"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
@@ -2397,6 +5705,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_Motion"/>
     <s v="ZR_MGN12H_FL"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
@@ -2405,6 +5714,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_Motion"/>
     <s v="ZR_MGN12H_FL"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
@@ -2413,6 +5723,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_Motion"/>
     <s v="ZR_MGN12H_BED"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
@@ -2421,6 +5732,7 @@
     <n v="3"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_Motion"/>
     <s v="ZR_SFU1204_FL"/>
     <s v="Ball Screw SFU1204 Front Left"/>
@@ -2429,6 +5741,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_Motion"/>
     <s v="ZR_SFU1204_FR"/>
     <s v="Ball Screw SFU1204 Front Right"/>
@@ -2437,6 +5750,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_Motion"/>
     <s v="ZR_SFU1204_RR"/>
     <s v="Ball Screw SFU1204 Front Rear"/>
@@ -2445,6 +5759,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="XY_Belts"/>
     <s v="Upper and Lower Belts"/>
     <s v="Gates GT2 PowerGrip Belt"/>
@@ -2453,6 +5768,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="0"/>
     <s v="ZR_HeaterPad"/>
     <s v="ZR_SiliconeHeatPad"/>
     <s v="Silicone Heat Pad (Keenovo Recommended)"/>
@@ -2461,6 +5777,7 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="1"/>
     <s v="HD_X axis Support"/>
     <s v="Track_XHD_2020Profile"/>
     <s v="X axis support for HD9 and HD12 only. Replaces Regular X Axis if HD version is selected."/>
@@ -2468,13 +5785,47 @@
     <x v="0"/>
     <n v="1"/>
   </r>
+  <r>
+    <x v="1"/>
+    <s v="HD_XYRails"/>
+    <s v="Y_MGN12H"/>
+    <s v="MGN12 Rail with MGN12H (Normal Block)"/>
+    <x v="4"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="HD_XYRails"/>
+    <s v="Y_MGN12H"/>
+    <s v="MGN12 Rail with MGN12H (Normal Block)"/>
+    <x v="4"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="HD_XYRails"/>
+    <s v="X_MGN12H"/>
+    <s v="MGN12 Rail with MGN12H (Normal Block)"/>
+    <x v="4"/>
+    <x v="15"/>
+    <n v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74C2BB5-BA82-419A-891C-9C4B9F44329D}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="O7:Q34" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1461BD4-CFE3-49FF-BD65-96FF36D7102A}" name="PivotTable2" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="Q7:S32" firstHeaderRow="2" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2497,7 +5848,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="30">
+      <items count="24">
         <item x="12"/>
         <item x="5"/>
         <item x="6"/>
@@ -2513,30 +5864,24 @@
         <item x="4"/>
         <item x="13"/>
         <item x="14"/>
-        <item m="1" x="25"/>
+        <item x="15"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
+        <item m="1" x="21"/>
         <item m="1" x="16"/>
-        <item m="1" x="26"/>
-        <item m="1" x="23"/>
+        <item m="1" x="19"/>
         <item m="1" x="17"/>
-        <item m="1" x="15"/>
-        <item m="1" x="24"/>
-        <item m="1" x="19"/>
-        <item m="1" x="21"/>
         <item m="1" x="18"/>
-        <item m="1" x="22"/>
-        <item m="1" x="20"/>
-        <item m="1" x="28"/>
-        <item m="1" x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
-    <field x="3"/>
     <field x="4"/>
+    <field x="5"/>
   </rowFields>
-  <rowItems count="26">
+  <rowItems count="24">
     <i>
       <x/>
       <x v="1"/>
@@ -2617,114 +5962,110 @@
     <i t="blank">
       <x v="7"/>
     </i>
-    <i>
-      <x v="8"/>
-      <x v="7"/>
-    </i>
-    <i t="blank">
-      <x v="8"/>
-    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="0" item="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Qty" fld="5" baseField="4" baseItem="2"/>
+    <dataField name="Sum of Qty" fld="6" baseField="4" baseItem="2"/>
   </dataFields>
-  <formats count="29">
-    <format dxfId="57">
+  <formats count="30">
+    <format dxfId="150">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="151">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="152">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="153">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    <format dxfId="154">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="155">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="156">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="157">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="158">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="159">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="160">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="161">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="162">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    <format dxfId="163">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="164">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    <format dxfId="165">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    <format dxfId="166">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="167">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="168">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="169">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    <format dxfId="170">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    <format dxfId="171">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="172">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="3" count="0"/>
+          <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="173">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="3" count="1" selected="0">
+          <reference field="4" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="2">
+          <reference field="5" count="2">
             <x v="1"/>
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="174">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="3" count="1" selected="0">
+          <reference field="4" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="4" count="3">
+          <reference field="5" count="3">
             <x v="6"/>
             <x v="7"/>
             <x v="9"/>
@@ -2732,25 +6073,25 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="175">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="3" count="1" selected="0">
+          <reference field="4" count="1" selected="0">
             <x v="2"/>
           </reference>
-          <reference field="4" count="1">
+          <reference field="5" count="1">
             <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="176">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="3" count="1" selected="0">
+          <reference field="4" count="1" selected="0">
             <x v="3"/>
           </reference>
-          <reference field="4" count="3">
+          <reference field="5" count="3">
             <x v="0"/>
             <x v="4"/>
             <x v="8"/>
@@ -2758,20 +6099,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="3" count="1" selected="0">
+          <reference field="4" count="1" selected="0">
             <x v="4"/>
           </reference>
-          <reference field="4" count="1">
+          <reference field="5" count="1">
             <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="178">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="90">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3086,1858 +6430,2370 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:U52"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="1.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.81640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.1796875" collapsed="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="1.26953125" customWidth="1"/>
-    <col min="15" max="15" width="32.1796875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="3.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="5.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.81640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9.1796875" collapsed="1"/>
+    <col min="15" max="15" width="11.81640625" customWidth="1"/>
+    <col min="16" max="16" width="1.26953125" customWidth="1"/>
+    <col min="17" max="17" width="32.1796875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" customWidth="1"/>
+    <col min="21" max="21" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="2:23" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
+    <row r="2" spans="2:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="1"/>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="H2" s="5">
         <v>315</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>108</v>
+      <c r="I2" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="3" spans="3:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="2:23" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F3" s="1"/>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6">
-        <f>F2</f>
+      <c r="H3" s="6">
+        <f>H2</f>
         <v>315</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
+    <row r="4" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="F4" s="1"/>
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="H4" s="5">
         <v>340</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="I4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G5" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="W5" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O5" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="U5" s="22" t="s">
+    <row r="6" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="54"/>
+      <c r="S6" s="55"/>
+    </row>
+    <row r="7" spans="2:23" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="30"/>
+      <c r="S7" s="37"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+    </row>
+    <row r="8" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="59" t="str">
+        <f>IF($H$5="STD_HT",B8,IF($H$5="HD",C8,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" ref="I8:I52" si="0">IFERROR(VLOOKUP(K8,$G$2:$H$4,2,0),0)+M8</f>
+        <v>420</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>315</v>
+      </c>
+      <c r="M8" s="1">
         <v>105</v>
       </c>
+      <c r="Q8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O6" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="60"/>
-    </row>
-    <row r="7" spans="3:21" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="41"/>
-    </row>
-    <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="13" t="s">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="59" t="str">
+        <f>IF($H$5="STD_HT",B9,IF($H$5="HD",C9,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="F9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="14">
-        <f t="shared" ref="G8:G52" si="0">IFERROR(VLOOKUP(I8,$E$2:$F$4,2,0),0)+K8</f>
-        <v>420</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>315</v>
-      </c>
-      <c r="K8" s="1">
-        <v>105</v>
-      </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H9" s="14">
+      <c r="J9" s="14">
         <v>1</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>315</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>105</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="37" t="s">
+      <c r="Q9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="37">
+      <c r="R9" s="33">
         <v>260</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="S9" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="13" t="s">
+    <row r="10" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="59" t="str">
+        <f>IF($H$5="STD_HT",B10,IF($H$5="HD",C10,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="14">
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H10" s="14">
+      <c r="J10" s="14">
         <v>1</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>315</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>95</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="39" t="s">
+      <c r="Q10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="38">
+      <c r="R10" s="34">
         <v>320</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="S10" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="13" t="s">
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="59" t="str">
+        <f>IF($H$5="STD_HT",B11,IF($H$5="HD",C11,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="14">
+      <c r="I11" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H11" s="14">
+      <c r="J11" s="14">
         <v>1</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>315</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>95</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="38" t="s">
+      <c r="Q11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="15">
+      <c r="R11" s="15">
         <v>431</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="S11" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="59" t="str">
+        <f>IF($H$5="STD_HT",B12,IF($H$5="HD",C12,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="14">
+      <c r="I12" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H12" s="14">
+      <c r="J12" s="14">
         <v>1</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>315</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>105</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="31"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="27"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C13" s="13" t="s">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="59" t="str">
+        <f>IF($H$5="STD_HT",B13,IF($H$5="HD",C13,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="H13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="14">
+      <c r="I13" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H13" s="14">
+      <c r="J13" s="14">
         <v>1</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>315</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>105</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="37" t="s">
+      <c r="Q13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="37">
+      <c r="R13" s="33">
         <v>410</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="S13" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C14" s="13" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="59" t="str">
+        <f>IF($H$5="STD_HT",B14,IF($H$5="HD",C14,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="14">
+      <c r="I14" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H14" s="14">
+      <c r="J14" s="14">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>315</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>95</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="39" t="s">
+      <c r="Q14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="39">
+      <c r="R14" s="35">
         <v>420</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="S14" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="13" t="s">
+    <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="59" t="str">
+        <f>IF($H$5="STD_HT",B15,IF($H$5="HD",C15,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="14">
+      <c r="I15" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H15" s="14">
+      <c r="J15" s="14">
         <v>1</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>315</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <v>95</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="39" t="s">
+      <c r="Q15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="38">
+      <c r="R15" s="34">
         <v>140</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="S15" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
-      <c r="C16" s="13" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="59" t="str">
+        <f>IF($H$5="STD_HT",B16,IF($H$5="HD",C16,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="14">
+      <c r="I16" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H16" s="14">
+      <c r="J16" s="14">
         <v>1</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <v>315</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
         <v>105</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="39" t="s">
+      <c r="Q16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="15">
+      <c r="R16" s="15">
         <v>880</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="S16" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="13" t="s">
+    <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="59" t="str">
+        <f>IF($H$5="STD_HT",B17,IF($H$5="HD",C17,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="14">
+      <c r="I17" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H17" s="14">
+      <c r="J17" s="14">
         <v>1</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>315</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <v>95</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="38" t="s">
+      <c r="Q17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="15">
+      <c r="R17" s="15">
         <v>510</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="S17" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="13" t="s">
+    <row r="18" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="59" t="str">
+        <f>IF($H$5="STD_HT",B18,IF($H$5="HD",C18,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="H18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="14">
+      <c r="I18" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H18" s="14">
+      <c r="J18" s="14">
         <v>1</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="1">
+      <c r="L18" s="1">
         <v>315</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M18" s="1">
         <v>95</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="31"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="27"/>
     </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="24"/>
-      <c r="C19" s="13" t="s">
+    <row r="19" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="59" t="str">
+        <f>IF($H$5="STD_HT",B19,IF($H$5="HD",C19,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="H19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="14">
+      <c r="I19" s="14">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="H19" s="14">
+      <c r="J19" s="14">
         <v>1</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="1">
+      <c r="L19" s="1">
         <v>340</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M19" s="1">
         <v>540</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="40" t="s">
+      <c r="Q19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="40">
+      <c r="R19" s="36">
         <v>400</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="S19" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="24"/>
-      <c r="C20" s="13" t="s">
+    <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="59" t="str">
+        <f>IF($H$5="STD_HT",B20,IF($H$5="HD",C20,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="H20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="14">
+      <c r="I20" s="14">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="H20" s="14">
+      <c r="J20" s="14">
         <v>1</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>340</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>540</v>
       </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="31"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="27"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="24"/>
-      <c r="C21" s="13" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="59" t="str">
+        <f>IF($H$5="STD_HT",B21,IF($H$5="HD",C21,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="H21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="14">
+      <c r="I21" s="14">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="H21" s="14">
+      <c r="J21" s="14">
         <v>1</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="1">
+      <c r="L21" s="1">
         <v>340</v>
       </c>
-      <c r="K21" s="1">
+      <c r="M21" s="1">
         <v>540</v>
       </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="37" t="s">
+      <c r="Q21" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="37">
+      <c r="R21" s="33">
         <v>150</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="S21" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="24"/>
-      <c r="C22" s="13" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="59" t="str">
+        <f>IF($H$5="STD_HT",B22,IF($H$5="HD",C22,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="14">
+      <c r="I22" s="14">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="H22" s="14">
+      <c r="J22" s="14">
         <v>1</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="1">
+      <c r="L22" s="1">
         <v>340</v>
       </c>
-      <c r="K22" s="1">
+      <c r="M22" s="1">
         <v>540</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="39" t="s">
+      <c r="Q22" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="P22" s="39">
+      <c r="R22" s="35">
         <v>385</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="S22" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="24"/>
-      <c r="C23" s="13" t="s">
+    <row r="23" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="59" t="str">
+        <f>IF($H$5="STD_HT",B23,IF($H$5="HD",C23,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="H23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="14">
+      <c r="I23" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H23" s="14">
+      <c r="J23" s="14">
         <v>1</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1">
         <v>315</v>
       </c>
-      <c r="K23" s="1">
+      <c r="M23" s="1">
         <v>95</v>
       </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="38" t="s">
+      <c r="Q23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="P23" s="38">
+      <c r="R23" s="34">
         <v>450</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="S23" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="24"/>
-      <c r="C24" s="13" t="s">
+    <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="59" t="str">
+        <f>IF($H$5="STD_HT",B24,IF($H$5="HD",C24,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="H24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="14">
+      <c r="I24" s="14">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H24" s="14">
+      <c r="J24" s="14">
         <v>1</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="1">
+      <c r="L24" s="1">
         <v>140</v>
       </c>
-      <c r="K24" s="1">
+      <c r="M24" s="1">
         <v>140</v>
       </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="31"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="27"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="24"/>
-      <c r="C25" s="13" t="s">
+    <row r="25" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="59" t="str">
+        <f>IF($H$5="STD_HT",B25,IF($H$5="HD",C25,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="G25" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="H25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="14">
+      <c r="I25" s="14">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H25" s="14">
+      <c r="J25" s="14">
         <v>1</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1">
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="M25" s="1">
         <v>140</v>
       </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="40" t="s">
+      <c r="Q25" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="40">
+      <c r="R25" s="36">
         <v>450</v>
       </c>
-      <c r="Q25" s="31">
+      <c r="S25" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="24"/>
-      <c r="C26" s="13" t="s">
+    <row r="26" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="59" t="str">
+        <f>IF($H$5="STD_HT",B26,IF($H$5="HD",C26,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="H26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="14">
+      <c r="I26" s="14">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H26" s="14">
+      <c r="J26" s="14">
         <v>1</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="1">
+      <c r="L26" s="1">
         <v>140</v>
       </c>
-      <c r="K26" s="1">
+      <c r="M26" s="1">
         <v>140</v>
       </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="31"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="27"/>
     </row>
-    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="24"/>
-      <c r="C27" s="13" t="s">
+    <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="59" t="str">
+        <f>IF($H$5="STD_HT",B27,IF($H$5="HD",C27,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="G27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="H27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="14">
+      <c r="I27" s="14">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H27" s="14">
+      <c r="J27" s="14">
         <v>1</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J27" s="1">
+      <c r="L27" s="1">
         <v>140</v>
       </c>
-      <c r="K27" s="1">
+      <c r="M27" s="1">
         <v>140</v>
       </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="P27" s="15">
+      <c r="Q27" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="R27" s="15">
         <v>4000</v>
       </c>
-      <c r="Q27" s="31">
+      <c r="S27" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="24"/>
-      <c r="C28" s="13" t="s">
+    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="59" t="str">
+        <f>IF($H$5="STD_HT",B28,IF($H$5="HD",C28,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="H28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="14">
+      <c r="I28" s="14">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H28" s="14">
+      <c r="J28" s="14">
         <v>1</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="1">
+      <c r="L28" s="1">
         <v>315</v>
       </c>
-      <c r="K28" s="1">
+      <c r="M28" s="1">
         <v>95</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="31"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="27"/>
     </row>
-    <row r="29" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="24"/>
-      <c r="C29" s="13" t="s">
+    <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="59" t="str">
+        <f>IF($H$5="STD_HT",B29,IF($H$5="HD",C29,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="H29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="14">
+      <c r="I29" s="14">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="H29" s="14">
+      <c r="J29" s="14">
         <v>1</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="1">
+      <c r="L29" s="1">
         <v>340</v>
       </c>
-      <c r="K29" s="1">
+      <c r="M29" s="1">
         <v>540</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="P29" s="15">
+      <c r="N29" s="1"/>
+      <c r="Q29" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="R29" s="15">
         <v>340</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="S29" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="24"/>
-      <c r="C30" s="13" t="s">
+    <row r="30" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="59" t="str">
+        <f>IF($H$5="STD_HT",B30,IF($H$5="HD",C30,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="F30" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="H30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="14">
+      <c r="I30" s="14">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="H30" s="14">
+      <c r="J30" s="14">
         <v>1</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="1">
+      <c r="L30" s="1">
         <v>340</v>
       </c>
-      <c r="K30" s="1">
+      <c r="M30" s="1">
         <v>540</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="27"/>
     </row>
-    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="24"/>
-      <c r="C31" s="13" t="s">
+    <row r="31" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="59" t="str">
+        <f>IF($H$5="STD_HT",B31,IF($H$5="HD",C31,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="F31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="G31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="H31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="14">
+      <c r="I31" s="14">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="H31" s="14">
+      <c r="J31" s="14">
         <v>1</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="1">
+      <c r="L31" s="1">
         <v>340</v>
       </c>
-      <c r="K31" s="1">
+      <c r="M31" s="1">
         <v>170</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="P31" s="15">
+      <c r="Q31" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="R31" s="15">
         <v>300</v>
       </c>
-      <c r="Q31" s="31">
+      <c r="S31" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="24"/>
-      <c r="C32" s="13" t="s">
+    <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="59" t="str">
+        <f>IF($H$5="STD_HT",B32,IF($H$5="HD",C32,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="H32" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="14">
+      <c r="I32" s="14">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="H32" s="14">
+      <c r="J32" s="14">
         <v>1</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="1">
+      <c r="L32" s="1">
         <v>340</v>
       </c>
-      <c r="K32" s="1">
+      <c r="M32" s="1">
         <v>170</v>
       </c>
-      <c r="O32" s="26"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="31"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="28"/>
     </row>
-    <row r="33" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="24"/>
-      <c r="C33" s="13" t="s">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="59" t="str">
+        <f>IF($H$5="STD_HT",B33,IF($H$5="HD",C33,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="G33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="H33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="14">
+      <c r="I33" s="14">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="H33" s="14">
+      <c r="J33" s="14">
         <v>1</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="1">
+      <c r="L33" s="1">
         <v>340</v>
       </c>
-      <c r="K33" s="1">
+      <c r="M33" s="1">
         <v>170</v>
       </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="P33" s="15">
-        <v>420</v>
-      </c>
-      <c r="Q33" s="31">
-        <v>1</v>
-      </c>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
     </row>
-    <row r="34" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="13" t="s">
+    <row r="34" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="59" t="str">
+        <f>IF($H$5="STD_HT",B34,IF($H$5="HD",C34,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="H34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="14">
+      <c r="I34" s="14">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="H34" s="14">
+      <c r="J34" s="14">
         <v>1</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="L34" s="1">
         <v>315</v>
       </c>
-      <c r="K34" s="1">
+      <c r="M34" s="1">
         <v>-55</v>
       </c>
-      <c r="O34" s="27"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="32"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
     </row>
-    <row r="35" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C35" s="13" t="s">
+    <row r="35" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="59" t="str">
+        <f>IF($H$5="STD_HT",B35,IF($H$5="HD",C35,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="G35" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="H35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="14">
+      <c r="I35" s="14">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="H35" s="14">
+      <c r="J35" s="14">
         <v>1</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="1">
+      <c r="L35" s="1">
         <v>315</v>
       </c>
-      <c r="K35" s="1">
+      <c r="M35" s="1">
         <v>-55</v>
       </c>
-      <c r="M35" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C36" s="13" t="s">
+    <row r="36" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="59" t="str">
+        <f>IF($H$5="STD_HT",B36,IF($H$5="HD",C36,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="G36" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="H36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="14">
+      <c r="I36" s="14">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H36" s="14">
+      <c r="J36" s="14">
         <v>1</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J36" s="1">
+      <c r="L36" s="1">
         <v>315</v>
       </c>
-      <c r="K36" s="1">
+      <c r="M36" s="1">
         <v>5</v>
       </c>
-      <c r="M36" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C37" s="13" t="s">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="59" t="str">
+        <f>IF($H$5="STD_HT",B37,IF($H$5="HD",C37,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="G37" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="H37" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="14">
+      <c r="I37" s="14">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H37" s="14">
+      <c r="J37" s="14">
         <v>1</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="1">
+      <c r="L37" s="1">
         <v>315</v>
       </c>
-      <c r="K37" s="1">
+      <c r="M37" s="1">
         <v>5</v>
       </c>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
     </row>
-    <row r="38" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="24"/>
-      <c r="C38" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>111</v>
+    <row r="38" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="59" t="str">
+        <f>IF($H$5="STD_HT",B38,IF($H$5="HD",C38,""))</f>
+        <v>x</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="14">
+      <c r="I38" s="14">
         <f t="shared" si="0"/>
         <v>431</v>
       </c>
-      <c r="H38" s="14">
+      <c r="J38" s="14">
         <v>1</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J38" s="1">
+      <c r="L38" s="1">
         <v>315</v>
       </c>
-      <c r="K38" s="1">
+      <c r="M38" s="1">
         <v>116</v>
       </c>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C39" s="13" t="s">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="59" t="str">
+        <f>IF($H$5="STD_HT",B39,IF($H$5="HD",C39,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="G39" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="14">
+      <c r="H39" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="14">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="H39" s="14">
+      <c r="J39" s="14">
         <v>1</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J39" s="1">
+      <c r="L39" s="1">
         <v>315</v>
       </c>
-      <c r="K39" s="1">
+      <c r="M39" s="1">
         <v>25</v>
       </c>
-      <c r="M39" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="N39" s="63"/>
-      <c r="O39" s="19" t="s">
+      <c r="O39" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B40" s="42"/>
-      <c r="C40" s="13" t="s">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="59" t="str">
+        <f>IF($H$5="STD_HT",B40,IF($H$5="HD",C40,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="G40" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="14" t="s">
+      <c r="H40" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="14">
+      <c r="I40" s="14">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H40" s="14">
+      <c r="J40" s="14">
         <v>1</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J40" s="1">
+      <c r="L40" s="1">
         <v>315</v>
       </c>
-      <c r="K40" s="1">
+      <c r="M40" s="1">
         <v>85</v>
       </c>
-      <c r="M40" s="56">
+      <c r="O40" s="51">
         <v>315</v>
       </c>
-      <c r="N40" s="57"/>
-      <c r="O40" s="16">
+      <c r="P40" s="52"/>
+      <c r="Q40" s="16">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B41" s="42"/>
-      <c r="C41" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>92</v>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="59" t="str">
+        <f>IF($H$5="STD_HT",B41,IF($H$5="HD",C41,""))</f>
+        <v>x</v>
       </c>
       <c r="E41" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="G41" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="14">
+      <c r="I41" s="14">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H41" s="14">
+      <c r="J41" s="14">
         <v>1</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="1">
+      <c r="L41" s="1">
         <v>315</v>
       </c>
-      <c r="K41" s="1">
+      <c r="M41" s="1">
         <v>85</v>
       </c>
-      <c r="M41" s="56">
-        <f>M40+50</f>
+      <c r="O41" s="51">
+        <f>O40+50</f>
         <v>365</v>
       </c>
-      <c r="N41" s="57"/>
-      <c r="O41" s="16">
-        <f>O40+50</f>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="16">
+        <f>Q40+50</f>
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B42" s="42"/>
-      <c r="C42" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="13" t="s">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="59" t="str">
+        <f>IF($H$5="STD_HT",B42,IF($H$5="HD",C42,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" s="14" t="s">
+      <c r="H42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="14">
+      <c r="I42" s="14">
         <f t="shared" si="0"/>
         <v>385</v>
       </c>
-      <c r="H42" s="14">
+      <c r="J42" s="14">
         <v>1</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J42" s="1">
+      <c r="L42" s="1">
         <v>315</v>
       </c>
-      <c r="K42" s="1">
+      <c r="M42" s="1">
         <v>70</v>
       </c>
-      <c r="M42" s="56">
-        <f t="shared" ref="M42:M47" si="1">M41+50</f>
+      <c r="O42" s="51">
+        <f t="shared" ref="O42:O47" si="1">O41+50</f>
         <v>415</v>
       </c>
-      <c r="N42" s="57"/>
-      <c r="O42" s="16">
-        <f t="shared" ref="O42:O47" si="2">O41+50</f>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="16">
+        <f t="shared" ref="Q42:Q47" si="2">Q41+50</f>
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B43" s="42"/>
-      <c r="C43" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>96</v>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="59" t="str">
+        <f>IF($H$5="STD_HT",B43,IF($H$5="HD",C43,""))</f>
+        <v>x</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="14">
+      <c r="I43" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H43" s="14">
+      <c r="J43" s="14">
         <v>1</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="1">
+      <c r="L43" s="1">
         <v>340</v>
       </c>
-      <c r="K43" s="1">
+      <c r="M43" s="1">
         <v>110</v>
       </c>
-      <c r="M43" s="56">
+      <c r="O43" s="51">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="N43" s="57"/>
-      <c r="O43" s="16">
+      <c r="P43" s="52"/>
+      <c r="Q43" s="16">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B44" s="42"/>
-      <c r="C44" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>96</v>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="59" t="str">
+        <f>IF($H$5="STD_HT",B44,IF($H$5="HD",C44,""))</f>
+        <v>x</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="14">
+      <c r="I44" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H44" s="14">
+      <c r="J44" s="14">
         <v>1</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="1">
+      <c r="L44" s="1">
         <v>340</v>
       </c>
-      <c r="K44" s="1">
+      <c r="M44" s="1">
         <v>110</v>
       </c>
-      <c r="M44" s="56">
+      <c r="O44" s="51">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
-      <c r="N44" s="57"/>
-      <c r="O44" s="16">
+      <c r="P44" s="52"/>
+      <c r="Q44" s="16">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B45" s="42"/>
-      <c r="C45" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>96</v>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="59" t="str">
+        <f>IF($H$5="STD_HT",B45,IF($H$5="HD",C45,""))</f>
+        <v>x</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="14">
+      <c r="I45" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H45" s="14">
+      <c r="J45" s="14">
         <v>1</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="1">
+      <c r="L45" s="1">
         <v>340</v>
       </c>
-      <c r="K45" s="1">
+      <c r="M45" s="1">
         <v>110</v>
       </c>
-      <c r="M45" s="56">
+      <c r="O45" s="51">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="N45" s="57"/>
-      <c r="O45" s="16">
+      <c r="P45" s="52"/>
+      <c r="Q45" s="16">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B46" s="42"/>
-      <c r="C46" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>97</v>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="59" t="str">
+        <f>IF($H$5="STD_HT",B46,IF($H$5="HD",C46,""))</f>
+        <v>x</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G46" s="14">
+      <c r="I46" s="14">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H46" s="14">
+      <c r="J46" s="14">
         <v>3</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="1">
+      <c r="L46" s="1">
         <v>150</v>
       </c>
-      <c r="K46" s="1">
+      <c r="M46" s="1">
         <v>150</v>
       </c>
-      <c r="M46" s="56">
+      <c r="O46" s="51">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="N46" s="57"/>
-      <c r="O46" s="16">
+      <c r="P46" s="52"/>
+      <c r="Q46" s="16">
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
-      <c r="Q46" s="1">
-        <f>30+41.4+50</f>
-        <v>121.4</v>
-      </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B47" s="42"/>
-      <c r="C47" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="13" t="s">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="59" t="str">
+        <f>IF($H$5="STD_HT",B47,IF($H$5="HD",C47,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="14" t="s">
+      <c r="H47" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G47" s="14">
+      <c r="I47" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H47" s="14">
+      <c r="J47" s="14">
         <v>1</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="1">
+      <c r="L47" s="1">
         <v>340</v>
       </c>
-      <c r="K47" s="1">
+      <c r="M47" s="1">
         <v>110</v>
       </c>
-      <c r="M47" s="56">
+      <c r="O47" s="51">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="N47" s="57"/>
-      <c r="O47" s="16">
+      <c r="P47" s="52"/>
+      <c r="Q47" s="16">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B48" s="42"/>
-      <c r="C48" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="13" t="s">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="59" t="str">
+        <f>IF($H$5="STD_HT",B48,IF($H$5="HD",C48,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="14" t="s">
+      <c r="H48" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="14">
+      <c r="I48" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H48" s="14">
+      <c r="J48" s="14">
         <v>1</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="1">
+      <c r="L48" s="1">
         <v>340</v>
       </c>
-      <c r="K48" s="1">
+      <c r="M48" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="42"/>
-      <c r="C49" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="13" t="s">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="59" t="str">
+        <f>IF($H$5="STD_HT",B49,IF($H$5="HD",C49,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="14" t="s">
+      <c r="H49" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="14">
+      <c r="I49" s="14">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H49" s="14">
+      <c r="J49" s="14">
         <v>1</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="1">
+      <c r="L49" s="1">
         <v>340</v>
       </c>
-      <c r="K49" s="1">
+      <c r="M49" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B50" s="24"/>
-      <c r="C50" s="13" t="s">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="59" t="str">
+        <f>IF($H$5="STD_HT",B50,IF($H$5="HD",C50,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="14">
-        <f>IFERROR(VLOOKUP(I50,$E$2:$F$4,2,0)*8,0)+K50</f>
+      <c r="I50" s="14">
+        <f>IFERROR(VLOOKUP(K50,$G$2:$H$4,2,0)*8,0)+M50</f>
         <v>4000</v>
       </c>
-      <c r="H50" s="14">
+      <c r="J50" s="14">
         <v>1</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J50" s="1">
+      <c r="L50" s="1">
         <v>315</v>
       </c>
-      <c r="K50" s="1">
+      <c r="M50" s="1">
         <v>1480</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B51" s="24"/>
-      <c r="C51" s="13" t="s">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="59" t="str">
+        <f>IF($H$5="STD_HT",B51,IF($H$5="HD",C51,""))</f>
+        <v>x</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="14">
+      <c r="I51" s="14">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H51" s="14">
+      <c r="J51" s="14">
         <v>1</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J51" s="1">
+      <c r="L51" s="1">
         <v>315</v>
       </c>
-      <c r="K51" s="1">
+      <c r="M51" s="1">
         <v>-15</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B52" s="54"/>
-      <c r="C52" s="13" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="49"/>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="59">
+        <f>IF($H$5="STD_HT",B52,IF($H$5="HD",C52,""))</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G52" s="14">
+      <c r="I52" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H52" s="14">
+      <c r="J52" s="14">
         <v>1</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J52" s="1">
+      <c r="L52" s="1">
         <v>315</v>
       </c>
-      <c r="K52" s="55">
+      <c r="M52" s="50">
         <v>105</v>
       </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="49"/>
+      <c r="C53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="59">
+        <f>IF($H$5="STD_HT",B53,IF($H$5="HD",C53,""))</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="14">
+        <f t="shared" ref="I53:I55" si="3">IFERROR(VLOOKUP(K53,$G$2:$H$4,2,0),0)+M53</f>
+        <v>400</v>
+      </c>
+      <c r="J53" s="14">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" s="1">
+        <v>315</v>
+      </c>
+      <c r="M53" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q53"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="49"/>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="59">
+        <f>IF($H$5="STD_HT",B54,IF($H$5="HD",C54,""))</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="14">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J54" s="14">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="1">
+        <v>315</v>
+      </c>
+      <c r="M54" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q54"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="49"/>
+      <c r="C55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="59">
+        <f>IF($H$5="STD_HT",B55,IF($H$5="HD",C55,""))</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="14">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J55" s="14">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" s="1">
+        <v>315</v>
+      </c>
+      <c r="M55" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q55"/>
     </row>
   </sheetData>
-  <autoFilter ref="C7:H7" xr:uid="{72B80A8E-78B2-4BED-A6C7-375BF253D9C2}"/>
-  <mergeCells count="11">
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="M36:T37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
+  <autoFilter ref="E7:J7" xr:uid="{72B80A8E-78B2-4BED-A6C7-375BF253D9C2}"/>
+  <mergeCells count="10">
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
   </mergeCells>
+  <conditionalFormatting sqref="D8:J55">
+    <cfRule type="expression" dxfId="91" priority="1">
+      <formula>$D8&lt;&gt;"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{43ABBEE6-5061-4C4F-BA60-D00D88D865EC}">
+      <formula1>"STD_HT, HD"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
@@ -4963,112 +8819,112 @@
   <sheetData>
     <row r="2" spans="16:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P3" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q3" s="47"/>
+      <c r="P3" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="P4" s="48" t="str">
-        <f>FRAMECALCULATOR!E1</f>
+      <c r="P4" s="43" t="str">
+        <f>FRAMECALCULATOR!G1</f>
         <v>Desired Print Area</v>
       </c>
-      <c r="Q4" s="49" t="s">
-        <v>120</v>
+      <c r="Q4" s="44" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P5" s="50" t="str">
-        <f>FRAMECALCULATOR!E2</f>
+      <c r="P5" s="45" t="str">
+        <f>FRAMECALCULATOR!G2</f>
         <v>X</v>
       </c>
-      <c r="Q5" s="51">
-        <f>FRAMECALCULATOR!F2</f>
+      <c r="Q5" s="46">
+        <f>FRAMECALCULATOR!H2</f>
         <v>315</v>
       </c>
     </row>
     <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P6" s="52" t="str">
-        <f>FRAMECALCULATOR!E3</f>
+      <c r="P6" s="47" t="str">
+        <f>FRAMECALCULATOR!G3</f>
         <v>Y</v>
       </c>
-      <c r="Q6" s="53">
-        <f>FRAMECALCULATOR!F3</f>
+      <c r="Q6" s="48">
+        <f>FRAMECALCULATOR!H3</f>
         <v>315</v>
       </c>
     </row>
     <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="P9" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" s="44" t="s">
-        <v>120</v>
+      <c r="P9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="40">
         <f>Q5+25</f>
         <v>340</v>
       </c>
     </row>
     <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P11" s="43" t="s">
+      <c r="P11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="40">
         <f>Q6+25</f>
         <v>340</v>
       </c>
     </row>
     <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="P13" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q13" s="44" t="s">
-        <v>120</v>
+      <c r="P13" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P14" s="43" t="s">
+      <c r="P14" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="40">
         <f>Q5+12</f>
         <v>327</v>
       </c>
     </row>
     <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P15" s="43" t="s">
+      <c r="P15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="40">
         <f>Q6+-13</f>
         <v>302</v>
       </c>
     </row>
     <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="P17" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17" s="44"/>
+      <c r="P17" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="40">
         <f>Q5-15</f>
         <v>300</v>
       </c>
     </row>
     <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P19" s="43" t="s">
+      <c r="P19" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="40">
         <f>Q6-15</f>
         <v>300</v>
       </c>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7DE35F-EC6A-4F47-9BE8-7D762D1077F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DD041-33AC-4FB7-A7A8-E8EF10BD6CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="47" r:id="rId3"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="139">
   <si>
     <t>Desired Print Area</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Z</t>
-  </si>
-  <si>
-    <t>Summary</t>
   </si>
   <si>
     <t>Structure Section</t>
@@ -1133,6 +1130,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,23 +1163,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="325">
+  <dxfs count="121">
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -2260,6 +2257,360 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD1F810"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
       <font>
@@ -2270,2848 +2621,6 @@
           <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5189,15 +2698,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>612322</xdr:colOff>
+      <xdr:colOff>580572</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:rowOff>33565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>72571</xdr:colOff>
+      <xdr:colOff>40821</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>141827</xdr:rowOff>
+      <xdr:rowOff>148177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5227,8 +2736,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14967858" y="1306286"/>
-          <a:ext cx="7621361" cy="8768443"/>
+          <a:off x="15426872" y="1411515"/>
+          <a:ext cx="7632699" cy="8452162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5306,7 +2815,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44194.993237962961" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48" xr:uid="{15CD9897-A431-4957-B65B-551810028E4F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Olivier Royer-Tardif" refreshedDate="44195.100101157404" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48" xr:uid="{15CD9897-A431-4957-B65B-551810028E4F}">
   <cacheSource type="worksheet">
     <worksheetSource ref="D7:J55" sheet="FRAMECALCULATOR"/>
   </cacheSource>
@@ -5340,30 +2849,33 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Length mm" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="4800" count="23">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="4800" count="26">
+        <n v="520"/>
+        <n v="510"/>
+        <n v="980"/>
+        <n v="140"/>
+        <n v="610"/>
+        <n v="360"/>
         <n v="420"/>
-        <n v="410"/>
-        <n v="880"/>
-        <n v="140"/>
-        <n v="510"/>
-        <n v="260"/>
-        <n v="320"/>
-        <n v="431"/>
-        <n v="340"/>
+        <n v="531"/>
+        <n v="440"/>
+        <n v="500"/>
+        <n v="485"/>
+        <n v="550"/>
+        <n v="150"/>
+        <n v="4800"/>
         <n v="400"/>
-        <n v="385"/>
         <n v="450"/>
-        <n v="150"/>
-        <n v="4000"/>
-        <n v="300"/>
-        <n v="350"/>
-        <n v="440" u="1"/>
-        <n v="485" u="1"/>
-        <n v="4800" u="1"/>
-        <n v="500" u="1"/>
-        <n v="520" u="1"/>
-        <n v="531" u="1"/>
-        <n v="360" u="1"/>
+        <n v="385" u="1"/>
+        <n v="320" u="1"/>
+        <n v="410" u="1"/>
+        <n v="300" u="1"/>
+        <n v="4000" u="1"/>
+        <n v="880" u="1"/>
+        <n v="260" u="1"/>
+        <n v="431" u="1"/>
+        <n v="350" u="1"/>
+        <n v="340" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -5651,7 +3163,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="1"/>
     <s v="X Axis Support"/>
     <s v="Track_X_2020Profile"/>
     <s v="X axis support aluminum profile 2020"/>
@@ -5669,7 +3181,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="1"/>
     <s v="STD/HT XYRails"/>
     <s v="Y_MGN12C_Left"/>
     <s v="MGN12 Rail with MGNC (Compact Bloc)"/>
@@ -5678,7 +3190,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="1"/>
     <s v="STD/HT XYRails"/>
     <s v="Y_MGN12C_Right"/>
     <s v="MGN12 Rail with MGNC (Compact Bloc)"/>
@@ -5687,7 +3199,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="1"/>
     <s v="STD/HT XYRails"/>
     <s v="X_MGN12H"/>
     <s v="MGN12 Rail with MGN12H (Normal Bloc)"/>
@@ -5777,7 +3289,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
     <s v="HD_X axis Support"/>
     <s v="Track_XHD_2020Profile"/>
     <s v="X axis support for HD9 and HD12 only. Replaces Regular X Axis if HD version is selected."/>
@@ -5786,7 +3298,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
     <s v="HD_XYRails"/>
     <s v="Y_MGN12H"/>
     <s v="MGN12 Rail with MGN12H (Normal Block)"/>
@@ -5795,7 +3307,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
     <s v="HD_XYRails"/>
     <s v="Y_MGN12H"/>
     <s v="MGN12 Rail with MGN12H (Normal Block)"/>
@@ -5804,7 +3316,7 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
     <s v="HD_XYRails"/>
     <s v="X_MGN12H"/>
     <s v="MGN12 Rail with MGN12H (Normal Block)"/>
@@ -5816,7 +3328,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1461BD4-CFE3-49FF-BD65-96FF36D7102A}" name="PivotTable2" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1461BD4-CFE3-49FF-BD65-96FF36D7102A}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="Q7:S32" firstHeaderRow="2" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
@@ -5848,30 +3360,33 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="24">
+      <items count="27">
         <item x="12"/>
+        <item m="1" x="22"/>
+        <item m="1" x="17"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item x="14"/>
+        <item m="1" x="18"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item m="1" x="23"/>
+        <item m="1" x="21"/>
+        <item x="1"/>
+        <item m="1" x="20"/>
+        <item m="1" x="19"/>
+        <item m="1" x="24"/>
+        <item x="0"/>
         <item x="5"/>
-        <item x="6"/>
+        <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item x="10"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="7"/>
+        <item x="13"/>
         <item x="2"/>
         <item x="4"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="21"/>
-        <item m="1" x="16"/>
-        <item m="1" x="19"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5884,83 +3399,83 @@
   <rowItems count="24">
     <i>
       <x/>
-      <x v="1"/>
+      <x v="7"/>
     </i>
     <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
+      <x v="17"/>
     </i>
     <i t="blank">
       <x/>
     </i>
     <i>
       <x v="1"/>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
       <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
     </i>
     <i r="1">
       <x v="12"/>
     </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
     <i t="blank">
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="5"/>
-    </i>
-    <i t="blank">
-      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
       <x/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="8"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
     </i>
     <i t="blank">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="8"/>
+      <x v="25"/>
     </i>
     <i t="blank">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x v="13"/>
+      <x v="22"/>
     </i>
     <i t="blank">
       <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-      <x v="3"/>
+      <x v="19"/>
     </i>
     <i t="blank">
       <x v="6"/>
     </i>
     <i>
       <x v="7"/>
-      <x v="14"/>
+      <x v="5"/>
     </i>
     <i t="blank">
       <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="16"/>
+    </i>
+    <i t="blank">
+      <x v="8"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -5973,80 +3488,80 @@
     <dataField name="Sum of Qty" fld="6" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="150">
+    <format dxfId="119">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="118">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="117">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="116">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="154">
+    <format dxfId="115">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="114">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="113">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="157">
+    <format dxfId="112">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="158">
+    <format dxfId="111">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="110">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="160">
+    <format dxfId="109">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="161">
+    <format dxfId="108">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="162">
+    <format dxfId="107">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="163">
+    <format dxfId="106">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="164">
+    <format dxfId="105">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="165">
+    <format dxfId="104">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="103">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="167">
+    <format dxfId="102">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="168">
+    <format dxfId="101">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="100">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="99">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="98">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -6059,7 +3574,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -6073,7 +3588,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="175">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -6085,7 +3600,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="176">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -6099,7 +3614,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="177">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -6111,7 +3626,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="178">
+    <format dxfId="91">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="90">
@@ -6433,7 +3948,7 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -6456,7 +3971,7 @@
     <col min="16" max="16" width="1.26953125" customWidth="1"/>
     <col min="17" max="17" width="32.1796875" style="3" customWidth="1"/>
     <col min="18" max="18" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.90625" style="1" customWidth="1"/>
     <col min="20" max="20" width="10.1796875" customWidth="1"/>
     <col min="21" max="21" width="12.26953125" customWidth="1"/>
   </cols>
@@ -6479,7 +3994,7 @@
         <v>315</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="18.5" x14ac:dyDescent="0.45">
@@ -6504,84 +4019,85 @@
         <v>340</v>
       </c>
       <c r="I4" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G5" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="W5" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G5" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="R5" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="54"/>
-      <c r="S6" s="55"/>
+        <v>109</v>
+      </c>
+      <c r="Q6" s="58" t="str">
+        <f>"Summary for: "&amp;H2&amp;"x"&amp;H3&amp;"x"&amp;H4&amp;" - "&amp;H5</f>
+        <v>Summary for: 315x315x340 - STD_HT</v>
+      </c>
+      <c r="R6" s="59"/>
+      <c r="S6" s="60"/>
     </row>
     <row r="7" spans="2:23" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" s="30"/>
       <c r="S7" s="37"/>
@@ -6591,29 +4107,29 @@
     </row>
     <row r="8" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="59" t="str">
-        <f>IF($H$5="STD_HT",B8,IF($H$5="HD",C8,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D8" s="52" t="str">
+        <f t="shared" ref="D8:D55" si="0">IF($H$5="STD_HT",B8,IF($H$5="HD",C8,""))</f>
         <v>x</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="I8" s="14">
-        <f t="shared" ref="I8:I52" si="0">IFERROR(VLOOKUP(K8,$G$2:$H$4,2,0),0)+M8</f>
+        <f t="shared" ref="I8:I52" si="1">IFERROR(VLOOKUP(K8,$G$2:$H$4,2,0),0)+M8</f>
         <v>420</v>
       </c>
       <c r="J8" s="14">
@@ -6629,40 +4145,40 @@
         <v>105</v>
       </c>
       <c r="Q8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="32" t="s">
-        <v>11</v>
-      </c>
       <c r="S8" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="59" t="str">
-        <f>IF($H$5="STD_HT",B9,IF($H$5="HD",C9,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D9" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="H9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="J9" s="14">
@@ -6678,10 +4194,10 @@
         <v>105</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="33">
-        <v>260</v>
+        <v>22</v>
+      </c>
+      <c r="R9" s="15">
+        <v>420</v>
       </c>
       <c r="S9" s="26">
         <v>2</v>
@@ -6689,29 +4205,29 @@
     </row>
     <row r="10" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="59" t="str">
-        <f>IF($H$5="STD_HT",B10,IF($H$5="HD",C10,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D10" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="J10" s="14">
@@ -6726,11 +4242,11 @@
       <c r="M10" s="1">
         <v>95</v>
       </c>
-      <c r="Q10" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="34">
-        <v>320</v>
+      <c r="Q10" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="15">
+        <v>360</v>
       </c>
       <c r="S10" s="27">
         <v>2</v>
@@ -6738,29 +4254,29 @@
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="59" t="str">
-        <f>IF($H$5="STD_HT",B11,IF($H$5="HD",C11,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D11" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="H11" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="J11" s="14">
@@ -6775,41 +4291,35 @@
       <c r="M11" s="1">
         <v>95</v>
       </c>
-      <c r="Q11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="15">
-        <v>431</v>
-      </c>
-      <c r="S11" s="27">
-        <v>1</v>
-      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="27"/>
     </row>
     <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="59" t="str">
-        <f>IF($H$5="STD_HT",B12,IF($H$5="HD",C12,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D12" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="H12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="J12" s="14">
@@ -6824,35 +4334,41 @@
       <c r="M12" s="1">
         <v>105</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="27"/>
+      <c r="Q12" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="36">
+        <v>140</v>
+      </c>
+      <c r="S12" s="27">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="59" t="str">
-        <f>IF($H$5="STD_HT",B13,IF($H$5="HD",C13,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D13" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="H13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="J13" s="14">
@@ -6867,11 +4383,11 @@
       <c r="M13" s="1">
         <v>105</v>
       </c>
-      <c r="Q13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="33">
-        <v>410</v>
+      <c r="Q13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="15">
+        <v>510</v>
       </c>
       <c r="S13" s="27">
         <v>8</v>
@@ -6879,29 +4395,29 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="59" t="str">
-        <f>IF($H$5="STD_HT",B14,IF($H$5="HD",C14,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D14" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="H14" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="J14" s="14">
@@ -6917,40 +4433,40 @@
         <v>95</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="35">
-        <v>420</v>
+        <v>18</v>
+      </c>
+      <c r="R14" s="15">
+        <v>520</v>
       </c>
       <c r="S14" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="59" t="str">
-        <f>IF($H$5="STD_HT",B15,IF($H$5="HD",C15,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D15" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="H15" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="J15" s="14">
@@ -6966,40 +4482,40 @@
         <v>95</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="34">
-        <v>140</v>
+        <v>18</v>
+      </c>
+      <c r="R15" s="15">
+        <v>980</v>
       </c>
       <c r="S15" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="59" t="str">
-        <f>IF($H$5="STD_HT",B16,IF($H$5="HD",C16,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D16" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="H16" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="J16" s="14">
@@ -7014,41 +4530,41 @@
       <c r="M16" s="1">
         <v>105</v>
       </c>
-      <c r="Q16" s="35" t="s">
-        <v>19</v>
+      <c r="Q16" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="R16" s="15">
-        <v>880</v>
+        <v>610</v>
       </c>
       <c r="S16" s="27">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="59" t="str">
-        <f>IF($H$5="STD_HT",B17,IF($H$5="HD",C17,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D17" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="H17" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="J17" s="14">
@@ -7063,41 +4579,35 @@
       <c r="M17" s="1">
         <v>95</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="15">
-        <v>510</v>
-      </c>
-      <c r="S17" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q17" s="22"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="27"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="59" t="str">
-        <f>IF($H$5="STD_HT",B18,IF($H$5="HD",C18,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D18" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="H18" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="J18" s="14">
@@ -7112,35 +4622,41 @@
       <c r="M18" s="1">
         <v>95</v>
       </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="27"/>
+      <c r="Q18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="33">
+        <v>150</v>
+      </c>
+      <c r="S18" s="27">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="59" t="str">
-        <f>IF($H$5="STD_HT",B19,IF($H$5="HD",C19,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D19" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="H19" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>880</v>
       </c>
       <c r="J19" s="14">
@@ -7155,41 +4671,41 @@
       <c r="M19" s="1">
         <v>540</v>
       </c>
-      <c r="Q19" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R19" s="36">
-        <v>400</v>
+      <c r="Q19" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19" s="34">
+        <v>450</v>
       </c>
       <c r="S19" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="59" t="str">
-        <f>IF($H$5="STD_HT",B20,IF($H$5="HD",C20,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D20" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="H20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>880</v>
       </c>
       <c r="J20" s="14">
@@ -7204,35 +4720,41 @@
       <c r="M20" s="1">
         <v>540</v>
       </c>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="27"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q20" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R20" s="15">
+        <v>500</v>
+      </c>
+      <c r="S20" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="59" t="str">
-        <f>IF($H$5="STD_HT",B21,IF($H$5="HD",C21,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D21" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="H21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>880</v>
       </c>
       <c r="J21" s="14">
@@ -7247,41 +4769,41 @@
       <c r="M21" s="1">
         <v>540</v>
       </c>
-      <c r="Q21" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="R21" s="33">
-        <v>150</v>
+      <c r="Q21" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="R21" s="15">
+        <v>550</v>
       </c>
       <c r="S21" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="59" t="str">
-        <f>IF($H$5="STD_HT",B22,IF($H$5="HD",C22,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D22" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="H22" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>880</v>
       </c>
       <c r="J22" s="14">
@@ -7296,41 +4818,35 @@
       <c r="M22" s="1">
         <v>540</v>
       </c>
-      <c r="Q22" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="R22" s="35">
-        <v>385</v>
-      </c>
-      <c r="S22" s="27">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="27"/>
     </row>
     <row r="23" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="59" t="str">
-        <f>IF($H$5="STD_HT",B23,IF($H$5="HD",C23,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D23" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="H23" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="J23" s="14">
@@ -7345,11 +4861,11 @@
       <c r="M23" s="1">
         <v>95</v>
       </c>
-      <c r="Q23" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" s="34">
-        <v>450</v>
+      <c r="Q23" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="15">
+        <v>550</v>
       </c>
       <c r="S23" s="27">
         <v>3</v>
@@ -7357,36 +4873,36 @@
     </row>
     <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="59" t="str">
-        <f>IF($H$5="STD_HT",B24,IF($H$5="HD",C24,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D24" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="H24" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="J24" s="14">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L24" s="1">
         <v>140</v>
@@ -7400,36 +4916,36 @@
     </row>
     <row r="25" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="59" t="str">
-        <f>IF($H$5="STD_HT",B25,IF($H$5="HD",C25,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D25" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="H25" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="J25" s="14">
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L25" s="1">
         <v>140</v>
@@ -7438,47 +4954,47 @@
         <v>140</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="R25" s="36">
-        <v>450</v>
+        <v>113</v>
+      </c>
+      <c r="R25" s="15">
+        <v>4800</v>
       </c>
       <c r="S25" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="59" t="str">
-        <f>IF($H$5="STD_HT",B26,IF($H$5="HD",C26,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D26" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="H26" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="J26" s="14">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L26" s="1">
         <v>140</v>
@@ -7492,36 +5008,36 @@
     </row>
     <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="59" t="str">
-        <f>IF($H$5="STD_HT",B27,IF($H$5="HD",C27,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D27" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="H27" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="J27" s="14">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="1">
         <v>140</v>
@@ -7530,10 +5046,10 @@
         <v>140</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="R27" s="15">
-        <v>4000</v>
+        <v>440</v>
       </c>
       <c r="S27" s="27">
         <v>1</v>
@@ -7541,29 +5057,29 @@
     </row>
     <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="59" t="str">
-        <f>IF($H$5="STD_HT",B28,IF($H$5="HD",C28,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D28" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="H28" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="J28" s="14">
@@ -7584,29 +5100,29 @@
     </row>
     <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="59" t="str">
-        <f>IF($H$5="STD_HT",B29,IF($H$5="HD",C29,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D29" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="H29" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>880</v>
       </c>
       <c r="J29" s="14">
@@ -7623,10 +5139,10 @@
       </c>
       <c r="N29" s="1"/>
       <c r="Q29" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R29" s="15">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="S29" s="27">
         <v>1</v>
@@ -7634,29 +5150,29 @@
     </row>
     <row r="30" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="59" t="str">
-        <f>IF($H$5="STD_HT",B30,IF($H$5="HD",C30,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D30" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="H30" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I30" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>880</v>
       </c>
       <c r="J30" s="14">
@@ -7677,29 +5193,29 @@
     </row>
     <row r="31" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="59" t="str">
-        <f>IF($H$5="STD_HT",B31,IF($H$5="HD",C31,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D31" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="G31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="H31" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="J31" s="14">
@@ -7715,10 +5231,10 @@
         <v>170</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="R31" s="15">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="S31" s="27">
         <v>1</v>
@@ -7726,29 +5242,29 @@
     </row>
     <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="59" t="str">
-        <f>IF($H$5="STD_HT",B32,IF($H$5="HD",C32,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D32" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="H32" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="J32" s="14">
@@ -7769,29 +5285,29 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="59" t="str">
-        <f>IF($H$5="STD_HT",B33,IF($H$5="HD",C33,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D33" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="H33" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="J33" s="14">
@@ -7812,29 +5328,29 @@
     </row>
     <row r="34" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="59" t="str">
-        <f>IF($H$5="STD_HT",B34,IF($H$5="HD",C34,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D34" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="H34" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="J34" s="14">
@@ -7855,29 +5371,29 @@
     </row>
     <row r="35" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="59" t="str">
-        <f>IF($H$5="STD_HT",B35,IF($H$5="HD",C35,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D35" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="H35" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="J35" s="14">
@@ -7898,29 +5414,29 @@
     </row>
     <row r="36" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="59" t="str">
-        <f>IF($H$5="STD_HT",B36,IF($H$5="HD",C36,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D36" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="H36" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
       <c r="J36" s="14">
@@ -7941,29 +5457,29 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="59" t="str">
-        <f>IF($H$5="STD_HT",B37,IF($H$5="HD",C37,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D37" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="H37" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
       <c r="J37" s="14">
@@ -7984,26 +5500,26 @@
     </row>
     <row r="38" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="59" t="str">
-        <f>IF($H$5="STD_HT",B38,IF($H$5="HD",C38,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D38" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E38" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="H38" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>431</v>
       </c>
       <c r="J38" s="14">
@@ -8029,29 +5545,29 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="59" t="str">
-        <f>IF($H$5="STD_HT",B39,IF($H$5="HD",C39,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D39" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E39" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="H39" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340</v>
       </c>
       <c r="J39" s="14">
@@ -8066,36 +5582,36 @@
       <c r="M39" s="1">
         <v>25</v>
       </c>
-      <c r="O39" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="P39" s="57"/>
+      <c r="O39" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="P39" s="62"/>
       <c r="Q39" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="59" t="str">
-        <f>IF($H$5="STD_HT",B40,IF($H$5="HD",C40,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D40" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="H40" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I40" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="J40" s="14">
@@ -8110,36 +5626,36 @@
       <c r="M40" s="1">
         <v>85</v>
       </c>
-      <c r="O40" s="51">
+      <c r="O40" s="56">
         <v>315</v>
       </c>
-      <c r="P40" s="52"/>
+      <c r="P40" s="57"/>
       <c r="Q40" s="16">
         <v>340</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="59" t="str">
-        <f>IF($H$5="STD_HT",B41,IF($H$5="HD",C41,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D41" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="J41" s="14">
@@ -8154,11 +5670,11 @@
       <c r="M41" s="1">
         <v>85</v>
       </c>
-      <c r="O41" s="51">
+      <c r="O41" s="56">
         <f>O40+50</f>
         <v>365</v>
       </c>
-      <c r="P41" s="52"/>
+      <c r="P41" s="57"/>
       <c r="Q41" s="16">
         <f>Q40+50</f>
         <v>390</v>
@@ -8166,26 +5682,26 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="59" t="str">
-        <f>IF($H$5="STD_HT",B42,IF($H$5="HD",C42,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D42" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F42" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="13" t="s">
-        <v>93</v>
-      </c>
       <c r="H42" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>385</v>
       </c>
       <c r="J42" s="14">
@@ -8200,41 +5716,41 @@
       <c r="M42" s="1">
         <v>70</v>
       </c>
-      <c r="O42" s="51">
-        <f t="shared" ref="O42:O47" si="1">O41+50</f>
+      <c r="O42" s="56">
+        <f t="shared" ref="O42:O47" si="2">O41+50</f>
         <v>415</v>
       </c>
-      <c r="P42" s="52"/>
+      <c r="P42" s="57"/>
       <c r="Q42" s="16">
-        <f t="shared" ref="Q42:Q47" si="2">Q41+50</f>
+        <f t="shared" ref="Q42:Q47" si="3">Q41+50</f>
         <v>440</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="59" t="str">
-        <f>IF($H$5="STD_HT",B43,IF($H$5="HD",C43,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D43" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E43" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="G43" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="J43" s="14">
@@ -8249,41 +5765,41 @@
       <c r="M43" s="1">
         <v>110</v>
       </c>
-      <c r="O43" s="51">
-        <f t="shared" si="1"/>
+      <c r="O43" s="56">
+        <f t="shared" si="2"/>
         <v>465</v>
       </c>
-      <c r="P43" s="52"/>
+      <c r="P43" s="57"/>
       <c r="Q43" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>490</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="59" t="str">
-        <f>IF($H$5="STD_HT",B44,IF($H$5="HD",C44,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D44" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E44" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="G44" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="J44" s="14">
@@ -8298,41 +5814,41 @@
       <c r="M44" s="1">
         <v>110</v>
       </c>
-      <c r="O44" s="51">
-        <f t="shared" si="1"/>
+      <c r="O44" s="56">
+        <f t="shared" si="2"/>
         <v>515</v>
       </c>
-      <c r="P44" s="52"/>
+      <c r="P44" s="57"/>
       <c r="Q44" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>540</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="59" t="str">
-        <f>IF($H$5="STD_HT",B45,IF($H$5="HD",C45,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D45" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E45" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="G45" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="J45" s="14">
@@ -8347,48 +5863,48 @@
       <c r="M45" s="1">
         <v>110</v>
       </c>
-      <c r="O45" s="51">
-        <f t="shared" si="1"/>
+      <c r="O45" s="56">
+        <f t="shared" si="2"/>
         <v>565</v>
       </c>
-      <c r="P45" s="52"/>
+      <c r="P45" s="57"/>
       <c r="Q45" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>590</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="59" t="str">
-        <f>IF($H$5="STD_HT",B46,IF($H$5="HD",C46,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D46" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="J46" s="14">
         <v>3</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L46" s="1">
         <v>150</v>
@@ -8396,41 +5912,41 @@
       <c r="M46" s="1">
         <v>150</v>
       </c>
-      <c r="O46" s="51">
-        <f t="shared" si="1"/>
+      <c r="O46" s="56">
+        <f t="shared" si="2"/>
         <v>615</v>
       </c>
-      <c r="P46" s="52"/>
+      <c r="P46" s="57"/>
       <c r="Q46" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>640</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="59" t="str">
-        <f>IF($H$5="STD_HT",B47,IF($H$5="HD",C47,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D47" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F47" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="H47" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I47" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="J47" s="14">
@@ -8445,41 +5961,41 @@
       <c r="M47" s="1">
         <v>110</v>
       </c>
-      <c r="O47" s="51">
-        <f t="shared" si="1"/>
+      <c r="O47" s="56">
+        <f t="shared" si="2"/>
         <v>665</v>
       </c>
-      <c r="P47" s="52"/>
+      <c r="P47" s="57"/>
       <c r="Q47" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>690</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="59" t="str">
-        <f>IF($H$5="STD_HT",B48,IF($H$5="HD",C48,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D48" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F48" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="H48" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I48" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="J48" s="14">
@@ -8497,29 +6013,29 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="59" t="str">
-        <f>IF($H$5="STD_HT",B49,IF($H$5="HD",C49,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D49" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F49" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="H49" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I49" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="J49" s="14">
@@ -8537,26 +6053,26 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="59" t="str">
-        <f>IF($H$5="STD_HT",B50,IF($H$5="HD",C50,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D50" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E50" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="G50" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="H50" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="I50" s="14">
         <f>IFERROR(VLOOKUP(K50,$G$2:$H$4,2,0)*8,0)+M50</f>
@@ -8577,29 +6093,29 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="59" t="str">
-        <f>IF($H$5="STD_HT",B51,IF($H$5="HD",C51,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D51" s="52" t="str">
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="E51" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="G51" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="H51" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H51" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="I51" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J51" s="14">
@@ -8618,26 +6134,26 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="49"/>
       <c r="C52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="59">
-        <f>IF($H$5="STD_HT",B52,IF($H$5="HD",C52,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D52" s="52">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="G52" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="H52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H52" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="I52" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="J52" s="14">
@@ -8656,26 +6172,26 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="49"/>
       <c r="C53" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="59">
-        <f>IF($H$5="STD_HT",B53,IF($H$5="HD",C53,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D53" s="52">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="G53" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="H53" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" s="14">
-        <f t="shared" ref="I53:I55" si="3">IFERROR(VLOOKUP(K53,$G$2:$H$4,2,0),0)+M53</f>
+        <f t="shared" ref="I53:I55" si="4">IFERROR(VLOOKUP(K53,$G$2:$H$4,2,0),0)+M53</f>
         <v>400</v>
       </c>
       <c r="J53" s="14">
@@ -8695,26 +6211,26 @@
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="49"/>
       <c r="C54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" s="59">
-        <f>IF($H$5="STD_HT",B54,IF($H$5="HD",C54,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D54" s="52">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="G54" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G54" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="H54" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="J54" s="14">
@@ -8734,26 +6250,26 @@
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="49"/>
       <c r="C55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D55" s="59">
-        <f>IF($H$5="STD_HT",B55,IF($H$5="HD",C55,""))</f>
+        <v>136</v>
+      </c>
+      <c r="D55" s="52">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="J55" s="14">
@@ -8785,7 +6301,7 @@
     <mergeCell ref="O46:P46"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:J55">
-    <cfRule type="expression" dxfId="91" priority="1">
+    <cfRule type="expression" dxfId="120" priority="1">
       <formula>$D8&lt;&gt;"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8820,7 +6336,7 @@
     <row r="2" spans="16:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P3" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="42"/>
     </row>
@@ -8830,7 +6346,7 @@
         <v>Desired Print Area</v>
       </c>
       <c r="Q4" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -8855,10 +6371,10 @@
     </row>
     <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P9" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -8881,10 +6397,10 @@
     </row>
     <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P13" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="39" t="s">
         <v>116</v>
-      </c>
-      <c r="Q13" s="39" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -8907,7 +6423,7 @@
     </row>
     <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P17" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="39"/>
     </row>

--- a/FrameCalculator.xlsx
+++ b/FrameCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DD041-33AC-4FB7-A7A8-E8EF10BD6CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B6B26B-C526-4D27-AB4C-A1696D3203BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="140">
   <si>
     <t>Desired Print Area</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>4. Right-Click in the table below and do "Refresh"</t>
+  </si>
+  <si>
+    <t>SFU1204 Screw BK10/BF10</t>
   </si>
 </sst>
 </file>
@@ -1167,1090 +1170,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="121">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD1F810"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3328,7 +2248,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1461BD4-CFE3-49FF-BD65-96FF36D7102A}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1461BD4-CFE3-49FF-BD65-96FF36D7102A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="Q7:S32" firstHeaderRow="2" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
@@ -3488,80 +2408,80 @@
     <dataField name="Sum of Qty" fld="6" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="119">
+    <format dxfId="29">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="26">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="25">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="22">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="20">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="19">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="18">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="17">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="16">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="15">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="14">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="13">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="10">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="9">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="8">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -3574,7 +2494,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -3588,7 +2508,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -3600,7 +2520,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -3614,7 +2534,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -3626,10 +2546,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="1">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="0">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
   </formats>
@@ -3948,35 +2868,34 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="3.453125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="3.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="5.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="3" width="3.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="12.81640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9.1796875" collapsed="1"/>
-    <col min="15" max="15" width="11.81640625" customWidth="1"/>
-    <col min="16" max="16" width="1.26953125" customWidth="1"/>
-    <col min="17" max="17" width="32.1796875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.90625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" customWidth="1"/>
-    <col min="21" max="21" width="12.26953125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9.140625" collapsed="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="1.28515625" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F1" s="1"/>
       <c r="G1" s="2" t="s">
         <v>0</v>
@@ -3985,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F2" s="1"/>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -3997,7 +2916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -4010,7 +2929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
         <v>5</v>
@@ -4025,7 +2944,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G5" s="51" t="s">
         <v>133</v>
       </c>
@@ -4046,7 +2965,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E6" s="7" t="s">
         <v>109</v>
       </c>
@@ -4057,7 +2976,7 @@
       <c r="R6" s="59"/>
       <c r="S6" s="60"/>
     </row>
-    <row r="7" spans="2:23" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:23" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>135</v>
       </c>
@@ -4105,7 +3024,7 @@
       <c r="U7"/>
       <c r="V7"/>
     </row>
-    <row r="8" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>136</v>
       </c>
@@ -4154,7 +3073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>136</v>
       </c>
@@ -4203,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -4252,7 +3171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>136</v>
       </c>
@@ -4295,7 +3214,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="27"/>
     </row>
-    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>136</v>
       </c>
@@ -4344,7 +3263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>136</v>
       </c>
@@ -4393,7 +3312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>136</v>
       </c>
@@ -4442,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>136</v>
       </c>
@@ -4491,7 +3410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>136</v>
       </c>
@@ -4540,7 +3459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>136</v>
       </c>
@@ -4583,7 +3502,7 @@
       <c r="R17" s="15"/>
       <c r="S17" s="27"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>136</v>
       </c>
@@ -4632,7 +3551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>136</v>
       </c>
@@ -4681,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>136</v>
       </c>
@@ -4730,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>136</v>
       </c>
@@ -4779,7 +3698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>136</v>
       </c>
@@ -4822,7 +3741,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="27"/>
     </row>
-    <row r="23" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>136</v>
       </c>
@@ -4871,7 +3790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>136</v>
       </c>
@@ -4914,7 +3833,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="27"/>
     </row>
-    <row r="25" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>136</v>
       </c>
@@ -4963,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>136</v>
       </c>
@@ -5006,7 +3925,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="27"/>
     </row>
-    <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>136</v>
       </c>
@@ -5055,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -5098,7 +4017,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="27"/>
     </row>
-    <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>136</v>
       </c>
@@ -5148,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>136</v>
       </c>
@@ -5191,7 +4110,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="27"/>
     </row>
-    <row r="31" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>136</v>
       </c>
@@ -5240,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>136</v>
       </c>
@@ -5283,7 +4202,7 @@
       <c r="R32" s="24"/>
       <c r="S32" s="28"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>136</v>
       </c>
@@ -5326,7 +4245,7 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>136</v>
       </c>
@@ -5369,7 +4288,7 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>136</v>
       </c>
@@ -5412,7 +4331,7 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>136</v>
       </c>
@@ -5455,7 +4374,7 @@
       <c r="R36"/>
       <c r="S36"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>136</v>
       </c>
@@ -5498,7 +4417,7 @@
       <c r="R37"/>
       <c r="S37"/>
     </row>
-    <row r="38" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>136</v>
       </c>
@@ -5543,7 +4462,7 @@
       <c r="U38" s="25"/>
       <c r="V38" s="25"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>136</v>
       </c>
@@ -5590,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>136</v>
       </c>
@@ -5634,7 +4553,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>136</v>
       </c>
@@ -5680,7 +4599,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>136</v>
       </c>
@@ -5726,7 +4645,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>136</v>
       </c>
@@ -5775,7 +4694,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>136</v>
       </c>
@@ -5824,7 +4743,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>136</v>
       </c>
@@ -5873,7 +4792,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>136</v>
       </c>
@@ -5922,7 +4841,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>136</v>
       </c>
@@ -5943,7 +4862,7 @@
         <v>97</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="I47" s="14">
         <f t="shared" si="1"/>
@@ -5971,7 +4890,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>136</v>
       </c>
@@ -5992,7 +4911,7 @@
         <v>99</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="I48" s="14">
         <f t="shared" si="1"/>
@@ -6011,7 +4930,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>136</v>
       </c>
@@ -6032,7 +4951,7 @@
         <v>101</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="I49" s="14">
         <f t="shared" si="1"/>
@@ -6051,7 +4970,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>136</v>
       </c>
@@ -6091,7 +5010,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>136</v>
       </c>
@@ -6131,7 +5050,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="49"/>
       <c r="C52" t="s">
         <v>136</v>
@@ -6169,7 +5088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
       <c r="C53" t="s">
         <v>136</v>
@@ -6208,7 +5127,7 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="49"/>
       <c r="C54" t="s">
         <v>136</v>
@@ -6247,7 +5166,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="49"/>
       <c r="C55" t="s">
         <v>136</v>
@@ -6301,7 +5220,7 @@
     <mergeCell ref="O46:P46"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:J55">
-    <cfRule type="expression" dxfId="120" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>$D8&lt;&gt;"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6327,20 +5246,20 @@
       <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="16:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="16:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="16:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P3" s="41" t="s">
         <v>123</v>
       </c>
       <c r="Q3" s="42"/>
     </row>
-    <row r="4" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P4" s="43" t="str">
         <f>FRAMECALCULATOR!G1</f>
         <v>Desired Print Area</v>
@@ -6349,7 +5268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P5" s="45" t="str">
         <f>FRAMECALCULATOR!G2</f>
         <v>X</v>
@@ -6359,7 +5278,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="16:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P6" s="47" t="str">
         <f>FRAMECALCULATOR!G3</f>
         <v>Y</v>
@@ -6369,7 +5288,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P9" s="39" t="s">
         <v>114</v>
       </c>
@@ -6377,7 +5296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P10" s="38" t="s">
         <v>2</v>
       </c>
@@ -6386,7 +5305,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P11" s="38" t="s">
         <v>3</v>
       </c>
@@ -6395,7 +5314,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P13" s="39" t="s">
         <v>115</v>
       </c>
@@ -6403,7 +5322,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P14" s="38" t="s">
         <v>2</v>
       </c>
@@ -6412,7 +5331,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P15" s="38" t="s">
         <v>3</v>
       </c>
@@ -6421,13 +5340,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P17" s="39" t="s">
         <v>122</v>
       </c>
       <c r="Q17" s="39"/>
     </row>
-    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P18" s="38" t="s">
         <v>2</v>
       </c>
@@ -6436,7 +5355,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.5">
+    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.35">
       <c r="P19" s="38" t="s">
         <v>3</v>
       </c>
